--- a/raw_data/arthropods.xlsx
+++ b/raw_data/arthropods.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9467" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9481" uniqueCount="325">
   <si>
     <t>Region</t>
   </si>
@@ -967,6 +967,45 @@
   <si>
     <t>Lycosidae 4</t>
   </si>
+  <si>
+    <t>Kibramoa</t>
+  </si>
+  <si>
+    <t>suprenans</t>
+  </si>
+  <si>
+    <t>or madrona</t>
+  </si>
+  <si>
+    <t>I chose madrona because the bulbs most closely match, and the description in the field guide to spiders</t>
+  </si>
+  <si>
+    <t>madrona</t>
+  </si>
+  <si>
+    <t>Plectreuridae 1</t>
+  </si>
+  <si>
+    <t>Kibramoa madrona</t>
+  </si>
+  <si>
+    <t>Solenopsis xylonia</t>
+  </si>
+  <si>
+    <t>Solenopsis 1</t>
+  </si>
+  <si>
+    <t>separated</t>
+  </si>
+  <si>
+    <t>Lycosidae - immature</t>
+  </si>
+  <si>
+    <t>Gnaphosa</t>
+  </si>
+  <si>
+    <t>Gnaphosidae - 1</t>
+  </si>
 </sst>
 </file>
 
@@ -1339,7 +1378,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1472,6 +1511,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1518,7 +1566,7 @@
     <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1584,6 +1632,11 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1909,8 +1962,8 @@
   <dimension ref="A1:Q1240"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1042" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L980" sqref="L980"/>
+      <pane ySplit="1" topLeftCell="A1033" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1046" sqref="K1046"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -42470,215 +42523,214 @@
         <v>77</v>
       </c>
     </row>
-    <row r="1016" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1016" s="7">
+    <row r="1016" spans="1:17" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1016" s="28">
         <v>42</v>
       </c>
-      <c r="B1016" t="s">
+      <c r="B1016" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C1016" s="27" t="s">
+      <c r="C1016" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="D1016" s="10" t="s">
+      <c r="D1016" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="E1016" s="13">
+      <c r="E1016" s="31">
         <v>17</v>
       </c>
-      <c r="F1016" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1016">
+      <c r="F1016" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1016" s="29">
         <v>4</v>
       </c>
-      <c r="H1016" t="s">
+      <c r="H1016" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="I1016" t="s">
+      <c r="I1016" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K1016" t="s">
+      <c r="K1016" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="M1016" t="s">
+      <c r="M1016" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="N1016" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1017" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1017" s="7">
+      <c r="N1016" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1017" s="37">
         <v>44</v>
       </c>
-      <c r="B1017" s="27" t="s">
+      <c r="B1017" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C1017" s="27" t="s">
+      <c r="C1017" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="D1017" s="10" t="s">
+      <c r="D1017" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E1017" s="13">
+      <c r="E1017" s="39">
         <v>17</v>
       </c>
-      <c r="F1017" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1017" s="27">
+      <c r="F1017" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1017" s="36">
         <v>5</v>
       </c>
-      <c r="H1017" s="7" t="s">
+      <c r="H1017" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="I1017" s="7" t="s">
+      <c r="I1017" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="J1017" s="7"/>
-      <c r="K1017" s="7" t="s">
+      <c r="J1017" s="37"/>
+      <c r="K1017" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="L1017" s="7"/>
-      <c r="M1017" s="7" t="s">
+      <c r="L1017" s="37"/>
+      <c r="M1017" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="N1017" s="7">
-        <v>1</v>
-      </c>
-      <c r="O1017" s="27"/>
-      <c r="P1017" s="27"/>
-      <c r="Q1017" s="27"/>
-    </row>
-    <row r="1018" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1018" s="7">
+      <c r="N1017" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1018" s="37">
         <v>43</v>
       </c>
-      <c r="B1018" t="s">
+      <c r="B1018" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C1018" s="27" t="s">
+      <c r="C1018" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="D1018" s="10" t="s">
+      <c r="D1018" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E1018" s="13">
+      <c r="E1018" s="39">
         <v>17</v>
       </c>
-      <c r="F1018" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1018">
-        <v>1</v>
-      </c>
-      <c r="H1018" s="7" t="s">
+      <c r="F1018" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1018" s="36">
+        <v>1</v>
+      </c>
+      <c r="H1018" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="I1018" s="7" t="s">
+      <c r="I1018" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="J1018" s="7"/>
-      <c r="K1018" s="7"/>
-      <c r="L1018" s="7"/>
-      <c r="M1018" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="N1018" s="7">
-        <v>1</v>
-      </c>
-      <c r="O1018" t="s">
+      <c r="J1018" s="37"/>
+      <c r="K1018" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="L1018" s="37" t="s">
+        <v>316</v>
+      </c>
+      <c r="M1018" s="37" t="s">
+        <v>318</v>
+      </c>
+      <c r="N1018" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="O1018" s="36" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="1019" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1019" s="7">
+    <row r="1019" spans="1:17" s="66" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1019" s="65">
         <v>45</v>
       </c>
-      <c r="B1019" s="27" t="s">
+      <c r="B1019" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C1019" s="27" t="s">
+      <c r="C1019" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="D1019" s="10" t="s">
+      <c r="D1019" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="E1019" s="13">
+      <c r="E1019" s="68">
         <v>17</v>
       </c>
-      <c r="F1019" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1019" s="27">
-        <v>1</v>
-      </c>
-      <c r="H1019" s="7" t="s">
+      <c r="F1019" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1019" s="66">
+        <v>1</v>
+      </c>
+      <c r="H1019" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="I1019" s="7" t="s">
+      <c r="I1019" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="J1019" s="27"/>
-      <c r="K1019" s="7" t="s">
+      <c r="K1019" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="L1019" s="7"/>
-      <c r="M1019" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="N1019" s="7">
-        <v>1</v>
-      </c>
-      <c r="O1019" s="27"/>
-      <c r="P1019" s="27"/>
-      <c r="Q1019" s="27"/>
-    </row>
-    <row r="1020" spans="1:17" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1020" s="28">
+      <c r="L1019" s="65" t="s">
+        <v>297</v>
+      </c>
+      <c r="M1019" s="65" t="s">
+        <v>319</v>
+      </c>
+      <c r="N1019" s="65" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1020" s="37">
         <v>46</v>
       </c>
-      <c r="B1020" s="28" t="s">
+      <c r="B1020" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C1020" s="28" t="s">
+      <c r="C1020" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D1020" s="46" t="s">
+      <c r="D1020" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="E1020" s="47">
+      <c r="E1020" s="50">
         <v>22</v>
       </c>
-      <c r="F1020" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1020" s="28">
-        <v>1</v>
-      </c>
-      <c r="H1020" s="28" t="s">
+      <c r="F1020" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1020" s="37">
+        <v>1</v>
+      </c>
+      <c r="H1020" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="I1020" s="28" t="s">
+      <c r="I1020" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="J1020" s="28"/>
-      <c r="K1020" s="28" t="s">
+      <c r="J1020" s="37"/>
+      <c r="K1020" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="L1020" s="28" t="s">
+      <c r="L1020" s="37" t="s">
         <v>298</v>
       </c>
-      <c r="M1020" s="28" t="s">
+      <c r="M1020" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="N1020" s="28">
-        <v>1</v>
-      </c>
-      <c r="O1020" s="28"/>
-      <c r="P1020" s="28"/>
-      <c r="Q1020" s="28"/>
+      <c r="N1020" s="37">
+        <v>1</v>
+      </c>
+      <c r="O1020" s="37"/>
+      <c r="P1020" s="37"/>
+      <c r="Q1020" s="37"/>
     </row>
     <row r="1021" spans="1:17" s="63" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1021" s="37">
@@ -43068,7 +43120,7 @@
         <v>26</v>
       </c>
       <c r="F1030" s="1" t="s">
-        <v>47</v>
+        <v>321</v>
       </c>
       <c r="G1030" s="27">
         <v>1</v>
@@ -43080,13 +43132,17 @@
         <v>262</v>
       </c>
       <c r="J1030" s="27"/>
-      <c r="K1030" s="27"/>
-      <c r="L1030" s="27"/>
-      <c r="M1030" s="27" t="s">
-        <v>262</v>
-      </c>
-      <c r="N1030">
-        <v>1</v>
+      <c r="K1030" s="37" t="s">
+        <v>306</v>
+      </c>
+      <c r="L1030" s="37" t="s">
+        <v>308</v>
+      </c>
+      <c r="M1030" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="N1030" t="s">
+        <v>307</v>
       </c>
       <c r="O1030" s="27" t="s">
         <v>265</v>
@@ -43214,7 +43270,7 @@
       <c r="K1033" s="37"/>
       <c r="L1033" s="37"/>
       <c r="M1033" s="37" t="s">
-        <v>68</v>
+        <v>322</v>
       </c>
       <c r="N1033" s="37">
         <v>2</v>
@@ -43481,128 +43537,130 @@
         <v>83</v>
       </c>
     </row>
-    <row r="1040" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1040" s="7">
+    <row r="1040" spans="1:17" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1040" s="28">
         <v>68</v>
       </c>
-      <c r="B1040" s="7" t="s">
+      <c r="B1040" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C1040" s="7" t="s">
+      <c r="C1040" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D1040" s="11" t="s">
+      <c r="D1040" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E1040" s="14">
+      <c r="E1040" s="47">
         <v>30</v>
       </c>
-      <c r="F1040" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1040" s="7">
-        <v>1</v>
-      </c>
-      <c r="H1040" s="7" t="s">
+      <c r="F1040" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1040" s="28">
+        <v>1</v>
+      </c>
+      <c r="H1040" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="I1040" s="7" t="s">
+      <c r="I1040" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="J1040" s="7"/>
-      <c r="K1040" s="7"/>
-      <c r="L1040" s="7"/>
-      <c r="M1040" s="7" t="s">
+      <c r="J1040" s="28"/>
+      <c r="K1040" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="L1040" s="28"/>
+      <c r="M1040" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="N1040" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="O1040" s="28"/>
+      <c r="P1040" s="28"/>
+      <c r="Q1040" s="28"/>
+    </row>
+    <row r="1041" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1041" s="37">
+        <v>69</v>
+      </c>
+      <c r="B1041" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1041" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1041" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1041" s="50">
+        <v>30</v>
+      </c>
+      <c r="F1041" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1041" s="37">
+        <v>1</v>
+      </c>
+      <c r="H1041" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1041" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1041" s="37"/>
+      <c r="K1041" s="37"/>
+      <c r="L1041" s="37"/>
+      <c r="M1041" s="37" t="s">
+        <v>322</v>
+      </c>
+      <c r="N1041" s="37">
+        <v>1</v>
+      </c>
+      <c r="O1041" s="37"/>
+      <c r="P1041" s="37"/>
+      <c r="Q1041" s="37"/>
+    </row>
+    <row r="1042" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1042" s="52">
         <v>67</v>
       </c>
-      <c r="N1040" s="7">
-        <v>1</v>
-      </c>
-      <c r="O1040" s="7"/>
-      <c r="P1040" s="7"/>
-      <c r="Q1040" s="7"/>
-    </row>
-    <row r="1041" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1041" s="7">
-        <v>69</v>
-      </c>
-      <c r="B1041" s="7" t="s">
+      <c r="B1042" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C1041" s="7" t="s">
+      <c r="C1042" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="D1041" s="11" t="s">
+      <c r="D1042" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="E1041" s="14">
+      <c r="E1042" s="54">
         <v>30</v>
       </c>
-      <c r="F1041" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1041" s="7">
-        <v>1</v>
-      </c>
-      <c r="H1041" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1041" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="J1041" s="7"/>
-      <c r="K1041" s="7"/>
-      <c r="L1041" s="7"/>
-      <c r="M1041" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="N1041" s="7">
-        <v>1</v>
-      </c>
-      <c r="O1041" s="7"/>
-      <c r="P1041" s="7"/>
-      <c r="Q1041" s="7"/>
-    </row>
-    <row r="1042" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1042" s="7">
-        <v>67</v>
-      </c>
-      <c r="B1042" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1042" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1042" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1042" s="14">
-        <v>30</v>
-      </c>
-      <c r="F1042" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1042" s="7">
-        <v>1</v>
-      </c>
-      <c r="H1042" s="7" t="s">
+      <c r="F1042" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1042" s="52">
+        <v>1</v>
+      </c>
+      <c r="H1042" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="I1042" s="7" t="s">
+      <c r="I1042" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="J1042" s="7"/>
-      <c r="K1042" s="7"/>
-      <c r="L1042" s="7"/>
-      <c r="M1042" s="7" t="s">
+      <c r="J1042" s="52"/>
+      <c r="K1042" s="52"/>
+      <c r="L1042" s="52"/>
+      <c r="M1042" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="N1042" s="7">
-        <v>1</v>
-      </c>
-      <c r="O1042" s="7"/>
-      <c r="P1042" s="7"/>
-      <c r="Q1042" s="7"/>
+      <c r="N1042" s="52">
+        <v>1</v>
+      </c>
+      <c r="O1042" s="52"/>
+      <c r="P1042" s="52"/>
+      <c r="Q1042" s="52"/>
     </row>
     <row r="1043" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1043" s="7">
@@ -53530,10 +53588,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D2"/>
+  <dimension ref="A2:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -53546,6 +53604,22 @@
         <v>310</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>314</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/raw_data/arthropods.xlsx
+++ b/raw_data/arthropods.xlsx
@@ -18,7 +18,7 @@
     <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Main ID'!$C$1:$C$1240</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Main ID'!$C$1:$C$1241</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9481" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9492" uniqueCount="333">
   <si>
     <t>Region</t>
   </si>
@@ -1006,6 +1006,30 @@
   <si>
     <t>Gnaphosidae - 1</t>
   </si>
+  <si>
+    <t>Scolopendra polymorpha</t>
+  </si>
+  <si>
+    <t>polymorpha</t>
+  </si>
+  <si>
+    <t>Psilochorus</t>
+  </si>
+  <si>
+    <t>Pholcidae 1</t>
+  </si>
+  <si>
+    <t>Tapinoma, might be forelius</t>
+  </si>
+  <si>
+    <t>Solenopsis xyloni</t>
+  </si>
+  <si>
+    <t>Oonopidae</t>
+  </si>
+  <si>
+    <t>Escaphiella</t>
+  </si>
 </sst>
 </file>
 
@@ -1566,7 +1590,7 @@
     <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1637,6 +1661,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1959,11 +1988,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q1240"/>
+  <dimension ref="A1:Q1241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1033" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1046" sqref="K1046"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I197" sqref="I197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6247,38 +6276,38 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="7">
+    <row r="111" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="3">
         <v>547</v>
       </c>
-      <c r="B111" s="7" t="s">
+      <c r="B111" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C111" s="6" t="s">
+      <c r="C111" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="D111" s="11" t="s">
+      <c r="D111" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E111" s="14">
+      <c r="E111" s="15">
         <v>30</v>
       </c>
-      <c r="F111" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G111" s="7">
-        <v>1</v>
-      </c>
-      <c r="H111" s="7" t="s">
+      <c r="F111" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G111" s="3">
+        <v>1</v>
+      </c>
+      <c r="H111" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I111" s="7" t="s">
+      <c r="I111" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="M111" s="7" t="s">
+      <c r="M111" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="O111" s="7" t="s">
+      <c r="O111" s="3" t="s">
         <v>175</v>
       </c>
     </row>
@@ -48280,392 +48309,390 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1156" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1156" s="7">
+    <row r="1156" spans="1:17" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1156" s="28">
         <v>182</v>
       </c>
-      <c r="B1156" s="7" t="s">
+      <c r="B1156" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C1156" s="6" t="s">
+      <c r="C1156" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="D1156" s="11" t="s">
+      <c r="D1156" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E1156" s="14">
+      <c r="E1156" s="47">
         <v>12</v>
       </c>
-      <c r="F1156" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1156" s="7">
-        <v>1</v>
-      </c>
-      <c r="H1156" s="7" t="s">
+      <c r="F1156" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1156" s="28">
+        <v>1</v>
+      </c>
+      <c r="H1156" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="I1156" s="7" t="s">
+      <c r="I1156" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="J1156" s="7"/>
-      <c r="K1156" s="7" t="s">
+      <c r="J1156" s="28"/>
+      <c r="K1156" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="L1156" s="7"/>
-      <c r="M1156" s="7" t="s">
+      <c r="L1156" s="28"/>
+      <c r="M1156" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="N1156" s="7">
-        <v>1</v>
-      </c>
-      <c r="O1156" s="7"/>
-      <c r="P1156" s="7"/>
-      <c r="Q1156" s="7"/>
-    </row>
-    <row r="1157" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1157" s="7">
+      <c r="N1156" s="28">
+        <v>1</v>
+      </c>
+      <c r="O1156" s="28"/>
+      <c r="P1156" s="28"/>
+      <c r="Q1156" s="28"/>
+    </row>
+    <row r="1157" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1157" s="28">
+        <v>182</v>
+      </c>
+      <c r="B1157" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1157" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1157" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1157" s="47">
+        <v>12</v>
+      </c>
+      <c r="F1157" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1157" s="37">
+        <v>1</v>
+      </c>
+      <c r="H1157" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1157" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="J1157" s="37"/>
+      <c r="K1157" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="L1157" s="37"/>
+      <c r="M1157" s="37"/>
+      <c r="N1157" s="37"/>
+      <c r="O1157" s="37"/>
+      <c r="P1157" s="37"/>
+      <c r="Q1157" s="37"/>
+    </row>
+    <row r="1158" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1158" s="37">
         <v>184</v>
       </c>
-      <c r="B1157" s="7" t="s">
+      <c r="B1158" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C1157" s="6" t="s">
+      <c r="C1158" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="D1157" s="11" t="s">
+      <c r="D1158" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="E1157" s="14">
+      <c r="E1158" s="50">
         <v>12</v>
       </c>
-      <c r="F1157" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1157" s="7">
-        <v>1</v>
-      </c>
-      <c r="H1157" s="7" t="s">
+      <c r="F1158" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1158" s="37">
+        <v>1</v>
+      </c>
+      <c r="H1158" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="I1157" s="7" t="s">
+      <c r="I1158" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="J1157" s="7"/>
-      <c r="K1157" s="7" t="s">
+      <c r="J1158" s="37"/>
+      <c r="K1158" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="L1157" s="7"/>
-      <c r="M1157" s="7" t="s">
+      <c r="L1158" s="37"/>
+      <c r="M1158" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="N1157" s="7">
-        <v>1</v>
-      </c>
-      <c r="O1157" s="7"/>
-      <c r="P1157" s="7"/>
-      <c r="Q1157" s="7" t="s">
+      <c r="N1158" s="37">
+        <v>1</v>
+      </c>
+      <c r="O1158" s="37"/>
+      <c r="P1158" s="37"/>
+      <c r="Q1158" s="37" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="1158" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1158" s="7">
+    <row r="1159" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1159" s="37">
         <v>186</v>
       </c>
-      <c r="B1158" s="7" t="s">
+      <c r="B1159" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C1158" s="6" t="s">
+      <c r="C1159" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="D1158" s="11" t="s">
+      <c r="D1159" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="E1158" s="14">
+      <c r="E1159" s="50">
         <v>12</v>
       </c>
-      <c r="F1158" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1158" s="7">
-        <v>1</v>
-      </c>
-      <c r="H1158" s="7" t="s">
+      <c r="F1159" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1159" s="37">
+        <v>1</v>
+      </c>
+      <c r="H1159" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="I1158" s="7" t="s">
+      <c r="I1159" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="J1158" s="7"/>
-      <c r="K1158" s="7"/>
-      <c r="L1158" s="7"/>
-      <c r="M1158" s="7" t="s">
+      <c r="J1159" s="37"/>
+      <c r="K1159" s="37"/>
+      <c r="L1159" s="37"/>
+      <c r="M1159" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="N1158" s="7">
+      <c r="N1159" s="37">
         <v>4</v>
       </c>
-      <c r="O1158" s="7"/>
-      <c r="P1158" s="7"/>
-      <c r="Q1158" s="7"/>
-    </row>
-    <row r="1159" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1159" s="7">
+      <c r="O1159" s="37"/>
+      <c r="P1159" s="37"/>
+      <c r="Q1159" s="37"/>
+    </row>
+    <row r="1160" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1160" s="37">
         <v>183</v>
       </c>
-      <c r="B1159" s="7" t="s">
+      <c r="B1160" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C1159" s="6" t="s">
+      <c r="C1160" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="D1159" s="11" t="s">
+      <c r="D1160" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="E1159" s="14">
+      <c r="E1160" s="50">
         <v>12</v>
       </c>
-      <c r="F1159" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1159" s="7">
+      <c r="F1160" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1160" s="37">
         <v>7</v>
       </c>
-      <c r="H1159" s="7" t="s">
+      <c r="H1160" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="I1159" s="7"/>
-      <c r="J1159" s="7"/>
-      <c r="K1159" s="7"/>
-      <c r="L1159" s="7"/>
-      <c r="M1159" s="7" t="s">
+      <c r="I1160" s="37"/>
+      <c r="J1160" s="37"/>
+      <c r="K1160" s="37"/>
+      <c r="L1160" s="37"/>
+      <c r="M1160" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N1159" s="7">
-        <v>1</v>
-      </c>
-      <c r="O1159" s="7"/>
-      <c r="P1159" s="7"/>
-      <c r="Q1159" s="7"/>
-    </row>
-    <row r="1160" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1160" s="7">
+      <c r="N1160" s="37">
+        <v>1</v>
+      </c>
+      <c r="O1160" s="37"/>
+      <c r="P1160" s="37"/>
+      <c r="Q1160" s="37"/>
+    </row>
+    <row r="1161" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1161" s="37">
         <v>188</v>
       </c>
-      <c r="B1160" s="7" t="s">
+      <c r="B1161" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C1160" s="6" t="s">
+      <c r="C1161" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="D1160" s="11" t="s">
+      <c r="D1161" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="E1160" s="14">
+      <c r="E1161" s="50">
         <v>12</v>
       </c>
-      <c r="F1160" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1160" s="7">
+      <c r="F1161" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1161" s="37">
         <v>11</v>
       </c>
-      <c r="H1160" s="7" t="s">
+      <c r="H1161" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="I1160" s="7" t="s">
+      <c r="I1161" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="J1160" s="7"/>
-      <c r="K1160" s="7" t="s">
+      <c r="J1161" s="37"/>
+      <c r="K1161" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="L1160" s="7"/>
-      <c r="M1160" s="7" t="s">
+      <c r="L1161" s="37"/>
+      <c r="M1161" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="N1160" s="7">
-        <v>1</v>
-      </c>
-      <c r="O1160" s="7"/>
-      <c r="P1160" s="7"/>
-      <c r="Q1160" s="7"/>
-    </row>
-    <row r="1161" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1161" s="7">
+      <c r="N1161" s="37">
+        <v>1</v>
+      </c>
+      <c r="O1161" s="37"/>
+      <c r="P1161" s="37"/>
+      <c r="Q1161" s="37"/>
+    </row>
+    <row r="1162" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1162" s="37">
         <v>187</v>
       </c>
-      <c r="B1161" s="7" t="s">
+      <c r="B1162" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C1161" s="6" t="s">
+      <c r="C1162" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="D1161" s="11" t="s">
+      <c r="D1162" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="E1161" s="14">
+      <c r="E1162" s="50">
         <v>12</v>
       </c>
-      <c r="F1161" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1161" s="7">
-        <v>1</v>
-      </c>
-      <c r="H1161" s="7" t="s">
+      <c r="F1162" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1162" s="37">
+        <v>1</v>
+      </c>
+      <c r="H1162" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="I1161" s="7" t="s">
+      <c r="I1162" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="J1161" s="7"/>
-      <c r="K1161" s="7"/>
-      <c r="L1161" s="7"/>
-      <c r="M1161" s="7" t="s">
+      <c r="J1162" s="37"/>
+      <c r="K1162" s="37"/>
+      <c r="L1162" s="37"/>
+      <c r="M1162" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="N1161" s="7">
+      <c r="N1162" s="37">
         <v>2</v>
       </c>
-      <c r="O1161" s="7"/>
-      <c r="P1161" s="7"/>
-      <c r="Q1161" s="7"/>
-    </row>
-    <row r="1162" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1162" s="7">
+      <c r="O1162" s="37"/>
+      <c r="P1162" s="37"/>
+      <c r="Q1162" s="37"/>
+    </row>
+    <row r="1163" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1163" s="37">
         <v>185</v>
       </c>
-      <c r="B1162" s="7" t="s">
+      <c r="B1163" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C1162" s="6" t="s">
+      <c r="C1163" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="D1162" s="11" t="s">
+      <c r="D1163" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="E1162" s="14">
+      <c r="E1163" s="50">
         <v>12</v>
       </c>
-      <c r="F1162" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1162" s="7">
-        <v>1</v>
-      </c>
-      <c r="H1162" s="7" t="s">
+      <c r="F1163" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1163" s="37">
+        <v>1</v>
+      </c>
+      <c r="H1163" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="I1162" s="7" t="s">
+      <c r="I1163" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="J1162" s="7"/>
-      <c r="K1162" s="7"/>
-      <c r="L1162" s="7"/>
-      <c r="M1162" s="7" t="s">
+      <c r="J1163" s="37"/>
+      <c r="K1163" s="37"/>
+      <c r="L1163" s="37"/>
+      <c r="M1163" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="N1162" s="7">
-        <v>1</v>
-      </c>
-      <c r="O1162" s="7"/>
-      <c r="P1162" s="7"/>
-      <c r="Q1162" s="7"/>
-    </row>
-    <row r="1163" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1163" s="7">
+      <c r="N1163" s="37">
+        <v>1</v>
+      </c>
+      <c r="O1163" s="37"/>
+      <c r="P1163" s="37"/>
+      <c r="Q1163" s="37"/>
+    </row>
+    <row r="1164" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1164" s="52">
         <v>189</v>
       </c>
-      <c r="B1163" s="7" t="s">
+      <c r="B1164" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C1163" s="6" t="s">
+      <c r="C1164" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="D1163" s="11" t="s">
+      <c r="D1164" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="E1163" s="14">
+      <c r="E1164" s="54">
         <v>12</v>
       </c>
-      <c r="F1163" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1163" s="7">
+      <c r="F1164" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1164" s="52">
         <v>7</v>
       </c>
-      <c r="H1163" s="7" t="s">
+      <c r="H1164" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="I1163" s="7" t="s">
+      <c r="I1164" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="J1163" s="7"/>
-      <c r="K1163" s="7" t="s">
+      <c r="J1164" s="52"/>
+      <c r="K1164" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="L1163" s="7"/>
-      <c r="M1163" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="N1163" s="7">
-        <v>1</v>
-      </c>
-      <c r="O1163" s="7"/>
-      <c r="P1163" s="7"/>
-      <c r="Q1163" s="7" t="s">
+      <c r="L1164" s="52" t="s">
+        <v>297</v>
+      </c>
+      <c r="M1164" s="52" t="s">
+        <v>330</v>
+      </c>
+      <c r="N1164" s="52">
+        <v>1</v>
+      </c>
+      <c r="O1164" s="52"/>
+      <c r="P1164" s="52"/>
+      <c r="Q1164" s="52" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="1164" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1164" s="7">
-        <v>191</v>
-      </c>
-      <c r="B1164" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1164" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1164" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1164" s="13">
-        <v>16</v>
-      </c>
-      <c r="F1164" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1164" s="27">
-        <v>3</v>
-      </c>
-      <c r="H1164" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1164" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="J1164" s="27"/>
-      <c r="K1164" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="L1164" s="27"/>
-      <c r="M1164" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="N1164" s="7">
-        <v>1</v>
-      </c>
-      <c r="O1164" s="27"/>
-      <c r="P1164" s="27"/>
-      <c r="Q1164" s="27"/>
     </row>
     <row r="1165" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1165" s="7">
-        <v>193</v>
-      </c>
-      <c r="B1165" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1165" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C1165" s="2" t="s">
@@ -48680,33 +48707,35 @@
       <c r="F1165" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G1165">
-        <v>12</v>
-      </c>
-      <c r="H1165" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1165" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1165" t="s">
-        <v>70</v>
-      </c>
-      <c r="M1165" t="s">
-        <v>70</v>
-      </c>
-      <c r="N1165">
-        <v>1</v>
-      </c>
-      <c r="Q1165" t="s">
-        <v>103</v>
-      </c>
+      <c r="G1165" s="27">
+        <v>3</v>
+      </c>
+      <c r="H1165" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1165" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1165" s="27"/>
+      <c r="K1165" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="L1165" s="27"/>
+      <c r="M1165" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="N1165" s="7">
+        <v>1</v>
+      </c>
+      <c r="O1165" s="27"/>
+      <c r="P1165" s="27"/>
+      <c r="Q1165" s="27"/>
     </row>
     <row r="1166" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1166" s="7">
-        <v>194</v>
-      </c>
-      <c r="B1166" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1166" t="s">
         <v>10</v>
       </c>
       <c r="C1166" s="2" t="s">
@@ -48721,33 +48750,31 @@
       <c r="F1166" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G1166" s="27">
-        <v>1</v>
-      </c>
-      <c r="H1166" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1166" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1166" s="27"/>
-      <c r="K1166" s="27"/>
-      <c r="L1166" s="27"/>
-      <c r="M1166" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1166" s="27">
-        <v>1</v>
-      </c>
-      <c r="O1166" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1166" s="27"/>
-      <c r="Q1166" s="27"/>
+      <c r="G1166">
+        <v>12</v>
+      </c>
+      <c r="H1166" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1166" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1166" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1166" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1166">
+        <v>1</v>
+      </c>
+      <c r="Q1166" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="1167" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1167" s="7">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B1167" s="27" t="s">
         <v>10</v>
@@ -48768,33 +48795,29 @@
         <v>1</v>
       </c>
       <c r="H1167" s="27" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I1167" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1167" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1167" s="27" t="s">
-        <v>29</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="J1167" s="27"/>
+      <c r="K1167" s="27"/>
       <c r="L1167" s="27"/>
       <c r="M1167" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1167" s="7">
+        <v>32</v>
+      </c>
+      <c r="N1167" s="27">
         <v>1</v>
       </c>
       <c r="O1167" s="27" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="P1167" s="27"/>
       <c r="Q1167" s="27"/>
     </row>
     <row r="1168" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1168" s="7">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B1168" s="27" t="s">
         <v>10</v>
@@ -48812,102 +48835,117 @@
         <v>51</v>
       </c>
       <c r="G1168" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1168" s="27" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="I1168" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1168" s="27"/>
-      <c r="K1168" s="27"/>
+        <v>27</v>
+      </c>
+      <c r="J1168" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1168" s="27" t="s">
+        <v>29</v>
+      </c>
       <c r="L1168" s="27"/>
-      <c r="M1168" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="N1168" s="27">
-        <v>1</v>
-      </c>
-      <c r="O1168" s="27"/>
+      <c r="M1168" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1168" s="7">
+        <v>1</v>
+      </c>
+      <c r="O1168" s="27" t="s">
+        <v>76</v>
+      </c>
       <c r="P1168" s="27"/>
       <c r="Q1168" s="27"/>
     </row>
-    <row r="1169" spans="1:17" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1169" s="28">
+    <row r="1169" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1169" s="7">
+        <v>190</v>
+      </c>
+      <c r="B1169" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1169" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1169" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1169" s="13">
+        <v>16</v>
+      </c>
+      <c r="F1169" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1169" s="27">
+        <v>2</v>
+      </c>
+      <c r="H1169" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1169" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1169" s="27"/>
+      <c r="K1169" s="27"/>
+      <c r="L1169" s="27"/>
+      <c r="M1169" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1169" s="27">
+        <v>1</v>
+      </c>
+      <c r="O1169" s="27"/>
+      <c r="P1169" s="27"/>
+      <c r="Q1169" s="27"/>
+    </row>
+    <row r="1170" spans="1:17" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1170" s="28">
         <v>200</v>
       </c>
-      <c r="B1169" s="29" t="s">
+      <c r="B1170" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C1169" s="56" t="s">
+      <c r="C1170" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="D1169" s="30" t="s">
+      <c r="D1170" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="E1169" s="31">
+      <c r="E1170" s="31">
         <v>16</v>
       </c>
-      <c r="F1169" s="32" t="s">
+      <c r="F1170" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="G1169" s="29">
-        <v>1</v>
-      </c>
-      <c r="H1169" s="29" t="s">
+      <c r="G1170" s="29">
+        <v>1</v>
+      </c>
+      <c r="H1170" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="I1169" s="28" t="s">
+      <c r="I1170" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="J1169" s="28" t="s">
+      <c r="J1170" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="K1169" s="28"/>
-      <c r="L1169" s="28"/>
-      <c r="M1169" s="28" t="s">
+      <c r="K1170" s="28"/>
+      <c r="L1170" s="28"/>
+      <c r="M1170" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="N1169" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1170" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1170" s="37">
-        <v>195</v>
-      </c>
-      <c r="B1170" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1170" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1170" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1170" s="39">
-        <v>16</v>
-      </c>
-      <c r="F1170" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1170" s="36">
-        <v>3</v>
-      </c>
-      <c r="H1170" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1170" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1170" s="36">
+      <c r="N1170" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="1171" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1171" s="37">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B1171" s="36" t="s">
         <v>10</v>
@@ -48925,19 +48963,13 @@
         <v>51</v>
       </c>
       <c r="G1171" s="36">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H1171" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1171" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1171" s="36" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="M1171" s="36" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="N1171" s="36">
         <v>1</v>
@@ -48945,7 +48977,7 @@
     </row>
     <row r="1172" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1172" s="37">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B1172" s="36" t="s">
         <v>10</v>
@@ -48963,30 +48995,27 @@
         <v>51</v>
       </c>
       <c r="G1172" s="36">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H1172" s="36" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I1172" s="36" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K1172" s="36" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="M1172" s="36" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="N1172" s="36">
         <v>1</v>
-      </c>
-      <c r="O1172" s="36" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="1173" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1173" s="37">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B1173" s="36" t="s">
         <v>10</v>
@@ -49001,338 +49030,340 @@
         <v>16</v>
       </c>
       <c r="F1173" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1173" s="36">
+        <v>1</v>
+      </c>
+      <c r="H1173" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1173" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1173" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1173" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1173" s="36">
+        <v>1</v>
+      </c>
+      <c r="O1173" s="36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1174" s="37">
+        <v>197</v>
+      </c>
+      <c r="B1174" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1174" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1174" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1174" s="39">
+        <v>16</v>
+      </c>
+      <c r="F1174" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="G1173" s="36">
-        <v>1</v>
-      </c>
-      <c r="H1173" s="36" t="s">
+      <c r="G1174" s="36">
+        <v>1</v>
+      </c>
+      <c r="H1174" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="I1173" s="36" t="s">
+      <c r="I1174" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="K1173" s="36" t="s">
+      <c r="K1174" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="L1173" s="37" t="s">
+      <c r="L1174" s="37" t="s">
         <v>297</v>
       </c>
-      <c r="M1173" s="36" t="s">
+      <c r="M1174" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="N1173" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1174" spans="1:17" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1174" s="52">
+      <c r="N1174" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:17" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1175" s="52">
         <v>198</v>
       </c>
-      <c r="B1174" s="45" t="s">
+      <c r="B1175" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C1174" s="58" t="s">
+      <c r="C1175" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="D1174" s="59" t="s">
+      <c r="D1175" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="E1174" s="60">
+      <c r="E1175" s="60">
         <v>16</v>
       </c>
-      <c r="F1174" s="61" t="s">
+      <c r="F1175" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="G1174" s="45">
-        <v>1</v>
-      </c>
-      <c r="H1174" s="45" t="s">
+      <c r="G1175" s="45">
+        <v>1</v>
+      </c>
+      <c r="H1175" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="I1174" s="45" t="s">
+      <c r="I1175" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="J1174" s="45"/>
-      <c r="K1174" s="45" t="s">
+      <c r="J1175" s="45"/>
+      <c r="K1175" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="L1174" s="45" t="s">
+      <c r="L1175" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="M1174" s="45" t="s">
+      <c r="M1175" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="N1174" s="45">
+      <c r="N1175" s="45">
         <v>2</v>
       </c>
-      <c r="O1174" s="45"/>
-      <c r="P1174" s="45"/>
-      <c r="Q1174" s="45"/>
-    </row>
-    <row r="1175" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1175" s="7">
+      <c r="O1175" s="45"/>
+      <c r="P1175" s="45"/>
+      <c r="Q1175" s="45"/>
+    </row>
+    <row r="1176" spans="1:17" s="70" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1176" s="28">
         <v>201</v>
       </c>
-      <c r="B1175" s="27" t="s">
+      <c r="B1176" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C1175" s="2" t="s">
+      <c r="C1176" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="D1175" s="10" t="s">
+      <c r="D1176" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E1175" s="13">
+      <c r="E1176" s="31">
         <v>19</v>
       </c>
-      <c r="F1175" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1175" s="27">
-        <v>1</v>
-      </c>
-      <c r="H1175" s="27" t="s">
+      <c r="F1176" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1176" s="29">
+        <v>1</v>
+      </c>
+      <c r="H1176" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="I1175" s="27" t="s">
+      <c r="I1176" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="J1175" s="27"/>
-      <c r="K1175" s="27" t="s">
+      <c r="J1176" s="29"/>
+      <c r="K1176" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="L1175" s="27"/>
-      <c r="M1175" s="27" t="s">
+      <c r="L1176" s="29"/>
+      <c r="M1176" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="N1175" s="7">
-        <v>1</v>
-      </c>
-      <c r="O1175" s="27"/>
-      <c r="P1175" s="27"/>
-      <c r="Q1175" s="27"/>
-    </row>
-    <row r="1176" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1176" s="7">
+      <c r="N1176" s="28">
+        <v>1</v>
+      </c>
+      <c r="O1176" s="29"/>
+      <c r="P1176" s="29"/>
+      <c r="Q1176" s="29"/>
+    </row>
+    <row r="1177" spans="1:17" s="71" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1177" s="37">
         <v>203</v>
       </c>
-      <c r="B1176" s="27" t="s">
+      <c r="B1177" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C1176" s="2" t="s">
+      <c r="C1177" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="D1176" s="10" t="s">
+      <c r="D1177" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="E1176" s="13">
+      <c r="E1177" s="39">
         <v>19</v>
       </c>
-      <c r="F1176" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1176" s="27">
+      <c r="F1177" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1177" s="36">
         <v>13</v>
       </c>
-      <c r="H1176" s="27" t="s">
+      <c r="H1177" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="I1176" s="27" t="s">
+      <c r="I1177" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="J1176" s="27"/>
-      <c r="K1176" s="27" t="s">
+      <c r="J1177" s="36"/>
+      <c r="K1177" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="L1176" s="27"/>
-      <c r="M1176" s="27" t="s">
+      <c r="L1177" s="36"/>
+      <c r="M1177" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="N1176" s="27">
-        <v>1</v>
-      </c>
-      <c r="O1176" s="27"/>
-      <c r="P1176" s="27"/>
-      <c r="Q1176" s="27"/>
-    </row>
-    <row r="1177" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1177" s="7">
+      <c r="N1177" s="36">
+        <v>1</v>
+      </c>
+      <c r="O1177" s="36"/>
+      <c r="P1177" s="36"/>
+      <c r="Q1177" s="36"/>
+    </row>
+    <row r="1178" spans="1:17" s="71" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1178" s="37">
         <v>202</v>
       </c>
-      <c r="B1177" s="27" t="s">
+      <c r="B1178" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C1177" s="2" t="s">
+      <c r="C1178" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="D1177" s="10" t="s">
+      <c r="D1178" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="E1177" s="13">
+      <c r="E1178" s="39">
         <v>19</v>
       </c>
-      <c r="F1177" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1177" s="27">
-        <v>1</v>
-      </c>
-      <c r="H1177" s="27" t="s">
+      <c r="F1178" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1178" s="36">
+        <v>1</v>
+      </c>
+      <c r="H1178" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="I1177" s="27" t="s">
+      <c r="I1178" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="J1177" s="27"/>
-      <c r="K1177" s="27"/>
-      <c r="L1177" s="27"/>
-      <c r="M1177" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1177" s="27">
-        <v>1</v>
-      </c>
-      <c r="O1177" s="27" t="s">
+      <c r="J1178" s="36"/>
+      <c r="K1178" s="36" t="s">
+        <v>327</v>
+      </c>
+      <c r="L1178" s="36"/>
+      <c r="M1178" s="36" t="s">
+        <v>327</v>
+      </c>
+      <c r="N1178" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="O1178" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="P1177" s="27"/>
-      <c r="Q1177" s="27"/>
-    </row>
-    <row r="1178" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1178" s="7">
+      <c r="P1178" s="36"/>
+      <c r="Q1178" s="36"/>
+    </row>
+    <row r="1179" spans="1:17" s="71" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1179" s="37">
         <v>205</v>
       </c>
-      <c r="B1178" s="27" t="s">
+      <c r="B1179" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C1178" s="2" t="s">
+      <c r="C1179" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="D1178" s="10" t="s">
+      <c r="D1179" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="E1178" s="13">
+      <c r="E1179" s="39">
         <v>19</v>
       </c>
-      <c r="F1178" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1178" s="27">
-        <v>1</v>
-      </c>
-      <c r="H1178" s="27" t="s">
+      <c r="F1179" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1179" s="36">
+        <v>1</v>
+      </c>
+      <c r="H1179" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="I1178" s="27" t="s">
+      <c r="I1179" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="J1178" s="27"/>
-      <c r="K1178" s="27" t="s">
+      <c r="J1179" s="36"/>
+      <c r="K1179" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="L1178" s="27"/>
-      <c r="M1178" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="N1178" s="27">
-        <v>1</v>
-      </c>
-      <c r="O1178" s="27"/>
-      <c r="P1178" s="27"/>
-      <c r="Q1178" s="27"/>
-    </row>
-    <row r="1179" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1179" s="7">
+      <c r="L1179" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="M1179" s="36" t="s">
+        <v>325</v>
+      </c>
+      <c r="N1179" s="36">
+        <v>1</v>
+      </c>
+      <c r="O1179" s="36"/>
+      <c r="P1179" s="36"/>
+      <c r="Q1179" s="36"/>
+    </row>
+    <row r="1180" spans="1:17" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1180" s="52">
         <v>204</v>
       </c>
-      <c r="B1179" s="27" t="s">
+      <c r="B1180" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C1179" s="2" t="s">
+      <c r="C1180" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="D1179" s="10" t="s">
+      <c r="D1180" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="E1179" s="13">
+      <c r="E1180" s="60">
         <v>19</v>
       </c>
-      <c r="F1179" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1179" s="27">
+      <c r="F1180" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1180" s="45">
         <v>2</v>
       </c>
-      <c r="H1179" s="27" t="s">
+      <c r="H1180" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="I1179" s="27" t="s">
+      <c r="I1180" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="J1179" s="27"/>
-      <c r="K1179" s="27" t="s">
+      <c r="J1180" s="45"/>
+      <c r="K1180" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="L1179" s="27"/>
-      <c r="M1179" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="N1179" s="27">
-        <v>1</v>
-      </c>
-      <c r="O1179" s="27"/>
-      <c r="P1179" s="27"/>
-      <c r="Q1179" s="27"/>
-    </row>
-    <row r="1180" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1180" s="7">
-        <v>206</v>
-      </c>
-      <c r="B1180" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1180" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1180" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1180" s="13">
-        <v>19</v>
-      </c>
-      <c r="F1180" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1180" s="27">
-        <v>1</v>
-      </c>
-      <c r="H1180" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1180" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="J1180" s="27"/>
-      <c r="K1180" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="L1180" s="27"/>
-      <c r="M1180" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="N1180" s="27">
-        <v>1</v>
-      </c>
-      <c r="O1180" s="27"/>
-      <c r="P1180" s="27"/>
-      <c r="Q1180" s="27"/>
+      <c r="L1180" s="45"/>
+      <c r="M1180" s="45" t="s">
+        <v>329</v>
+      </c>
+      <c r="N1180" s="45">
+        <v>1</v>
+      </c>
+      <c r="O1180" s="45"/>
+      <c r="P1180" s="45"/>
+      <c r="Q1180" s="45"/>
     </row>
     <row r="1181" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1181" s="7">
-        <v>208</v>
-      </c>
-      <c r="B1181" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1181" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C1181" s="2" t="s">
@@ -49348,110 +49379,112 @@
         <v>51</v>
       </c>
       <c r="G1181" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1181" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1181" s="27"/>
+        <v>30</v>
+      </c>
+      <c r="I1181" s="27" t="s">
+        <v>74</v>
+      </c>
       <c r="J1181" s="27"/>
-      <c r="K1181" s="27"/>
+      <c r="K1181" s="27" t="s">
+        <v>88</v>
+      </c>
       <c r="L1181" s="27"/>
       <c r="M1181" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1181">
-        <v>1</v>
-      </c>
-      <c r="O1181"/>
-      <c r="P1181"/>
-      <c r="Q1181"/>
+        <v>88</v>
+      </c>
+      <c r="N1181" s="27">
+        <v>1</v>
+      </c>
+      <c r="O1181" s="27"/>
+      <c r="P1181" s="27"/>
+      <c r="Q1181" s="27"/>
     </row>
     <row r="1182" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1182" s="7">
-        <v>207</v>
-      </c>
-      <c r="B1182" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1182" t="s">
         <v>10</v>
       </c>
-      <c r="C1182" s="6" t="s">
+      <c r="C1182" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D1182" s="11" t="s">
+      <c r="D1182" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E1182" s="14">
+      <c r="E1182" s="13">
         <v>19</v>
       </c>
-      <c r="F1182" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1182" s="7">
-        <v>1</v>
-      </c>
-      <c r="H1182" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I1182" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="J1182" s="7"/>
-      <c r="K1182" s="7"/>
-      <c r="L1182" s="7"/>
-      <c r="M1182" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="N1182" s="7">
+      <c r="F1182" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1182" s="27">
         <v>2</v>
       </c>
-      <c r="O1182" s="7"/>
-      <c r="P1182" s="7"/>
-      <c r="Q1182" s="7"/>
+      <c r="H1182" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1182" s="27"/>
+      <c r="J1182" s="27"/>
+      <c r="K1182" s="27"/>
+      <c r="L1182" s="27"/>
+      <c r="M1182" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1182">
+        <v>1</v>
+      </c>
+      <c r="O1182"/>
+      <c r="P1182"/>
+      <c r="Q1182"/>
     </row>
     <row r="1183" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1183" s="7">
+        <v>207</v>
+      </c>
+      <c r="B1183" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1183" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1183" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1183" s="14">
+        <v>19</v>
+      </c>
+      <c r="F1183" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1183" s="7">
+        <v>1</v>
+      </c>
+      <c r="H1183" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1183" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1183" s="7"/>
+      <c r="K1183" s="7"/>
+      <c r="L1183" s="7"/>
+      <c r="M1183" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1183" s="7">
+        <v>2</v>
+      </c>
+      <c r="O1183" s="7"/>
+      <c r="P1183" s="7"/>
+      <c r="Q1183" s="7"/>
+    </row>
+    <row r="1184" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1184" s="7">
         <v>213</v>
-      </c>
-      <c r="B1183" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1183" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1183" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1183" s="13">
-        <v>23</v>
-      </c>
-      <c r="F1183" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1183" s="27">
-        <v>1</v>
-      </c>
-      <c r="H1183" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1183" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="J1183" s="27"/>
-      <c r="K1183" s="27"/>
-      <c r="L1183" s="27"/>
-      <c r="M1183" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="N1183" s="27">
-        <v>3</v>
-      </c>
-      <c r="O1183" s="27"/>
-      <c r="P1183" s="27"/>
-      <c r="Q1183" s="27"/>
-    </row>
-    <row r="1184" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1184" s="7">
-        <v>212</v>
       </c>
       <c r="B1184" s="27" t="s">
         <v>10</v>
@@ -49472,24 +49505,27 @@
         <v>1</v>
       </c>
       <c r="H1184" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1184" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1184" t="s">
-        <v>105</v>
-      </c>
-      <c r="M1184" t="s">
-        <v>105</v>
-      </c>
-      <c r="N1184">
-        <v>1</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="I1184" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1184" s="27"/>
+      <c r="K1184" s="27"/>
+      <c r="L1184" s="27"/>
+      <c r="M1184" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1184" s="27">
+        <v>3</v>
+      </c>
+      <c r="O1184" s="27"/>
+      <c r="P1184" s="27"/>
+      <c r="Q1184" s="27"/>
     </row>
     <row r="1185" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1185" s="7">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B1185" s="27" t="s">
         <v>10</v>
@@ -49507,32 +49543,27 @@
         <v>51</v>
       </c>
       <c r="G1185" s="27">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H1185" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="I1185" s="27" t="s">
+      <c r="I1185" t="s">
         <v>22</v>
       </c>
-      <c r="J1185" s="27"/>
-      <c r="K1185" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="L1185" s="27"/>
-      <c r="M1185" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="N1185" s="27">
-        <v>1</v>
-      </c>
-      <c r="O1185" s="27"/>
-      <c r="P1185" s="27"/>
-      <c r="Q1185" s="27"/>
+      <c r="K1185" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1185" t="s">
+        <v>105</v>
+      </c>
+      <c r="N1185">
+        <v>1</v>
+      </c>
     </row>
     <row r="1186" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1186" s="7">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B1186" s="27" t="s">
         <v>10</v>
@@ -49550,32 +49581,32 @@
         <v>51</v>
       </c>
       <c r="G1186" s="27">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H1186" s="27" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I1186" s="27" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="J1186" s="27"/>
-      <c r="K1186" s="27"/>
+      <c r="K1186" s="27" t="s">
+        <v>70</v>
+      </c>
       <c r="L1186" s="27"/>
       <c r="M1186" s="27" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="N1186" s="27">
         <v>1</v>
       </c>
-      <c r="O1186" s="27" t="s">
-        <v>33</v>
-      </c>
+      <c r="O1186" s="27"/>
       <c r="P1186" s="27"/>
       <c r="Q1186" s="27"/>
     </row>
     <row r="1187" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1187" s="7">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B1187" s="27" t="s">
         <v>10</v>
@@ -49593,75 +49624,75 @@
         <v>51</v>
       </c>
       <c r="G1187" s="27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1187" s="27" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I1187" s="27" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J1187" s="27"/>
-      <c r="K1187" s="27" t="s">
-        <v>50</v>
-      </c>
+      <c r="K1187" s="27"/>
       <c r="L1187" s="27"/>
       <c r="M1187" s="27" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="N1187" s="27">
         <v>1</v>
       </c>
-      <c r="O1187" s="27"/>
+      <c r="O1187" s="27" t="s">
+        <v>33</v>
+      </c>
       <c r="P1187" s="27"/>
       <c r="Q1187" s="27"/>
     </row>
     <row r="1188" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1188" s="7">
-        <v>218</v>
-      </c>
-      <c r="B1188" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1188" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C1188" s="6" t="s">
+      <c r="C1188" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D1188" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1188" s="14">
+      <c r="D1188" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1188" s="13">
         <v>23</v>
       </c>
-      <c r="F1188" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1188" s="7">
-        <v>1</v>
-      </c>
-      <c r="H1188" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1188" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="J1188" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="K1188" s="7"/>
-      <c r="L1188" s="7"/>
-      <c r="M1188" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="N1188" s="7">
-        <v>1</v>
-      </c>
-      <c r="O1188" s="7"/>
-      <c r="P1188" s="7"/>
-      <c r="Q1188" s="7"/>
+      <c r="F1188" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1188" s="27">
+        <v>1</v>
+      </c>
+      <c r="H1188" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1188" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1188" s="27"/>
+      <c r="K1188" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1188" s="27"/>
+      <c r="M1188" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1188" s="27">
+        <v>1</v>
+      </c>
+      <c r="O1188" s="27"/>
+      <c r="P1188" s="27"/>
+      <c r="Q1188" s="27"/>
     </row>
     <row r="1189" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1189" s="7">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B1189" s="7" t="s">
         <v>10</v>
@@ -49682,16 +49713,18 @@
         <v>1</v>
       </c>
       <c r="H1189" s="7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I1189" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="J1189" s="7"/>
+        <v>124</v>
+      </c>
+      <c r="J1189" s="7" t="s">
+        <v>125</v>
+      </c>
       <c r="K1189" s="7"/>
       <c r="L1189" s="7"/>
       <c r="M1189" s="7" t="s">
-        <v>262</v>
+        <v>125</v>
       </c>
       <c r="N1189" s="7">
         <v>1</v>
@@ -49702,7 +49735,7 @@
     </row>
     <row r="1190" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1190" s="7">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B1190" s="7" t="s">
         <v>10</v>
@@ -49726,16 +49759,16 @@
         <v>25</v>
       </c>
       <c r="I1190" s="7" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="J1190" s="7"/>
       <c r="K1190" s="7"/>
       <c r="L1190" s="7"/>
       <c r="M1190" s="7" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="N1190" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O1190" s="7"/>
       <c r="P1190" s="7"/>
@@ -49743,7 +49776,7 @@
     </row>
     <row r="1191" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1191" s="7">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B1191" s="7" t="s">
         <v>10</v>
@@ -49761,20 +49794,22 @@
         <v>51</v>
       </c>
       <c r="G1191" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1191" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1191" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="I1191" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="J1191" s="7"/>
       <c r="K1191" s="7"/>
       <c r="L1191" s="7"/>
       <c r="M1191" s="7" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="N1191" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O1191" s="7"/>
       <c r="P1191" s="7"/>
@@ -49782,7 +49817,7 @@
     </row>
     <row r="1192" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1192" s="7">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B1192" s="7" t="s">
         <v>10</v>
@@ -49800,19 +49835,17 @@
         <v>51</v>
       </c>
       <c r="G1192" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1192" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1192" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I1192" s="7"/>
       <c r="J1192" s="7"/>
       <c r="K1192" s="7"/>
       <c r="L1192" s="7"/>
       <c r="M1192" s="7" t="s">
-        <v>292</v>
+        <v>20</v>
       </c>
       <c r="N1192" s="7">
         <v>1</v>
@@ -49823,7 +49856,7 @@
     </row>
     <row r="1193" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1193" s="7">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B1193" s="7" t="s">
         <v>10</v>
@@ -49841,21 +49874,19 @@
         <v>51</v>
       </c>
       <c r="G1193" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1193" s="7" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="I1193" s="7" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="J1193" s="7"/>
-      <c r="K1193" s="7" t="s">
-        <v>70</v>
-      </c>
+      <c r="K1193" s="7"/>
       <c r="L1193" s="7"/>
       <c r="M1193" s="7" t="s">
-        <v>70</v>
+        <v>292</v>
       </c>
       <c r="N1193" s="7">
         <v>1</v>
@@ -49866,7 +49897,7 @@
     </row>
     <row r="1194" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1194" s="7">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B1194" s="7" t="s">
         <v>10</v>
@@ -49884,21 +49915,21 @@
         <v>51</v>
       </c>
       <c r="G1194" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1194" s="7" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="I1194" s="7" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="J1194" s="7"/>
       <c r="K1194" s="7" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="L1194" s="7"/>
       <c r="M1194" s="7" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="N1194" s="7">
         <v>1</v>
@@ -49909,7 +49940,7 @@
     </row>
     <row r="1195" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1195" s="7">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B1195" s="7" t="s">
         <v>10</v>
@@ -49918,10 +49949,10 @@
         <v>87</v>
       </c>
       <c r="D1195" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E1195" s="14">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F1195" s="8" t="s">
         <v>51</v>
@@ -49930,18 +49961,18 @@
         <v>1</v>
       </c>
       <c r="H1195" s="7" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="I1195" s="7" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="J1195" s="7"/>
       <c r="K1195" s="7" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="L1195" s="7"/>
       <c r="M1195" s="7" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="N1195" s="7">
         <v>1</v>
@@ -49952,7 +49983,7 @@
     </row>
     <row r="1196" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1196" s="7">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B1196" s="7" t="s">
         <v>10</v>
@@ -49973,16 +50004,18 @@
         <v>1</v>
       </c>
       <c r="H1196" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I1196" s="7" t="s">
-        <v>262</v>
+        <v>74</v>
       </c>
       <c r="J1196" s="7"/>
-      <c r="K1196" s="7"/>
+      <c r="K1196" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="L1196" s="7"/>
       <c r="M1196" s="7" t="s">
-        <v>262</v>
+        <v>88</v>
       </c>
       <c r="N1196" s="7">
         <v>1</v>
@@ -49993,7 +50026,7 @@
     </row>
     <row r="1197" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1197" s="7">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B1197" s="7" t="s">
         <v>10</v>
@@ -50014,14 +50047,16 @@
         <v>1</v>
       </c>
       <c r="H1197" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1197" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="I1197" s="7" t="s">
+        <v>262</v>
+      </c>
       <c r="J1197" s="7"/>
       <c r="K1197" s="7"/>
       <c r="L1197" s="7"/>
       <c r="M1197" s="7" t="s">
-        <v>20</v>
+        <v>262</v>
       </c>
       <c r="N1197" s="7">
         <v>1</v>
@@ -50032,7 +50067,7 @@
     </row>
     <row r="1198" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1198" s="7">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B1198" s="7" t="s">
         <v>10</v>
@@ -50050,21 +50085,17 @@
         <v>51</v>
       </c>
       <c r="G1198" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H1198" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1198" s="7" t="s">
-        <v>22</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I1198" s="7"/>
       <c r="J1198" s="7"/>
-      <c r="K1198" s="7" t="s">
-        <v>70</v>
-      </c>
+      <c r="K1198" s="7"/>
       <c r="L1198" s="7"/>
       <c r="M1198" s="7" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="N1198" s="7">
         <v>1</v>
@@ -50075,7 +50106,7 @@
     </row>
     <row r="1199" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1199" s="7">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B1199" s="7" t="s">
         <v>10</v>
@@ -50093,19 +50124,21 @@
         <v>51</v>
       </c>
       <c r="G1199" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H1199" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I1199" s="7" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="J1199" s="7"/>
-      <c r="K1199" s="7"/>
+      <c r="K1199" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="L1199" s="7"/>
       <c r="M1199" s="7" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="N1199" s="7">
         <v>1</v>
@@ -50116,7 +50149,7 @@
     </row>
     <row r="1200" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1200" s="7">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B1200" s="7" t="s">
         <v>10</v>
@@ -50134,19 +50167,19 @@
         <v>51</v>
       </c>
       <c r="G1200" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1200" s="7" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="I1200" s="7" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="J1200" s="7"/>
       <c r="K1200" s="7"/>
       <c r="L1200" s="7"/>
       <c r="M1200" s="7" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="N1200" s="7">
         <v>1</v>
@@ -50157,7 +50190,7 @@
     </row>
     <row r="1201" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1201" s="7">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B1201" s="7" t="s">
         <v>10</v>
@@ -50178,74 +50211,72 @@
         <v>1</v>
       </c>
       <c r="H1201" s="7" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="I1201" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="J1201" s="7"/>
       <c r="K1201" s="7"/>
       <c r="L1201" s="7"/>
       <c r="M1201" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="N1201" s="7">
         <v>1</v>
       </c>
       <c r="O1201" s="7"/>
       <c r="P1201" s="7"/>
-      <c r="Q1201" s="7" t="s">
-        <v>98</v>
-      </c>
+      <c r="Q1201" s="7"/>
     </row>
     <row r="1202" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1202" s="7">
-        <v>233</v>
-      </c>
-      <c r="B1202" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1202" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C1202" s="2" t="s">
+      <c r="C1202" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D1202" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1202" s="13">
+      <c r="D1202" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1202" s="14">
         <v>28</v>
       </c>
-      <c r="F1202" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1202">
-        <v>1</v>
-      </c>
-      <c r="H1202" t="s">
-        <v>15</v>
+      <c r="F1202" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1202" s="7">
+        <v>1</v>
+      </c>
+      <c r="H1202" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="I1202" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="J1202" s="7" t="s">
-        <v>125</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="J1202" s="7"/>
       <c r="K1202" s="7"/>
       <c r="L1202" s="7"/>
       <c r="M1202" s="7" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="N1202" s="7">
         <v>1</v>
       </c>
-      <c r="O1202" s="7">
-        <v>1</v>
+      <c r="O1202" s="7"/>
+      <c r="P1202" s="7"/>
+      <c r="Q1202" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="1203" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1203" s="7">
-        <v>228</v>
-      </c>
-      <c r="B1203" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1203" t="s">
         <v>10</v>
       </c>
       <c r="C1203" s="2" t="s">
@@ -50258,35 +50289,35 @@
         <v>28</v>
       </c>
       <c r="F1203" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1203" s="27">
-        <v>1</v>
-      </c>
-      <c r="H1203" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1203" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="J1203" s="27"/>
-      <c r="K1203" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="L1203" s="27"/>
-      <c r="M1203" s="27" t="s">
-        <v>88</v>
+        <v>47</v>
+      </c>
+      <c r="G1203">
+        <v>1</v>
+      </c>
+      <c r="H1203" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1203" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J1203" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K1203" s="7"/>
+      <c r="L1203" s="7"/>
+      <c r="M1203" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N1203" s="7">
         <v>1</v>
       </c>
-      <c r="O1203" s="27"/>
-      <c r="P1203" s="27"/>
-      <c r="Q1203" s="27"/>
+      <c r="O1203" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="1204" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1204" s="7">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B1204" s="27" t="s">
         <v>10</v>
@@ -50304,23 +50335,23 @@
         <v>51</v>
       </c>
       <c r="G1204" s="27">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H1204" s="27" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="I1204" s="27" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="J1204" s="27"/>
       <c r="K1204" s="27" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="L1204" s="27"/>
       <c r="M1204" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="N1204" s="27">
+        <v>88</v>
+      </c>
+      <c r="N1204" s="7">
         <v>1</v>
       </c>
       <c r="O1204" s="27"/>
@@ -50329,7 +50360,7 @@
     </row>
     <row r="1205" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1205" s="7">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B1205" s="27" t="s">
         <v>10</v>
@@ -50347,7 +50378,7 @@
         <v>51</v>
       </c>
       <c r="G1205" s="27">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H1205" s="27" t="s">
         <v>19</v>
@@ -50357,7 +50388,7 @@
       </c>
       <c r="J1205" s="27"/>
       <c r="K1205" s="27" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="L1205" s="27"/>
       <c r="M1205" s="27" t="s">
@@ -50372,9 +50403,9 @@
     </row>
     <row r="1206" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1206" s="7">
-        <v>231</v>
-      </c>
-      <c r="B1206" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1206" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C1206" s="2" t="s">
@@ -50390,29 +50421,34 @@
         <v>51</v>
       </c>
       <c r="G1206" s="27">
-        <v>2</v>
-      </c>
-      <c r="H1206" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1206" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1206" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1206">
-        <v>1</v>
-      </c>
-      <c r="O1206" t="s">
-        <v>33</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H1206" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1206" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1206" s="27"/>
+      <c r="K1206" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1206" s="27"/>
+      <c r="M1206" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1206" s="27">
+        <v>1</v>
+      </c>
+      <c r="O1206" s="27"/>
+      <c r="P1206" s="27"/>
+      <c r="Q1206" s="27"/>
     </row>
     <row r="1207" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1207" s="7">
-        <v>232</v>
-      </c>
-      <c r="B1207" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1207" t="s">
         <v>10</v>
       </c>
       <c r="C1207" s="2" t="s">
@@ -50428,73 +50464,73 @@
         <v>51</v>
       </c>
       <c r="G1207" s="27">
-        <v>1</v>
-      </c>
-      <c r="H1207" s="27" t="s">
-        <v>15</v>
+        <v>2</v>
+      </c>
+      <c r="H1207" t="s">
+        <v>25</v>
       </c>
       <c r="I1207" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1207" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1207" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M1207" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N1207">
         <v>1</v>
       </c>
-      <c r="O1207" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="P1207" s="27"/>
-      <c r="Q1207" s="27"/>
+      <c r="O1207" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="1208" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1208" s="7">
-        <v>238</v>
-      </c>
-      <c r="B1208" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1208" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C1208" s="2" t="s">
         <v>87</v>
       </c>
       <c r="D1208" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E1208" s="13">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F1208" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G1208">
-        <v>1</v>
-      </c>
-      <c r="H1208" t="s">
-        <v>25</v>
+      <c r="G1208" s="27">
+        <v>1</v>
+      </c>
+      <c r="H1208" s="27" t="s">
+        <v>15</v>
       </c>
       <c r="I1208" t="s">
-        <v>262</v>
+        <v>27</v>
+      </c>
+      <c r="J1208" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1208" t="s">
+        <v>29</v>
       </c>
       <c r="M1208" t="s">
-        <v>262</v>
+        <v>28</v>
       </c>
       <c r="N1208">
         <v>1</v>
       </c>
-      <c r="O1208" t="s">
-        <v>267</v>
-      </c>
+      <c r="O1208" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1208" s="27"/>
+      <c r="Q1208" s="27"/>
     </row>
     <row r="1209" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1209" s="7">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B1209" t="s">
         <v>10</v>
@@ -50512,21 +50548,27 @@
         <v>51</v>
       </c>
       <c r="G1209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1209" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="I1209" t="s">
+        <v>262</v>
       </c>
       <c r="M1209" t="s">
-        <v>20</v>
+        <v>262</v>
       </c>
       <c r="N1209">
         <v>1</v>
+      </c>
+      <c r="O1209" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="1210" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1210" s="7">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B1210" t="s">
         <v>10</v>
@@ -50544,19 +50586,13 @@
         <v>51</v>
       </c>
       <c r="G1210">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1210" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1210" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1210" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="M1210" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="N1210">
         <v>1</v>
@@ -50564,9 +50600,9 @@
     </row>
     <row r="1211" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1211" s="7">
-        <v>234</v>
-      </c>
-      <c r="B1211" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1211" t="s">
         <v>10</v>
       </c>
       <c r="C1211" s="2" t="s">
@@ -50581,31 +50617,28 @@
       <c r="F1211" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G1211" s="27">
-        <v>1</v>
-      </c>
-      <c r="H1211" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1211" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1211" s="27"/>
-      <c r="K1211" s="27"/>
-      <c r="L1211" s="27"/>
-      <c r="M1211" s="27" t="s">
-        <v>32</v>
+      <c r="G1211">
+        <v>4</v>
+      </c>
+      <c r="H1211" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1211" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1211" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1211" t="s">
+        <v>70</v>
       </c>
       <c r="N1211">
         <v>1</v>
       </c>
-      <c r="O1211" s="27"/>
-      <c r="P1211" s="27"/>
-      <c r="Q1211" s="27"/>
-    </row>
-    <row r="1212" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1212" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1212" s="7">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B1212" s="27" t="s">
         <v>10</v>
@@ -50626,70 +50659,68 @@
         <v>1</v>
       </c>
       <c r="H1212" s="27" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="I1212" s="27" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="J1212" s="27"/>
       <c r="K1212" s="27"/>
       <c r="L1212" s="27"/>
       <c r="M1212" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1212" s="27">
+        <v>32</v>
+      </c>
+      <c r="N1212">
         <v>1</v>
       </c>
       <c r="O1212" s="27"/>
       <c r="P1212" s="27"/>
       <c r="Q1212" s="27"/>
     </row>
-    <row r="1213" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1213" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1213" s="7">
-        <v>240</v>
-      </c>
-      <c r="B1213" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1213" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C1213" s="6" t="s">
+      <c r="C1213" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D1213" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1213" s="14">
+      <c r="D1213" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1213" s="13">
         <v>32</v>
       </c>
-      <c r="F1213" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1213" s="7">
-        <v>1</v>
-      </c>
-      <c r="H1213" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1213" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1213" s="7"/>
-      <c r="K1213" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1213" s="7"/>
-      <c r="M1213" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1213" s="7">
-        <v>1</v>
-      </c>
-      <c r="O1213" s="7"/>
-      <c r="P1213" s="7"/>
-      <c r="Q1213" s="7"/>
+      <c r="F1213" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1213" s="27">
+        <v>1</v>
+      </c>
+      <c r="H1213" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1213" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1213" s="27"/>
+      <c r="K1213" s="27"/>
+      <c r="L1213" s="27"/>
+      <c r="M1213" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1213" s="27">
+        <v>1</v>
+      </c>
+      <c r="O1213" s="27"/>
+      <c r="P1213" s="27"/>
+      <c r="Q1213" s="27"/>
     </row>
     <row r="1214" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1214" s="7">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B1214" s="7" t="s">
         <v>10</v>
@@ -50710,19 +50741,21 @@
         <v>1</v>
       </c>
       <c r="H1214" s="7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I1214" s="7" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="J1214" s="7"/>
-      <c r="K1214" s="7"/>
+      <c r="K1214" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="L1214" s="7"/>
       <c r="M1214" s="7" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="N1214" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O1214" s="7"/>
       <c r="P1214" s="7"/>
@@ -50730,7 +50763,7 @@
     </row>
     <row r="1215" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1215" s="7">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B1215" s="7" t="s">
         <v>10</v>
@@ -50751,21 +50784,19 @@
         <v>1</v>
       </c>
       <c r="H1215" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I1215" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="J1215" s="7"/>
-      <c r="K1215" s="7" t="s">
-        <v>88</v>
-      </c>
+      <c r="K1215" s="7"/>
       <c r="L1215" s="7"/>
       <c r="M1215" s="7" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="N1215" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O1215" s="7"/>
       <c r="P1215" s="7"/>
@@ -50773,7 +50804,7 @@
     </row>
     <row r="1216" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1216" s="7">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B1216" s="7" t="s">
         <v>10</v>
@@ -50791,17 +50822,21 @@
         <v>51</v>
       </c>
       <c r="G1216" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1216" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1216" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="I1216" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="J1216" s="7"/>
-      <c r="K1216" s="7"/>
+      <c r="K1216" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="L1216" s="7"/>
       <c r="M1216" s="7" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="N1216" s="7">
         <v>1</v>
@@ -50812,7 +50847,7 @@
     </row>
     <row r="1217" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1217" s="7">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B1217" s="7" t="s">
         <v>10</v>
@@ -50827,24 +50862,22 @@
         <v>32</v>
       </c>
       <c r="F1217" s="8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G1217" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1217" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1217" s="7" t="s">
-        <v>75</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I1217" s="7"/>
       <c r="J1217" s="7"/>
       <c r="K1217" s="7"/>
       <c r="L1217" s="7"/>
       <c r="M1217" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="N1217" s="27">
+        <v>20</v>
+      </c>
+      <c r="N1217" s="7">
         <v>1</v>
       </c>
       <c r="O1217" s="7"/>
@@ -50853,7 +50886,7 @@
     </row>
     <row r="1218" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1218" s="7">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B1218" s="7" t="s">
         <v>10</v>
@@ -50868,26 +50901,24 @@
         <v>32</v>
       </c>
       <c r="F1218" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G1218" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1218" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I1218" s="7" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="J1218" s="7"/>
-      <c r="K1218" s="7" t="s">
-        <v>70</v>
-      </c>
+      <c r="K1218" s="7"/>
       <c r="L1218" s="7"/>
       <c r="M1218" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="N1218" s="7">
+        <v>75</v>
+      </c>
+      <c r="N1218" s="27">
         <v>1</v>
       </c>
       <c r="O1218" s="7"/>
@@ -50896,7 +50927,7 @@
     </row>
     <row r="1219" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1219" s="7">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B1219" s="7" t="s">
         <v>10</v>
@@ -50908,30 +50939,30 @@
         <v>17</v>
       </c>
       <c r="E1219" s="14">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F1219" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G1219" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1219" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I1219" s="7" t="s">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="J1219" s="7"/>
       <c r="K1219" s="7" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="L1219" s="7"/>
       <c r="M1219" s="7" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="N1219" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O1219" s="7"/>
       <c r="P1219" s="7"/>
@@ -50939,7 +50970,7 @@
     </row>
     <row r="1220" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1220" s="7">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B1220" s="7" t="s">
         <v>10</v>
@@ -50960,21 +50991,21 @@
         <v>1</v>
       </c>
       <c r="H1220" s="7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I1220" s="7" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="J1220" s="7"/>
       <c r="K1220" s="7" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="L1220" s="7"/>
       <c r="M1220" s="7" t="s">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="N1220" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O1220" s="7"/>
       <c r="P1220" s="7"/>
@@ -50982,7 +51013,7 @@
     </row>
     <row r="1221" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1221" s="7">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B1221" s="7" t="s">
         <v>10</v>
@@ -51000,24 +51031,24 @@
         <v>51</v>
       </c>
       <c r="G1221" s="7">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="H1221" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I1221" s="7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J1221" s="7"/>
       <c r="K1221" s="7" t="s">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="L1221" s="7"/>
       <c r="M1221" s="7" t="s">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="N1221" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O1221" s="7"/>
       <c r="P1221" s="7"/>
@@ -51025,7 +51056,7 @@
     </row>
     <row r="1222" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1222" s="7">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B1222" s="7" t="s">
         <v>10</v>
@@ -51043,20 +51074,24 @@
         <v>51</v>
       </c>
       <c r="G1222" s="7">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H1222" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1222" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="I1222" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="J1222" s="7"/>
-      <c r="K1222" s="7"/>
+      <c r="K1222" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="L1222" s="7"/>
       <c r="M1222" s="7" t="s">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="N1222" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O1222" s="7"/>
       <c r="P1222" s="7"/>
@@ -51064,7 +51099,7 @@
     </row>
     <row r="1223" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1223" s="7">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B1223" s="7" t="s">
         <v>10</v>
@@ -51082,21 +51117,17 @@
         <v>51</v>
       </c>
       <c r="G1223" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H1223" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1223" s="7" t="s">
-        <v>22</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I1223" s="7"/>
       <c r="J1223" s="7"/>
-      <c r="K1223" s="7" t="s">
-        <v>70</v>
-      </c>
+      <c r="K1223" s="7"/>
       <c r="L1223" s="7"/>
       <c r="M1223" s="7" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="N1223" s="7">
         <v>1</v>
@@ -51107,7 +51138,7 @@
     </row>
     <row r="1224" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1224" s="7">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B1224" s="7" t="s">
         <v>10</v>
@@ -51125,32 +51156,32 @@
         <v>51</v>
       </c>
       <c r="G1224" s="7">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="H1224" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I1224" s="7" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="J1224" s="7"/>
-      <c r="K1224" s="7"/>
+      <c r="K1224" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="L1224" s="7"/>
       <c r="M1224" s="7" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="N1224" s="7">
         <v>1</v>
       </c>
-      <c r="O1224" s="7" t="s">
-        <v>33</v>
-      </c>
+      <c r="O1224" s="7"/>
       <c r="P1224" s="7"/>
       <c r="Q1224" s="7"/>
     </row>
     <row r="1225" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1225" s="7">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B1225" s="7" t="s">
         <v>10</v>
@@ -51168,34 +51199,32 @@
         <v>51</v>
       </c>
       <c r="G1225" s="7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H1225" s="7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I1225" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J1225" s="7"/>
-      <c r="K1225" s="7" t="s">
-        <v>50</v>
-      </c>
+      <c r="K1225" s="7"/>
       <c r="L1225" s="7"/>
       <c r="M1225" s="7" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="N1225" s="7">
         <v>1</v>
       </c>
-      <c r="O1225" s="7"/>
+      <c r="O1225" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="P1225" s="7"/>
-      <c r="Q1225" s="7" t="s">
-        <v>106</v>
-      </c>
+      <c r="Q1225" s="7"/>
     </row>
     <row r="1226" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1226" s="7">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B1226" s="7" t="s">
         <v>10</v>
@@ -51204,37 +51233,43 @@
         <v>87</v>
       </c>
       <c r="D1226" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1226" s="14">
+        <v>36</v>
+      </c>
+      <c r="F1226" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1226" s="7">
         <v>12</v>
       </c>
-      <c r="E1226" s="14">
-        <v>40</v>
-      </c>
-      <c r="F1226" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1226" s="7">
-        <v>1</v>
-      </c>
       <c r="H1226" s="7" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="I1226" s="7" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="J1226" s="7"/>
-      <c r="K1226" s="7"/>
+      <c r="K1226" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="L1226" s="7"/>
       <c r="M1226" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="N1226" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="N1226" s="7">
+        <v>1</v>
+      </c>
       <c r="O1226" s="7"/>
       <c r="P1226" s="7"/>
-      <c r="Q1226" s="7"/>
+      <c r="Q1226" s="7" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="1227" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1227" s="7">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B1227" s="7" t="s">
         <v>10</v>
@@ -51252,32 +51287,28 @@
         <v>51</v>
       </c>
       <c r="G1227" s="7">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="H1227" s="7" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="I1227" s="7" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="J1227" s="7"/>
-      <c r="K1227" s="7" t="s">
-        <v>152</v>
-      </c>
+      <c r="K1227" s="7"/>
       <c r="L1227" s="7"/>
       <c r="M1227" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="N1227" s="7">
-        <v>1</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N1227" s="7"/>
       <c r="O1227" s="7"/>
       <c r="P1227" s="7"/>
       <c r="Q1227" s="7"/>
     </row>
     <row r="1228" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1228" s="7">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B1228" s="7" t="s">
         <v>10</v>
@@ -51295,7 +51326,7 @@
         <v>51</v>
       </c>
       <c r="G1228" s="7">
-        <v>289</v>
+        <v>56</v>
       </c>
       <c r="H1228" s="7" t="s">
         <v>19</v>
@@ -51312,7 +51343,7 @@
         <v>152</v>
       </c>
       <c r="N1228" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O1228" s="7"/>
       <c r="P1228" s="7"/>
@@ -51320,7 +51351,7 @@
     </row>
     <row r="1229" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1229" s="7">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B1229" s="7" t="s">
         <v>10</v>
@@ -51338,7 +51369,7 @@
         <v>51</v>
       </c>
       <c r="G1229" s="7">
-        <v>35</v>
+        <v>289</v>
       </c>
       <c r="H1229" s="7" t="s">
         <v>19</v>
@@ -51361,9 +51392,9 @@
       <c r="P1229" s="7"/>
       <c r="Q1229" s="7"/>
     </row>
-    <row r="1230" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1230" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1230" s="7">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B1230" s="7" t="s">
         <v>10</v>
@@ -51381,7 +51412,7 @@
         <v>51</v>
       </c>
       <c r="G1230" s="7">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="H1230" s="7" t="s">
         <v>19</v>
@@ -51389,19 +51420,24 @@
       <c r="I1230" s="7" t="s">
         <v>22</v>
       </c>
+      <c r="J1230" s="7"/>
       <c r="K1230" s="7" t="s">
-        <v>70</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="L1230" s="7"/>
       <c r="M1230" s="7" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="N1230" s="7">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="O1230" s="7"/>
+      <c r="P1230" s="7"/>
+      <c r="Q1230" s="7"/>
     </row>
     <row r="1231" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1231" s="7">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B1231" s="7" t="s">
         <v>10</v>
@@ -51419,24 +51455,27 @@
         <v>51</v>
       </c>
       <c r="G1231" s="7">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H1231" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I1231" s="7" t="s">
-        <v>32</v>
+        <v>22</v>
+      </c>
+      <c r="K1231" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="M1231" s="7" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="N1231" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="1232" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1232" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1232" s="7">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B1232" s="7" t="s">
         <v>10</v>
@@ -51445,7 +51484,7 @@
         <v>87</v>
       </c>
       <c r="D1232" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E1232" s="14">
         <v>40</v>
@@ -51457,29 +51496,21 @@
         <v>1</v>
       </c>
       <c r="H1232" s="7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I1232" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1232" s="7"/>
-      <c r="K1232" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1232" s="7"/>
+        <v>32</v>
+      </c>
       <c r="M1232" s="7" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="N1232" s="7">
         <v>1</v>
       </c>
-      <c r="O1232" s="7"/>
-      <c r="P1232" s="7"/>
-      <c r="Q1232" s="7"/>
     </row>
     <row r="1233" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1233" s="7">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B1233" s="7" t="s">
         <v>10</v>
@@ -51497,21 +51528,21 @@
         <v>51</v>
       </c>
       <c r="G1233" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1233" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I1233" s="7" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="J1233" s="7"/>
       <c r="K1233" s="7" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="L1233" s="7"/>
       <c r="M1233" s="7" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="N1233" s="7">
         <v>1</v>
@@ -51522,7 +51553,7 @@
     </row>
     <row r="1234" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1234" s="7">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B1234" s="7" t="s">
         <v>10</v>
@@ -51540,19 +51571,21 @@
         <v>51</v>
       </c>
       <c r="G1234" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1234" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I1234" s="7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="J1234" s="7"/>
-      <c r="K1234" s="7"/>
+      <c r="K1234" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="L1234" s="7"/>
       <c r="M1234" s="7" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="N1234" s="7">
         <v>1</v>
@@ -51561,9 +51594,9 @@
       <c r="P1234" s="7"/>
       <c r="Q1234" s="7"/>
     </row>
-    <row r="1235" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1235" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1235" s="7">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B1235" s="7" t="s">
         <v>10</v>
@@ -51581,27 +51614,30 @@
         <v>51</v>
       </c>
       <c r="G1235" s="7">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H1235" s="7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I1235" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1235" s="7" t="s">
-        <v>152</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="J1235" s="7"/>
+      <c r="K1235" s="7"/>
+      <c r="L1235" s="7"/>
       <c r="M1235" s="7" t="s">
-        <v>152</v>
+        <v>68</v>
       </c>
       <c r="N1235" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1236" spans="1:17" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="O1235" s="7"/>
+      <c r="P1235" s="7"/>
+      <c r="Q1235" s="7"/>
+    </row>
+    <row r="1236" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1236" s="7">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B1236" s="7" t="s">
         <v>10</v>
@@ -51619,28 +51655,27 @@
         <v>51</v>
       </c>
       <c r="G1236" s="7">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H1236" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1236" s="7"/>
-      <c r="J1236" s="7"/>
-      <c r="K1236" s="7"/>
-      <c r="L1236" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="I1236" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1236" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="M1236" s="7" t="s">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="N1236" s="7">
-        <v>1</v>
-      </c>
-      <c r="O1236" s="7"/>
-      <c r="P1236" s="7"/>
-      <c r="Q1236" s="7"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="1237" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1237" s="7">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B1237" s="7" t="s">
         <v>10</v>
@@ -51658,22 +51693,20 @@
         <v>51</v>
       </c>
       <c r="G1237" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H1237" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1237" s="7" t="s">
-        <v>65</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I1237" s="7"/>
       <c r="J1237" s="7"/>
       <c r="K1237" s="7"/>
       <c r="L1237" s="7"/>
       <c r="M1237" s="7" t="s">
-        <v>292</v>
+        <v>20</v>
       </c>
       <c r="N1237" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O1237" s="7"/>
       <c r="P1237" s="7"/>
@@ -51681,7 +51714,7 @@
     </row>
     <row r="1238" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1238" s="7">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B1238" s="7" t="s">
         <v>10</v>
@@ -51699,34 +51732,30 @@
         <v>51</v>
       </c>
       <c r="G1238" s="7">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="H1238" s="7" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="I1238" s="7" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="J1238" s="7"/>
-      <c r="K1238" s="7" t="s">
-        <v>70</v>
-      </c>
+      <c r="K1238" s="7"/>
       <c r="L1238" s="7"/>
       <c r="M1238" s="7" t="s">
-        <v>70</v>
+        <v>292</v>
       </c>
       <c r="N1238" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O1238" s="7"/>
       <c r="P1238" s="7"/>
-      <c r="Q1238" s="7" t="s">
-        <v>104</v>
-      </c>
+      <c r="Q1238" s="7"/>
     </row>
     <row r="1239" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1239" s="7">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B1239" s="7" t="s">
         <v>10</v>
@@ -51744,30 +51773,34 @@
         <v>51</v>
       </c>
       <c r="G1239" s="7">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="H1239" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I1239" s="7" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="J1239" s="7"/>
-      <c r="K1239" s="7"/>
+      <c r="K1239" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="L1239" s="7"/>
       <c r="M1239" s="7" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="N1239" s="7">
         <v>1</v>
       </c>
       <c r="O1239" s="7"/>
       <c r="P1239" s="7"/>
-      <c r="Q1239" s="7"/>
-    </row>
-    <row r="1240" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Q1239" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1240" s="7">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B1240" s="7" t="s">
         <v>10</v>
@@ -51785,21 +51818,62 @@
         <v>51</v>
       </c>
       <c r="G1240" s="7">
+        <v>1</v>
+      </c>
+      <c r="H1240" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1240" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1240" s="7"/>
+      <c r="K1240" s="7"/>
+      <c r="L1240" s="7"/>
+      <c r="M1240" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1240" s="7">
+        <v>1</v>
+      </c>
+      <c r="O1240" s="7"/>
+      <c r="P1240" s="7"/>
+      <c r="Q1240" s="7"/>
+    </row>
+    <row r="1241" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1241" s="7">
+        <v>263</v>
+      </c>
+      <c r="B1241" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1241" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1241" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1241" s="14">
+        <v>40</v>
+      </c>
+      <c r="F1241" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1241" s="7">
         <v>8</v>
       </c>
-      <c r="H1240" s="7" t="s">
+      <c r="H1241" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I1240" s="7" t="s">
+      <c r="I1241" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K1240" s="7" t="s">
+      <c r="K1241" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="M1240" s="7" t="s">
+      <c r="M1241" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="N1240" s="7">
+      <c r="N1241" s="7">
         <v>1</v>
       </c>
     </row>

--- a/raw_data/arthropods.xlsx
+++ b/raw_data/arthropods.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8786" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8786" uniqueCount="489">
   <si>
     <t>Region</t>
   </si>
@@ -1143,9 +1143,6 @@
   </si>
   <si>
     <t>Cryptoglossa</t>
-  </si>
-  <si>
-    <t>CA 101?</t>
   </si>
   <si>
     <t>Forelius mccooki</t>
@@ -2473,9 +2470,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1062"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K92" sqref="K92"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A623" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L730" sqref="L730"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2618,10 +2615,10 @@
         <v>228</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="N3" s="7">
         <v>1</v>
@@ -2931,7 +2928,7 @@
         <v>67</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="N11" s="7">
         <v>1</v>
@@ -3007,7 +3004,7 @@
         <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M13" s="7" t="s">
         <v>70</v>
@@ -3125,10 +3122,10 @@
         <v>95</v>
       </c>
       <c r="L16" s="51" t="s">
+        <v>431</v>
+      </c>
+      <c r="M16" s="51" t="s">
         <v>432</v>
-      </c>
-      <c r="M16" s="51" t="s">
-        <v>433</v>
       </c>
       <c r="N16" s="51"/>
       <c r="O16" s="51"/>
@@ -3243,10 +3240,10 @@
         <v>276</v>
       </c>
       <c r="L19" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="M19" s="26" t="s">
         <v>474</v>
-      </c>
-      <c r="M19" s="26" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="20" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -3318,17 +3315,17 @@
         <v>270</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J21" s="26"/>
       <c r="K21" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="L21" s="26" t="s">
         <v>441</v>
       </c>
-      <c r="L21" s="26" t="s">
-        <v>442</v>
-      </c>
       <c r="M21" s="26" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="N21" s="26"/>
       <c r="O21" s="26"/>
@@ -3404,17 +3401,17 @@
         <v>15</v>
       </c>
       <c r="I23" s="36" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J23" s="36"/>
       <c r="K23" s="36" t="s">
+        <v>443</v>
+      </c>
+      <c r="L23" s="36" t="s">
+        <v>419</v>
+      </c>
+      <c r="M23" s="36" t="s">
         <v>444</v>
-      </c>
-      <c r="L23" s="36" t="s">
-        <v>420</v>
-      </c>
-      <c r="M23" s="36" t="s">
-        <v>445</v>
       </c>
       <c r="N23" s="7">
         <v>2</v>
@@ -3453,10 +3450,10 @@
         <v>256</v>
       </c>
       <c r="L24" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="M24" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>461</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -3491,13 +3488,13 @@
         <v>52</v>
       </c>
       <c r="I25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J25"/>
       <c r="K25"/>
       <c r="L25"/>
       <c r="M25" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="N25">
         <v>2</v>
@@ -3578,10 +3575,10 @@
         <v>14</v>
       </c>
       <c r="K27" s="44" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="M27" s="44" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="N27" s="51">
         <v>12</v>
@@ -3616,17 +3613,17 @@
         <v>15</v>
       </c>
       <c r="I28" s="36" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J28" s="26"/>
       <c r="K28" s="26" t="s">
+        <v>443</v>
+      </c>
+      <c r="L28" s="26" t="s">
+        <v>419</v>
+      </c>
+      <c r="M28" s="26" t="s">
         <v>444</v>
-      </c>
-      <c r="L28" s="26" t="s">
-        <v>420</v>
-      </c>
-      <c r="M28" s="26" t="s">
-        <v>445</v>
       </c>
       <c r="N28" s="26"/>
       <c r="O28" s="26"/>
@@ -3741,13 +3738,13 @@
         <v>105</v>
       </c>
       <c r="L31" s="26" t="s">
+        <v>436</v>
+      </c>
+      <c r="M31" s="26" t="s">
         <v>437</v>
       </c>
-      <c r="M31" s="26" t="s">
-        <v>438</v>
-      </c>
       <c r="O31" s="26" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="P31" s="26"/>
       <c r="Q31" s="26"/>
@@ -3864,10 +3861,10 @@
         <v>280</v>
       </c>
       <c r="L34" s="36" t="s">
+        <v>426</v>
+      </c>
+      <c r="M34" s="35" t="s">
         <v>427</v>
-      </c>
-      <c r="M34" s="35" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="35" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.35">
@@ -3985,10 +3982,10 @@
         <v>112</v>
       </c>
       <c r="L37" s="36" t="s">
+        <v>428</v>
+      </c>
+      <c r="M37" s="35" t="s">
         <v>429</v>
-      </c>
-      <c r="M37" s="35" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="38" spans="1:17" s="44" customFormat="1" x14ac:dyDescent="0.35">
@@ -4229,11 +4226,11 @@
       </c>
       <c r="J43" s="26"/>
       <c r="K43" s="26" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L43" s="26"/>
       <c r="M43" s="26" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N43" s="26">
         <v>1</v>
@@ -4360,10 +4357,10 @@
         <v>73</v>
       </c>
       <c r="L46" s="50" t="s">
+        <v>388</v>
+      </c>
+      <c r="M46" s="39" t="s">
         <v>389</v>
-      </c>
-      <c r="M46" s="39" t="s">
-        <v>390</v>
       </c>
       <c r="N46" s="39"/>
       <c r="O46" s="39" t="s">
@@ -4441,17 +4438,17 @@
         <v>30</v>
       </c>
       <c r="I48" s="50" t="s">
+        <v>422</v>
+      </c>
+      <c r="J48" s="50" t="s">
         <v>423</v>
       </c>
-      <c r="J48" s="50" t="s">
-        <v>424</v>
-      </c>
       <c r="K48" s="50" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="L48" s="50"/>
       <c r="M48" s="50" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="N48" s="50"/>
       <c r="O48" s="50" t="s">
@@ -4486,15 +4483,15 @@
         <v>25</v>
       </c>
       <c r="I49" s="39" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J49" s="39"/>
       <c r="K49" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L49" s="39"/>
       <c r="M49" s="39" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N49" s="39">
         <v>1</v>
@@ -4625,11 +4622,11 @@
       </c>
       <c r="J52" s="60"/>
       <c r="K52" s="60" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L52" s="60"/>
       <c r="M52" s="60" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N52" s="60">
         <v>1</v>
@@ -4745,10 +4742,10 @@
         <v>330</v>
       </c>
       <c r="L55" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="M55" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="M55" s="7" t="s">
-        <v>459</v>
       </c>
       <c r="N55" s="7">
         <v>4</v>
@@ -4976,13 +4973,13 @@
         <v>14</v>
       </c>
       <c r="K61" s="51" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L61" s="51" t="s">
+        <v>476</v>
+      </c>
+      <c r="M61" s="51" t="s">
         <v>477</v>
-      </c>
-      <c r="M61" s="51" t="s">
-        <v>478</v>
       </c>
       <c r="N61" s="51">
         <v>11</v>
@@ -5017,10 +5014,10 @@
         <v>31</v>
       </c>
       <c r="K62" s="36" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="M62" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="N62" s="7">
         <v>4</v>
@@ -5058,10 +5055,10 @@
         <v>73</v>
       </c>
       <c r="L63" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="M63" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="M63" s="7" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="64" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -5131,10 +5128,10 @@
         <v>256</v>
       </c>
       <c r="L65" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="M65" s="7" t="s">
         <v>463</v>
-      </c>
-      <c r="M65" s="7" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="66" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -5458,10 +5455,10 @@
         <v>280</v>
       </c>
       <c r="L74" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="M74" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="M74" s="7" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="75" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -5642,16 +5639,16 @@
         <v>134</v>
       </c>
       <c r="J79" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="K79" s="36" t="s">
         <v>448</v>
       </c>
-      <c r="K79" s="36" t="s">
+      <c r="L79" s="36" t="s">
         <v>449</v>
       </c>
-      <c r="L79" s="36" t="s">
+      <c r="M79" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="M79" s="7" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="80" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -5770,10 +5767,10 @@
         <v>280</v>
       </c>
       <c r="L82" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="M82" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="M82" s="7" t="s">
-        <v>428</v>
       </c>
       <c r="O82" s="26"/>
       <c r="P82" s="26"/>
@@ -5895,7 +5892,7 @@
       </c>
       <c r="J85" s="26"/>
       <c r="K85" s="26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L85" s="26"/>
       <c r="M85" s="26" t="s">
@@ -6051,7 +6048,7 @@
         <v>133</v>
       </c>
       <c r="L89" s="36" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M89" s="36" t="s">
         <v>349</v>
@@ -6168,10 +6165,10 @@
         <v>256</v>
       </c>
       <c r="L92" s="36" t="s">
+        <v>459</v>
+      </c>
+      <c r="M92" s="36" t="s">
         <v>460</v>
-      </c>
-      <c r="M92" s="36" t="s">
-        <v>461</v>
       </c>
       <c r="N92" s="35">
         <v>1</v>
@@ -6244,13 +6241,13 @@
         <v>53</v>
       </c>
       <c r="K94" s="36" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L94" s="36" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="M94" s="36" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N94" s="36">
         <v>4</v>
@@ -6332,7 +6329,7 @@
         <v>318</v>
       </c>
       <c r="M96" s="51" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="N96" s="51">
         <v>1</v>
@@ -6481,10 +6478,10 @@
         <v>73</v>
       </c>
       <c r="L100" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="M100" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="M100" s="7" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="101" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -6592,7 +6589,7 @@
         <v>153</v>
       </c>
       <c r="L103" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M103" s="7" t="s">
         <v>153</v>
@@ -6671,10 +6668,10 @@
         <v>105</v>
       </c>
       <c r="L105" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="M105" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="M105" s="7" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="106" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.35">
@@ -6823,10 +6820,10 @@
         <v>73</v>
       </c>
       <c r="L109" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="M109" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="M109" s="7" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="110" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -6928,13 +6925,13 @@
         <v>30</v>
       </c>
       <c r="I112" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="J112" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="J112" s="5" t="s">
-        <v>424</v>
-      </c>
       <c r="M112" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O112" s="5" t="s">
         <v>171</v>
@@ -7010,10 +7007,10 @@
         <v>105</v>
       </c>
       <c r="L114" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="M114" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="M114" s="7" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="115" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -7048,10 +7045,10 @@
         <v>173</v>
       </c>
       <c r="L115" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="M115" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="M115" s="7" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="116" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -7129,10 +7126,10 @@
         <v>302</v>
       </c>
       <c r="L117" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="M117" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="M117" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="118" spans="1:17" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7203,10 +7200,10 @@
         <v>53</v>
       </c>
       <c r="K119" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M119" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N119" s="7">
         <v>1</v>
@@ -7282,47 +7279,47 @@
         <v>134</v>
       </c>
       <c r="K121" s="36" t="s">
+        <v>448</v>
+      </c>
+      <c r="L121" s="36" t="s">
         <v>449</v>
       </c>
-      <c r="L121" s="36" t="s">
+      <c r="M121" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="M121" s="7" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="122" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="27">
+    </row>
+    <row r="122" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="36">
         <v>286</v>
       </c>
-      <c r="B122" s="27" t="s">
+      <c r="B122" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="C122" s="71" t="s">
+      <c r="C122" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="D122" s="45" t="s">
+      <c r="D122" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="E122" s="46">
+      <c r="E122" s="49">
         <v>2</v>
       </c>
-      <c r="F122" s="47" t="s">
+      <c r="F122" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="G122" s="27">
+      <c r="G122" s="36">
         <v>19</v>
       </c>
-      <c r="H122" s="27" t="s">
+      <c r="H122" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="I122" s="27" t="s">
+      <c r="I122" s="36" t="s">
         <v>254</v>
       </c>
-      <c r="M122" s="27" t="s">
+      <c r="M122" s="36" t="s">
         <v>254</v>
       </c>
-      <c r="N122" s="27">
+      <c r="N122" s="36">
         <v>1</v>
       </c>
     </row>
@@ -7393,10 +7390,10 @@
         <v>73</v>
       </c>
       <c r="L124" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="M124" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="M124" s="7" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="125" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -7431,10 +7428,10 @@
         <v>73</v>
       </c>
       <c r="L125" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="M125" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="M125" s="7" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="126" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -8494,10 +8491,10 @@
         <v>73</v>
       </c>
       <c r="L154" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="M154" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="M154" s="7" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="155" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -8757,10 +8754,10 @@
         <v>326</v>
       </c>
       <c r="L161" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="M161" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="M161" s="7" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="162" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -9030,11 +9027,11 @@
       </c>
       <c r="J168" s="26"/>
       <c r="K168" s="26" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L168" s="26"/>
       <c r="M168" s="26" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N168" s="26">
         <v>1</v>
@@ -9188,7 +9185,7 @@
         <v>132</v>
       </c>
       <c r="J172" s="26" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K172" s="26"/>
       <c r="L172" s="26"/>
@@ -9378,10 +9375,10 @@
         <v>73</v>
       </c>
       <c r="L177" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="M177" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="M177" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="O177" s="7">
         <v>1</v>
@@ -9661,10 +9658,10 @@
         <v>73</v>
       </c>
       <c r="L184" s="28" t="s">
+        <v>388</v>
+      </c>
+      <c r="M184" s="28" t="s">
         <v>389</v>
-      </c>
-      <c r="M184" s="28" t="s">
-        <v>390</v>
       </c>
       <c r="N184" s="28"/>
       <c r="O184" s="28"/>
@@ -9704,7 +9701,7 @@
         <v>16</v>
       </c>
       <c r="L185" s="26" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M185" s="26" t="s">
         <v>16</v>
@@ -9749,10 +9746,10 @@
         <v>330</v>
       </c>
       <c r="L186" s="26" t="s">
+        <v>457</v>
+      </c>
+      <c r="M186" s="26" t="s">
         <v>458</v>
-      </c>
-      <c r="M186" s="26" t="s">
-        <v>459</v>
       </c>
       <c r="N186" s="26"/>
       <c r="O186" s="26"/>
@@ -9792,10 +9789,10 @@
         <v>256</v>
       </c>
       <c r="L187" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="M187" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="M187" s="7" t="s">
-        <v>461</v>
       </c>
       <c r="N187" s="26"/>
       <c r="O187" s="26"/>
@@ -9918,11 +9915,11 @@
       </c>
       <c r="J190" s="26"/>
       <c r="K190" s="26" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L190" s="26"/>
       <c r="M190" s="26" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N190" s="26">
         <v>1</v>
@@ -10010,7 +10007,7 @@
         <v>318</v>
       </c>
       <c r="M192" s="26" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="N192" s="26"/>
       <c r="O192" s="26"/>
@@ -10047,11 +10044,11 @@
       </c>
       <c r="J193" s="26"/>
       <c r="K193" s="26" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L193" s="26"/>
       <c r="M193" s="26" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="N193" s="26">
         <v>4</v>
@@ -10175,16 +10172,16 @@
         <v>134</v>
       </c>
       <c r="J196" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="K196" s="36" t="s">
         <v>448</v>
       </c>
-      <c r="K196" s="36" t="s">
+      <c r="L196" s="36" t="s">
         <v>449</v>
       </c>
-      <c r="L196" s="36" t="s">
+      <c r="M196" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="M196" s="7" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="197" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -10254,10 +10251,10 @@
         <v>306</v>
       </c>
       <c r="L198" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="M198" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="M198" s="7" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="199" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -10292,7 +10289,7 @@
         <v>133</v>
       </c>
       <c r="L199" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M199" s="7" t="s">
         <v>349</v>
@@ -10330,10 +10327,10 @@
         <v>280</v>
       </c>
       <c r="L200" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="M200" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="M200" s="7" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="201" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -10368,10 +10365,10 @@
         <v>330</v>
       </c>
       <c r="L201" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="M201" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="M201" s="7" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="202" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -10552,10 +10549,10 @@
         <v>326</v>
       </c>
       <c r="L206" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="M206" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="M206" s="7" t="s">
-        <v>468</v>
       </c>
       <c r="N206" s="7"/>
       <c r="O206" s="7"/>
@@ -10634,16 +10631,16 @@
         <v>134</v>
       </c>
       <c r="J208" s="27" t="s">
+        <v>447</v>
+      </c>
+      <c r="K208" s="27" t="s">
         <v>448</v>
       </c>
-      <c r="K208" s="27" t="s">
+      <c r="L208" s="27" t="s">
         <v>449</v>
       </c>
-      <c r="L208" s="27" t="s">
+      <c r="M208" s="27" t="s">
         <v>450</v>
-      </c>
-      <c r="M208" s="27" t="s">
-        <v>451</v>
       </c>
       <c r="N208" s="82"/>
       <c r="O208" s="82"/>
@@ -11311,7 +11308,7 @@
         <v>318</v>
       </c>
       <c r="M224" s="26" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="N224" s="26"/>
       <c r="O224" s="26"/>
@@ -11348,11 +11345,11 @@
       </c>
       <c r="J225" s="26"/>
       <c r="K225" s="26" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L225" s="26"/>
       <c r="M225" s="26" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="N225" s="26">
         <v>1</v>
@@ -11735,7 +11732,7 @@
         <v>245</v>
       </c>
       <c r="K235" s="51" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M235" s="51" t="s">
         <v>245</v>
@@ -11885,10 +11882,10 @@
         <v>330</v>
       </c>
       <c r="L239" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="M239" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="M239" s="7" t="s">
-        <v>459</v>
       </c>
       <c r="N239" s="7"/>
       <c r="O239" s="7"/>
@@ -12158,10 +12155,10 @@
         <v>73</v>
       </c>
       <c r="L246" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="M246" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="M246" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="N246" s="7">
         <v>2</v>
@@ -12386,10 +12383,10 @@
         <v>105</v>
       </c>
       <c r="L252" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="M252" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="M252" s="7" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="253" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -12694,10 +12691,10 @@
         <v>73</v>
       </c>
       <c r="L260" s="26" t="s">
+        <v>388</v>
+      </c>
+      <c r="M260" s="26" t="s">
         <v>389</v>
-      </c>
-      <c r="M260" s="26" t="s">
-        <v>390</v>
       </c>
       <c r="N260" s="26"/>
       <c r="O260" s="26"/>
@@ -12730,10 +12727,10 @@
         <v>30</v>
       </c>
       <c r="I261" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="M261" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N261" s="7">
         <v>1</v>
@@ -12816,10 +12813,10 @@
         <v>330</v>
       </c>
       <c r="L263" s="26" t="s">
+        <v>457</v>
+      </c>
+      <c r="M263" s="26" t="s">
         <v>458</v>
-      </c>
-      <c r="M263" s="26" t="s">
-        <v>459</v>
       </c>
       <c r="N263" s="26"/>
       <c r="O263" s="26"/>
@@ -12938,10 +12935,10 @@
         <v>256</v>
       </c>
       <c r="L266" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="M266" s="7" t="s">
         <v>463</v>
-      </c>
-      <c r="M266" s="7" t="s">
-        <v>464</v>
       </c>
       <c r="N266" s="26">
         <v>1</v>
@@ -13104,11 +13101,11 @@
       </c>
       <c r="J270" s="26"/>
       <c r="K270" s="26" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L270" s="26"/>
       <c r="M270" s="26" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N270" s="26">
         <v>1</v>
@@ -13237,7 +13234,7 @@
         <v>318</v>
       </c>
       <c r="M273" s="26" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="N273" s="26"/>
       <c r="O273" s="26"/>
@@ -13387,17 +13384,17 @@
         <v>15</v>
       </c>
       <c r="I277" s="26" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J277" s="26"/>
       <c r="K277" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="L277" s="26" t="s">
         <v>419</v>
       </c>
-      <c r="L277" s="26" t="s">
+      <c r="M277" s="26" t="s">
         <v>420</v>
-      </c>
-      <c r="M277" s="26" t="s">
-        <v>421</v>
       </c>
       <c r="N277" s="26"/>
       <c r="O277" s="26"/>
@@ -13437,10 +13434,10 @@
         <v>73</v>
       </c>
       <c r="L278" s="26" t="s">
+        <v>388</v>
+      </c>
+      <c r="M278" s="26" t="s">
         <v>389</v>
-      </c>
-      <c r="M278" s="26" t="s">
-        <v>390</v>
       </c>
       <c r="N278" s="26"/>
       <c r="O278" s="26"/>
@@ -13691,10 +13688,10 @@
         <v>105</v>
       </c>
       <c r="L284" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="M284" s="26" t="s">
         <v>455</v>
-      </c>
-      <c r="M284" s="26" t="s">
-        <v>456</v>
       </c>
       <c r="N284" s="26"/>
       <c r="O284" s="26"/>
@@ -13772,11 +13769,11 @@
       </c>
       <c r="J286" s="26"/>
       <c r="K286" s="26" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L286" s="26"/>
       <c r="M286" s="26" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N286" s="26"/>
       <c r="O286" s="26" t="s">
@@ -14150,7 +14147,7 @@
         <v>318</v>
       </c>
       <c r="M295" s="26" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="N295" s="26">
         <v>1</v>
@@ -14229,7 +14226,7 @@
         <v>132</v>
       </c>
       <c r="J297" s="44" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K297" s="44"/>
       <c r="L297" s="44"/>
@@ -14272,16 +14269,16 @@
         <v>134</v>
       </c>
       <c r="J298" s="27" t="s">
+        <v>447</v>
+      </c>
+      <c r="K298" s="27" t="s">
         <v>448</v>
       </c>
-      <c r="K298" s="27" t="s">
+      <c r="L298" s="27" t="s">
         <v>449</v>
       </c>
-      <c r="L298" s="27" t="s">
+      <c r="M298" s="27" t="s">
         <v>450</v>
-      </c>
-      <c r="M298" s="27" t="s">
-        <v>451</v>
       </c>
       <c r="N298" s="7"/>
       <c r="O298" s="7"/>
@@ -14526,10 +14523,10 @@
         <v>73</v>
       </c>
       <c r="L304" s="26" t="s">
+        <v>388</v>
+      </c>
+      <c r="M304" s="26" t="s">
         <v>389</v>
-      </c>
-      <c r="M304" s="26" t="s">
-        <v>390</v>
       </c>
       <c r="N304" s="26">
         <v>2</v>
@@ -14614,10 +14611,10 @@
         <v>280</v>
       </c>
       <c r="L306" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="M306" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="M306" s="7" t="s">
-        <v>428</v>
       </c>
       <c r="N306" s="7"/>
       <c r="O306" s="26"/>
@@ -15090,10 +15087,10 @@
         <v>73</v>
       </c>
       <c r="L318" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="M318" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="M318" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="N318" s="7"/>
       <c r="O318" s="7"/>
@@ -15326,17 +15323,17 @@
         <v>15</v>
       </c>
       <c r="I324" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J324" s="7"/>
       <c r="K324" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="L324" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="L324" s="7" t="s">
+      <c r="M324" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="M324" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="N324" s="7"/>
       <c r="O324" s="7"/>
@@ -15379,7 +15376,7 @@
         <v>318</v>
       </c>
       <c r="M325" s="51" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="N325" s="51"/>
       <c r="O325" s="51"/>
@@ -15497,10 +15494,10 @@
         <v>272</v>
       </c>
       <c r="K328" s="26" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="M328" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="329" spans="1:17" x14ac:dyDescent="0.35">
@@ -15615,15 +15612,15 @@
         <v>52</v>
       </c>
       <c r="I331" s="26" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J331" s="26"/>
       <c r="K331" s="26" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L331" s="26"/>
       <c r="M331" s="26" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="N331" s="26">
         <v>3</v>
@@ -15664,10 +15661,10 @@
         <v>73</v>
       </c>
       <c r="L332" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="M332" s="27" t="s">
         <v>389</v>
-      </c>
-      <c r="M332" s="27" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="333" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.35">
@@ -15705,7 +15702,7 @@
         <v>354</v>
       </c>
       <c r="N333" s="36" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="334" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.35">
@@ -15737,10 +15734,10 @@
         <v>249</v>
       </c>
       <c r="K334" s="36" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M334" s="36" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="335" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.35">
@@ -15925,10 +15922,10 @@
         <v>53</v>
       </c>
       <c r="K339" s="36" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M339" s="36" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N339" s="36">
         <v>1</v>
@@ -15992,16 +15989,16 @@
         <v>15</v>
       </c>
       <c r="I341" s="36" t="s">
+        <v>417</v>
+      </c>
+      <c r="K341" s="36" t="s">
         <v>418</v>
       </c>
-      <c r="K341" s="36" t="s">
+      <c r="L341" s="36" t="s">
         <v>419</v>
       </c>
-      <c r="L341" s="36" t="s">
+      <c r="M341" s="36" t="s">
         <v>420</v>
-      </c>
-      <c r="M341" s="36" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="342" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.35">
@@ -16193,10 +16190,10 @@
         <v>86</v>
       </c>
       <c r="K346" s="44" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M346" s="44" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="N346" s="44">
         <v>2</v>
@@ -16232,11 +16229,11 @@
       </c>
       <c r="J347" s="26"/>
       <c r="K347" s="26" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L347" s="26"/>
       <c r="M347" s="26" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N347" s="26">
         <v>1</v>
@@ -16275,7 +16272,7 @@
       </c>
       <c r="J348" s="26"/>
       <c r="K348" s="26" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="L348" s="26"/>
       <c r="M348" s="26" t="s">
@@ -16481,10 +16478,10 @@
         <v>53</v>
       </c>
       <c r="K353" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M353" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N353">
         <v>1</v>
@@ -16566,11 +16563,11 @@
       </c>
       <c r="J355" s="26"/>
       <c r="K355" s="26" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L355" s="26"/>
       <c r="M355" s="26" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="N355" s="26">
         <v>1</v>
@@ -16609,13 +16606,13 @@
       </c>
       <c r="J356" s="26"/>
       <c r="K356" s="26" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L356" s="26" t="s">
+        <v>476</v>
+      </c>
+      <c r="M356" s="26" t="s">
         <v>477</v>
-      </c>
-      <c r="M356" s="26" t="s">
-        <v>478</v>
       </c>
       <c r="N356" s="26">
         <v>4</v>
@@ -16848,10 +16845,10 @@
         <v>53</v>
       </c>
       <c r="K362" s="36" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M362" s="36" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N362" s="36">
         <v>1</v>
@@ -16891,7 +16888,7 @@
       </c>
       <c r="L363" s="51"/>
       <c r="M363" s="51" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N363" s="51">
         <v>1</v>
@@ -16974,7 +16971,7 @@
         <v>180</v>
       </c>
       <c r="L365" s="26" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M365" s="26" t="s">
         <v>177</v>
@@ -17062,7 +17059,7 @@
         <v>133</v>
       </c>
       <c r="L367" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M367" s="26" t="s">
         <v>349</v>
@@ -17146,13 +17143,13 @@
         <v>14</v>
       </c>
       <c r="K369" s="44" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L369" s="44" t="s">
+        <v>476</v>
+      </c>
+      <c r="M369" s="44" t="s">
         <v>477</v>
-      </c>
-      <c r="M369" s="44" t="s">
-        <v>478</v>
       </c>
       <c r="N369" s="44">
         <v>4</v>
@@ -17392,11 +17389,11 @@
       </c>
       <c r="J375" s="26"/>
       <c r="K375" s="26" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="L375" s="26"/>
       <c r="M375" s="26" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="N375" s="26"/>
       <c r="O375" s="26"/>
@@ -17432,10 +17429,10 @@
         <v>86</v>
       </c>
       <c r="K376" s="44" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M376" s="44" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="N376" s="44">
         <v>2</v>
@@ -17476,10 +17473,10 @@
         <v>16</v>
       </c>
       <c r="L377" t="s">
+        <v>485</v>
+      </c>
+      <c r="M377" t="s">
         <v>486</v>
-      </c>
-      <c r="M377" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="378" spans="1:17" x14ac:dyDescent="0.35">
@@ -17515,10 +17512,10 @@
         <v>330</v>
       </c>
       <c r="L378" s="26" t="s">
+        <v>457</v>
+      </c>
+      <c r="M378" s="26" t="s">
         <v>458</v>
-      </c>
-      <c r="M378" s="26" t="s">
-        <v>459</v>
       </c>
       <c r="N378" s="26"/>
       <c r="O378" s="26"/>
@@ -17600,7 +17597,7 @@
         <v>180</v>
       </c>
       <c r="L380" s="31" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="M380" s="31" t="s">
         <v>183</v>
@@ -17641,10 +17638,10 @@
         <v>280</v>
       </c>
       <c r="L381" s="36" t="s">
+        <v>426</v>
+      </c>
+      <c r="M381" s="35" t="s">
         <v>427</v>
-      </c>
-      <c r="M381" s="35" t="s">
-        <v>428</v>
       </c>
       <c r="N381" s="35">
         <v>1</v>
@@ -17747,11 +17744,11 @@
       </c>
       <c r="J384" s="44"/>
       <c r="K384" s="44" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L384" s="44"/>
       <c r="M384" s="44" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N384" s="44">
         <v>1</v>
@@ -17834,10 +17831,10 @@
         <v>256</v>
       </c>
       <c r="L386" s="26" t="s">
+        <v>459</v>
+      </c>
+      <c r="M386" s="26" t="s">
         <v>460</v>
-      </c>
-      <c r="M386" s="26" t="s">
-        <v>461</v>
       </c>
       <c r="N386" s="26"/>
       <c r="O386" s="26"/>
@@ -17959,10 +17956,10 @@
         <v>105</v>
       </c>
       <c r="L389" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="M389" s="26" t="s">
         <v>455</v>
-      </c>
-      <c r="M389" s="26" t="s">
-        <v>456</v>
       </c>
       <c r="N389" s="26"/>
       <c r="O389" s="26"/>
@@ -17999,11 +17996,11 @@
       </c>
       <c r="J390" s="26"/>
       <c r="K390" s="26" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L390" s="26"/>
       <c r="M390" s="26" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N390" s="26">
         <v>1</v>
@@ -18227,7 +18224,7 @@
         <v>302</v>
       </c>
       <c r="M396" s="35" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N396" s="35">
         <v>1</v>
@@ -18386,10 +18383,10 @@
         <v>280</v>
       </c>
       <c r="L400" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="M400" s="26" t="s">
         <v>427</v>
-      </c>
-      <c r="M400" s="26" t="s">
-        <v>428</v>
       </c>
       <c r="N400" s="26">
         <v>1</v>
@@ -18554,13 +18551,13 @@
         <v>84</v>
       </c>
       <c r="K404" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="L404" s="28" t="s">
         <v>411</v>
       </c>
-      <c r="L404" s="28" t="s">
+      <c r="M404" s="28" t="s">
         <v>412</v>
-      </c>
-      <c r="M404" s="28" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="405" spans="1:17" x14ac:dyDescent="0.35">
@@ -18596,7 +18593,7 @@
         <v>16</v>
       </c>
       <c r="L405" s="26" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M405" s="26" t="s">
         <v>16</v>
@@ -18722,11 +18719,11 @@
       </c>
       <c r="J408" s="26"/>
       <c r="K408" s="26" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L408" s="26"/>
       <c r="M408" s="26" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N408" s="26">
         <v>1</v>
@@ -18767,11 +18764,11 @@
       </c>
       <c r="J409" s="26"/>
       <c r="K409" s="26" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L409" s="26"/>
       <c r="M409" s="26" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="N409" s="26">
         <v>1</v>
@@ -19621,11 +19618,11 @@
       </c>
       <c r="J430" s="26"/>
       <c r="K430" s="26" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L430" s="26"/>
       <c r="M430" s="26" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="N430" s="26">
         <v>1</v>
@@ -19746,13 +19743,13 @@
       </c>
       <c r="J433" s="26"/>
       <c r="K433" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="L433" s="26" t="s">
         <v>414</v>
       </c>
-      <c r="L433" s="26" t="s">
-        <v>415</v>
-      </c>
       <c r="M433" s="26" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N433" s="26"/>
       <c r="O433" s="26"/>
@@ -20378,10 +20375,10 @@
         <v>14</v>
       </c>
       <c r="K449" s="36" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M449" s="35" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="N449" s="35">
         <v>1</v>
@@ -20492,17 +20489,17 @@
         <v>15</v>
       </c>
       <c r="I452" s="36" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J452" s="26"/>
       <c r="K452" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="L452" s="26" t="s">
         <v>419</v>
       </c>
-      <c r="L452" s="26" t="s">
+      <c r="M452" s="26" t="s">
         <v>420</v>
-      </c>
-      <c r="M452" s="26" t="s">
-        <v>421</v>
       </c>
       <c r="N452" s="26"/>
       <c r="O452" s="26"/>
@@ -20751,13 +20748,13 @@
         <v>84</v>
       </c>
       <c r="K458" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="L458" s="27" t="s">
         <v>411</v>
       </c>
-      <c r="L458" s="27" t="s">
+      <c r="M458" s="27" t="s">
         <v>412</v>
-      </c>
-      <c r="M458" s="27" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="459" spans="1:17" x14ac:dyDescent="0.35">
@@ -21333,10 +21330,10 @@
         <v>281</v>
       </c>
       <c r="L473" s="36" t="s">
+        <v>396</v>
+      </c>
+      <c r="M473" s="35" t="s">
         <v>397</v>
-      </c>
-      <c r="M473" s="35" t="s">
-        <v>398</v>
       </c>
       <c r="N473" s="35"/>
       <c r="O473" s="35"/>
@@ -21657,10 +21654,10 @@
         <v>302</v>
       </c>
       <c r="L481" s="26" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M481" s="26" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="N481" s="26"/>
       <c r="O481" s="26"/>
@@ -22008,13 +22005,13 @@
         <v>53</v>
       </c>
       <c r="K490" s="36" t="s">
+        <v>395</v>
+      </c>
+      <c r="L490" s="36" t="s">
         <v>396</v>
       </c>
-      <c r="L490" s="36" t="s">
+      <c r="M490" s="35" t="s">
         <v>397</v>
-      </c>
-      <c r="M490" s="35" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="491" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.35">
@@ -22152,13 +22149,13 @@
       </c>
       <c r="J494" s="26"/>
       <c r="K494" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="L494" s="28" t="s">
         <v>411</v>
       </c>
-      <c r="L494" s="28" t="s">
+      <c r="M494" s="28" t="s">
         <v>412</v>
-      </c>
-      <c r="M494" s="28" t="s">
-        <v>413</v>
       </c>
       <c r="N494" s="26"/>
       <c r="O494" s="26"/>
@@ -22367,7 +22364,7 @@
       </c>
       <c r="J499" s="26"/>
       <c r="K499" s="26" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L499" s="26"/>
       <c r="M499" s="26" t="s">
@@ -22453,10 +22450,10 @@
         <v>302</v>
       </c>
       <c r="L501" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="M501" s="26" t="s">
         <v>373</v>
-      </c>
-      <c r="M501" s="26" t="s">
-        <v>374</v>
       </c>
       <c r="N501" s="26"/>
     </row>
@@ -22571,13 +22568,13 @@
         <v>84</v>
       </c>
       <c r="K504" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="L504" s="28" t="s">
         <v>411</v>
       </c>
-      <c r="L504" s="28" t="s">
+      <c r="M504" s="28" t="s">
         <v>412</v>
-      </c>
-      <c r="M504" s="28" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="505" spans="1:17" x14ac:dyDescent="0.35">
@@ -23918,7 +23915,7 @@
         <v>358</v>
       </c>
       <c r="M537" s="35" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="538" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.35">
@@ -24453,7 +24450,7 @@
       </c>
       <c r="J551" s="26"/>
       <c r="K551" s="26" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L551" s="26"/>
       <c r="M551" s="26" t="s">
@@ -24581,7 +24578,7 @@
         <v>90</v>
       </c>
       <c r="L554" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M554" t="s">
         <v>90</v>
@@ -25116,10 +25113,10 @@
         <v>73</v>
       </c>
       <c r="L567" s="36" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M567" s="35" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="568" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.35">
@@ -25224,16 +25221,16 @@
         <v>44</v>
       </c>
       <c r="J570" s="36" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K570" s="36" t="s">
         <v>122</v>
       </c>
       <c r="L570" s="36" t="s">
+        <v>391</v>
+      </c>
+      <c r="M570" s="35" t="s">
         <v>392</v>
-      </c>
-      <c r="M570" s="35" t="s">
-        <v>393</v>
       </c>
       <c r="O570" s="35" t="s">
         <v>201</v>
@@ -25458,7 +25455,7 @@
         <v>346</v>
       </c>
       <c r="M576" s="36" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="577" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.35">
@@ -25525,13 +25522,13 @@
         <v>53</v>
       </c>
       <c r="K578" s="36" t="s">
+        <v>395</v>
+      </c>
+      <c r="L578" s="36" t="s">
         <v>396</v>
       </c>
-      <c r="L578" s="36" t="s">
+      <c r="M578" s="35" t="s">
         <v>397</v>
-      </c>
-      <c r="M578" s="35" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="579" spans="1:17" s="62" customFormat="1" x14ac:dyDescent="0.35">
@@ -25893,13 +25890,13 @@
         <v>90</v>
       </c>
       <c r="K587" t="s">
+        <v>405</v>
+      </c>
+      <c r="L587" t="s">
         <v>406</v>
       </c>
-      <c r="L587" t="s">
-        <v>407</v>
-      </c>
       <c r="M587" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="O587" t="s">
         <v>205</v>
@@ -26221,10 +26218,10 @@
         <v>73</v>
       </c>
       <c r="L595" s="26" t="s">
+        <v>388</v>
+      </c>
+      <c r="M595" s="26" t="s">
         <v>389</v>
-      </c>
-      <c r="M595" s="26" t="s">
-        <v>390</v>
       </c>
       <c r="N595" s="26"/>
       <c r="O595" s="26"/>
@@ -26431,10 +26428,10 @@
         <v>73</v>
       </c>
       <c r="L600" s="26" t="s">
+        <v>388</v>
+      </c>
+      <c r="M600" s="26" t="s">
         <v>389</v>
-      </c>
-      <c r="M600" s="26" t="s">
-        <v>390</v>
       </c>
       <c r="N600" s="26"/>
       <c r="O600" s="26"/>
@@ -26474,7 +26471,7 @@
         <v>225</v>
       </c>
       <c r="L601" s="26" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="M601" s="26" t="s">
         <v>226</v>
@@ -26751,16 +26748,16 @@
         <v>44</v>
       </c>
       <c r="J608" s="36" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K608" s="36" t="s">
         <v>122</v>
       </c>
       <c r="L608" s="36" t="s">
+        <v>391</v>
+      </c>
+      <c r="M608" s="35" t="s">
         <v>392</v>
-      </c>
-      <c r="M608" s="35" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="609" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.35">
@@ -26996,7 +26993,7 @@
         <v>284</v>
       </c>
       <c r="M614" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="615" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -27110,10 +27107,10 @@
         <v>105</v>
       </c>
       <c r="L617" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="M617" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="M617" s="7" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="618" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -27286,7 +27283,7 @@
         <v>14</v>
       </c>
       <c r="J622" s="51" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K622" s="51"/>
       <c r="L622" s="51"/>
@@ -27649,10 +27646,10 @@
         <v>73</v>
       </c>
       <c r="L631" s="36" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M631" s="36" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N631" s="35">
         <v>2</v>
@@ -27946,11 +27943,11 @@
       </c>
       <c r="J639" s="36"/>
       <c r="K639" s="36" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L639" s="36"/>
       <c r="M639" s="36" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="N639" s="36">
         <v>16</v>
@@ -28032,10 +28029,10 @@
         <v>73</v>
       </c>
       <c r="L641" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="M641" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="M641" s="7" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="642" spans="1:14" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -28294,10 +28291,10 @@
         <v>173</v>
       </c>
       <c r="L648" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="M648" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="M648" s="7" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="649" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -28364,7 +28361,7 @@
         <v>146</v>
       </c>
       <c r="M650" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N650">
         <v>1</v>
@@ -29070,10 +29067,10 @@
         <v>73</v>
       </c>
       <c r="L668" s="26" t="s">
+        <v>388</v>
+      </c>
+      <c r="M668" s="26" t="s">
         <v>389</v>
-      </c>
-      <c r="M668" s="26" t="s">
-        <v>390</v>
       </c>
       <c r="N668" s="26"/>
       <c r="O668" s="26"/>
@@ -29113,10 +29110,10 @@
         <v>73</v>
       </c>
       <c r="L669" s="26" t="s">
+        <v>388</v>
+      </c>
+      <c r="M669" s="26" t="s">
         <v>389</v>
-      </c>
-      <c r="M669" s="26" t="s">
-        <v>390</v>
       </c>
       <c r="N669" s="26"/>
       <c r="O669" s="26"/>
@@ -29280,10 +29277,10 @@
         <v>173</v>
       </c>
       <c r="L673" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="M673" s="26" t="s">
         <v>399</v>
-      </c>
-      <c r="M673" s="26" t="s">
-        <v>400</v>
       </c>
       <c r="N673" s="26"/>
       <c r="O673" s="26"/>
@@ -29448,10 +29445,10 @@
         <v>133</v>
       </c>
       <c r="L677" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="M677" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="M677" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="N677" s="7"/>
       <c r="O677" s="7" t="s">
@@ -29610,13 +29607,13 @@
       </c>
       <c r="J681" s="26"/>
       <c r="K681" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="L681" s="26" t="s">
         <v>377</v>
       </c>
-      <c r="L681" s="26" t="s">
+      <c r="M681" s="26" t="s">
         <v>378</v>
-      </c>
-      <c r="M681" s="26" t="s">
-        <v>379</v>
       </c>
       <c r="N681" s="26"/>
       <c r="O681" s="26"/>
@@ -29770,10 +29767,10 @@
         <v>73</v>
       </c>
       <c r="L685" s="36" t="s">
+        <v>388</v>
+      </c>
+      <c r="M685" s="35" t="s">
         <v>389</v>
-      </c>
-      <c r="M685" s="35" t="s">
-        <v>390</v>
       </c>
       <c r="N685" s="35"/>
       <c r="O685" s="35"/>
@@ -29890,10 +29887,10 @@
         <v>173</v>
       </c>
       <c r="L688" s="36" t="s">
+        <v>398</v>
+      </c>
+      <c r="M688" s="35" t="s">
         <v>399</v>
-      </c>
-      <c r="M688" s="35" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="689" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.35">
@@ -30009,10 +30006,10 @@
         <v>281</v>
       </c>
       <c r="L691" s="36" t="s">
+        <v>396</v>
+      </c>
+      <c r="M691" s="35" t="s">
         <v>397</v>
-      </c>
-      <c r="M691" s="35" t="s">
-        <v>398</v>
       </c>
       <c r="O691" s="35" t="s">
         <v>200</v>
@@ -30520,7 +30517,7 @@
       </c>
       <c r="L703" s="7"/>
       <c r="M703" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="N703" s="7"/>
       <c r="O703" s="7"/>
@@ -31284,13 +31281,13 @@
         <v>14</v>
       </c>
       <c r="K723" s="44" t="s">
+        <v>376</v>
+      </c>
+      <c r="L723" s="44" t="s">
         <v>377</v>
       </c>
-      <c r="L723" s="44" t="s">
+      <c r="M723" s="44" t="s">
         <v>378</v>
-      </c>
-      <c r="M723" s="44" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="724" spans="1:17" x14ac:dyDescent="0.35">
@@ -31370,7 +31367,7 @@
         <v>284</v>
       </c>
       <c r="M725" s="26" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N725" s="26"/>
       <c r="O725" s="26"/>
@@ -31453,10 +31450,10 @@
         <v>302</v>
       </c>
       <c r="L727" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="M727" s="26" t="s">
         <v>373</v>
-      </c>
-      <c r="M727" s="26" t="s">
-        <v>374</v>
       </c>
       <c r="O727" s="26"/>
       <c r="P727" s="26"/>
@@ -31529,10 +31526,10 @@
         <v>73</v>
       </c>
       <c r="L729" s="36" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="M729" s="35" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="730" spans="1:17" s="62" customFormat="1" x14ac:dyDescent="0.35">
@@ -31610,7 +31607,7 @@
       <c r="K731" s="35"/>
       <c r="L731" s="35"/>
       <c r="M731" s="35" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="N731" s="35">
         <v>5</v>
@@ -31810,13 +31807,13 @@
       </c>
       <c r="J736" s="26"/>
       <c r="K736" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="L736" s="26" t="s">
         <v>377</v>
       </c>
-      <c r="L736" s="26" t="s">
+      <c r="M736" s="26" t="s">
         <v>378</v>
-      </c>
-      <c r="M736" s="26" t="s">
-        <v>379</v>
       </c>
       <c r="N736" s="26"/>
       <c r="O736" s="26"/>
@@ -32020,10 +32017,10 @@
         <v>133</v>
       </c>
       <c r="L741" s="36" t="s">
+        <v>380</v>
+      </c>
+      <c r="M741" s="35" t="s">
         <v>381</v>
-      </c>
-      <c r="M741" s="35" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="742" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.35">
@@ -32519,7 +32516,7 @@
       </c>
       <c r="J754" s="26"/>
       <c r="K754" s="26" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L754" s="26" t="s">
         <v>356</v>
@@ -33172,10 +33169,10 @@
         <v>73</v>
       </c>
       <c r="L771" s="36" t="s">
+        <v>388</v>
+      </c>
+      <c r="M771" s="35" t="s">
         <v>389</v>
-      </c>
-      <c r="M771" s="35" t="s">
-        <v>390</v>
       </c>
       <c r="N771" s="35"/>
       <c r="O771" s="35"/>
@@ -33212,7 +33209,7 @@
       </c>
       <c r="J772" s="35"/>
       <c r="K772" s="35" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L772" s="36" t="s">
         <v>356</v>
@@ -33548,13 +33545,13 @@
       </c>
       <c r="J780" s="26"/>
       <c r="K780" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="L780" s="26" t="s">
         <v>383</v>
       </c>
-      <c r="L780" s="26" t="s">
+      <c r="M780" s="26" t="s">
         <v>384</v>
-      </c>
-      <c r="M780" s="26" t="s">
-        <v>385</v>
       </c>
       <c r="N780" s="26"/>
       <c r="O780" s="26"/>
@@ -33713,11 +33710,11 @@
       </c>
       <c r="J784" s="7"/>
       <c r="K784" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L784" s="7"/>
       <c r="M784" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N784" s="7">
         <v>1</v>
@@ -33756,13 +33753,13 @@
       </c>
       <c r="J785" s="7"/>
       <c r="K785" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="L785" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="L785" s="7" t="s">
+      <c r="M785" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="M785" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="N785" s="7"/>
       <c r="O785" s="7"/>
@@ -33845,7 +33842,7 @@
         <v>302</v>
       </c>
       <c r="L787" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M787" s="7" t="s">
         <v>302</v>
@@ -42359,7 +42356,7 @@
         <v>277</v>
       </c>
       <c r="M994" s="44" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N994" s="44"/>
       <c r="O994" s="44"/>
@@ -42574,7 +42571,7 @@
       </c>
       <c r="L999" s="44"/>
       <c r="M999" s="44" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="N999" s="44">
         <v>1</v>

--- a/raw_data/arthropods.xlsx
+++ b/raw_data/arthropods.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9280" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9360" uniqueCount="574">
   <si>
     <t>Region</t>
   </si>
@@ -1145,19 +1145,10 @@
     <t>Zoropsidae</t>
   </si>
   <si>
-    <t>punctipes</t>
-  </si>
-  <si>
-    <t>Geocoris punctipes</t>
-  </si>
-  <si>
     <t>sessile</t>
   </si>
   <si>
     <t>Tapinoma sessile</t>
-  </si>
-  <si>
-    <t>no abdomen</t>
   </si>
   <si>
     <t>missing</t>
@@ -1659,12 +1650,6 @@
     <t>Eleodes 2</t>
   </si>
   <si>
-    <t>Eleodes 1</t>
-  </si>
-  <si>
-    <t>gigantea?</t>
-  </si>
-  <si>
     <t>Miscophus 3</t>
   </si>
   <si>
@@ -1741,6 +1726,36 @@
   </si>
   <si>
     <t>Camponotus semitestaceus</t>
+  </si>
+  <si>
+    <t>pallens</t>
+  </si>
+  <si>
+    <t>Geocoris pallens</t>
+  </si>
+  <si>
+    <t>Eleodes longicollis</t>
+  </si>
+  <si>
+    <t>longicollis</t>
+  </si>
+  <si>
+    <t>Paravaejovis</t>
+  </si>
+  <si>
+    <t>Thermobia domestica</t>
+  </si>
+  <si>
+    <t>Thermobia</t>
+  </si>
+  <si>
+    <t>domestica</t>
+  </si>
+  <si>
+    <t>hyatti</t>
+  </si>
+  <si>
+    <t>Pheidole hyatti</t>
   </si>
 </sst>
 </file>
@@ -2729,8 +2744,8 @@
   <dimension ref="A1:R1055"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A532" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N540" sqref="N540"/>
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N144" sqref="N144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2840,13 +2855,13 @@
       <c r="L2" s="32"/>
       <c r="M2" s="32"/>
       <c r="N2" s="32" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="O2" s="32">
         <v>1</v>
       </c>
       <c r="P2" s="32" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="Q2" s="32"/>
       <c r="R2" s="32"/>
@@ -2930,7 +2945,7 @@
       </c>
       <c r="M4" s="32"/>
       <c r="N4" s="32" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="O4" s="32">
         <v>2</v>
@@ -2974,11 +2989,11 @@
       </c>
       <c r="K5" s="32"/>
       <c r="L5" s="32" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="M5" s="32"/>
       <c r="N5" s="32" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="O5" s="32">
         <v>2</v>
@@ -3022,10 +3037,10 @@
         <v>296</v>
       </c>
       <c r="M6" s="44" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="N6" s="44" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -3064,10 +3079,10 @@
         <v>296</v>
       </c>
       <c r="M7" s="32" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="N7" s="32" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="O7" s="32"/>
       <c r="P7" s="32"/>
@@ -3110,10 +3125,10 @@
         <v>296</v>
       </c>
       <c r="M8" s="32" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="N8" s="32" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="O8" s="32"/>
       <c r="P8" s="32"/>
@@ -3155,10 +3170,10 @@
         <v>296</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="10" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -3181,7 +3196,7 @@
         <v>18</v>
       </c>
       <c r="G10" s="43" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="H10" s="32">
         <v>1</v>
@@ -3197,10 +3212,10 @@
         <v>296</v>
       </c>
       <c r="M10" s="32" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="N10" s="32" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="O10" s="32"/>
       <c r="P10" s="32"/>
@@ -3243,10 +3258,10 @@
         <v>296</v>
       </c>
       <c r="M11" s="43" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="N11" s="43" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="O11" s="43"/>
       <c r="P11" s="43"/>
@@ -3288,10 +3303,10 @@
         <v>296</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="13" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -3330,10 +3345,10 @@
         <v>296</v>
       </c>
       <c r="M13" s="31" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="N13" s="31" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="O13" s="31"/>
       <c r="P13" s="31"/>
@@ -3376,10 +3391,10 @@
         <v>296</v>
       </c>
       <c r="M14" s="32" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="N14" s="22" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="O14" s="22"/>
       <c r="P14" s="22"/>
@@ -3422,10 +3437,10 @@
         <v>296</v>
       </c>
       <c r="M15" s="31" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="N15" s="31" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="O15" s="31"/>
       <c r="P15" s="31"/>
@@ -3468,10 +3483,10 @@
         <v>296</v>
       </c>
       <c r="M16" s="37" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="N16" s="37" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="O16" s="37"/>
       <c r="P16" s="37"/>
@@ -3513,10 +3528,10 @@
         <v>296</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="18" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -3555,10 +3570,10 @@
         <v>296</v>
       </c>
       <c r="M18" s="22" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="N18" s="22" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="O18" s="22"/>
       <c r="P18" s="22"/>
@@ -3601,10 +3616,10 @@
         <v>296</v>
       </c>
       <c r="M19" s="32" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="N19" s="32" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="O19" s="32"/>
       <c r="P19" s="32"/>
@@ -3691,10 +3706,10 @@
         <v>315</v>
       </c>
       <c r="M21" s="32" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="N21" s="31" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="O21" s="31"/>
       <c r="P21" s="31"/>
@@ -3737,10 +3752,10 @@
         <v>315</v>
       </c>
       <c r="M22" s="32" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="N22" s="31" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="O22" s="22"/>
       <c r="P22" s="22"/>
@@ -3783,10 +3798,10 @@
         <v>315</v>
       </c>
       <c r="M23" s="32" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="N23" s="31" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="O23" s="32"/>
       <c r="P23" s="32"/>
@@ -3829,10 +3844,10 @@
         <v>315</v>
       </c>
       <c r="M24" s="32" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="N24" s="31" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="O24" s="32"/>
       <c r="P24" s="32"/>
@@ -3875,10 +3890,10 @@
         <v>315</v>
       </c>
       <c r="M25" s="32" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="N25" s="31" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="O25" s="22"/>
       <c r="P25" s="22"/>
@@ -3921,10 +3936,10 @@
         <v>272</v>
       </c>
       <c r="M26" s="32" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="N26" s="32" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="O26" s="32"/>
       <c r="P26" s="32"/>
@@ -3967,10 +3982,10 @@
         <v>272</v>
       </c>
       <c r="M27" s="44" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="N27" s="44" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="O27" s="44"/>
       <c r="P27" s="44"/>
@@ -4013,10 +4028,10 @@
         <v>233</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="O28" s="22"/>
       <c r="P28" s="22"/>
@@ -4059,10 +4074,10 @@
         <v>233</v>
       </c>
       <c r="M29" s="22" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="N29" s="22" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="O29" s="22"/>
       <c r="P29" s="22"/>
@@ -4105,10 +4120,10 @@
         <v>233</v>
       </c>
       <c r="M30" s="32" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="N30" s="32" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="O30" s="31"/>
       <c r="P30" s="31"/>
@@ -4151,10 +4166,10 @@
         <v>233</v>
       </c>
       <c r="M31" s="32" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="N31" s="32" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="O31" s="31"/>
       <c r="P31" s="32"/>
@@ -4197,10 +4212,10 @@
         <v>233</v>
       </c>
       <c r="M32" s="32" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="N32" s="32" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="O32" s="31"/>
       <c r="P32" s="32"/>
@@ -4241,10 +4256,10 @@
         <v>233</v>
       </c>
       <c r="M33" s="23" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="N33" s="23" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="O33" s="23"/>
       <c r="P33" s="23"/>
@@ -4287,10 +4302,10 @@
         <v>233</v>
       </c>
       <c r="M34" s="32" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="N34" s="32" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="O34" s="22"/>
       <c r="P34" s="7"/>
@@ -4332,7 +4347,7 @@
       <c r="L35" s="32"/>
       <c r="M35" s="32"/>
       <c r="N35" s="32" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="O35" s="32">
         <v>1</v>
@@ -4546,13 +4561,13 @@
       </c>
       <c r="K40" s="32"/>
       <c r="L40" s="32" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="M40" s="32" t="s">
         <v>309</v>
       </c>
       <c r="N40" s="32" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="O40" s="32"/>
       <c r="P40" s="32"/>
@@ -4962,10 +4977,10 @@
         <v>287</v>
       </c>
       <c r="M49" s="32" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="N49" s="32" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="O49" s="32"/>
       <c r="P49" s="32"/>
@@ -5008,10 +5023,10 @@
         <v>287</v>
       </c>
       <c r="M50" s="87" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="N50" s="87" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="O50" s="87"/>
       <c r="P50" s="87"/>
@@ -5054,10 +5069,10 @@
         <v>287</v>
       </c>
       <c r="M51" s="32" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="N51" s="32" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="O51" s="32"/>
       <c r="P51" s="32"/>
@@ -5100,10 +5115,10 @@
         <v>287</v>
       </c>
       <c r="M52" s="44" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="N52" s="44" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="O52" s="44"/>
       <c r="P52" s="44"/>
@@ -5146,10 +5161,10 @@
         <v>287</v>
       </c>
       <c r="M53" s="31" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="N53" s="31" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="O53" s="22"/>
       <c r="P53" s="22"/>
@@ -5192,10 +5207,10 @@
         <v>287</v>
       </c>
       <c r="M54" s="32" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="N54" s="32" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="O54" s="32"/>
       <c r="P54" s="32"/>
@@ -5238,10 +5253,10 @@
         <v>287</v>
       </c>
       <c r="M55" s="31" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="N55" s="31" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="O55" s="31"/>
       <c r="P55" s="31"/>
@@ -5284,10 +5299,10 @@
         <v>287</v>
       </c>
       <c r="M56" s="32" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="N56" s="32" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="O56" s="32"/>
       <c r="P56" s="32"/>
@@ -5330,10 +5345,10 @@
         <v>287</v>
       </c>
       <c r="M57" s="32" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="N57" s="32" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="O57" s="32"/>
       <c r="P57" s="32"/>
@@ -5376,10 +5391,10 @@
         <v>287</v>
       </c>
       <c r="M58" s="32" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="N58" s="32" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="O58" s="32"/>
       <c r="P58" s="32"/>
@@ -5457,7 +5472,7 @@
         <v>258</v>
       </c>
       <c r="M60" s="32" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="N60" s="32" t="s">
         <v>260</v>
@@ -5543,10 +5558,10 @@
         <v>278</v>
       </c>
       <c r="M62" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="N62" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="63" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -5585,10 +5600,10 @@
         <v>278</v>
       </c>
       <c r="M63" s="32" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="N63" s="32" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="O63" s="32"/>
       <c r="P63" s="32"/>
@@ -5899,10 +5914,10 @@
         <v>275</v>
       </c>
       <c r="M70" s="32" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="N70" s="31" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="O70" s="91">
         <v>1</v>
@@ -5947,10 +5962,10 @@
         <v>275</v>
       </c>
       <c r="M71" s="32" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="N71" s="31" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="O71" s="31"/>
       <c r="P71" s="31"/>
@@ -5993,10 +6008,10 @@
         <v>275</v>
       </c>
       <c r="M72" s="31" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="N72" s="31" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="O72" s="31"/>
       <c r="P72" s="31"/>
@@ -6039,10 +6054,10 @@
         <v>275</v>
       </c>
       <c r="M73" s="31" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="N73" s="31" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="O73" s="31"/>
       <c r="P73" s="31" t="s">
@@ -6087,10 +6102,10 @@
         <v>275</v>
       </c>
       <c r="M74" s="32" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="N74" s="31" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="O74" s="31"/>
       <c r="P74" s="31" t="s">
@@ -6135,10 +6150,10 @@
         <v>275</v>
       </c>
       <c r="M75" s="22" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="N75" s="22" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="O75" s="22"/>
       <c r="P75" s="22" t="s">
@@ -6181,10 +6196,10 @@
         <v>275</v>
       </c>
       <c r="M76" s="32" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="N76" s="32" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="O76" s="32"/>
       <c r="P76" s="32" t="s">
@@ -6229,10 +6244,10 @@
         <v>275</v>
       </c>
       <c r="M77" s="32" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="N77" s="32" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="O77" s="32"/>
       <c r="P77" s="32"/>
@@ -6275,10 +6290,10 @@
         <v>275</v>
       </c>
       <c r="M78" s="37" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="N78" s="37" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="O78" s="37"/>
       <c r="P78" s="37"/>
@@ -6321,10 +6336,10 @@
         <v>275</v>
       </c>
       <c r="M79" s="22" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="N79" s="22" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="P79" s="22" t="s">
         <v>78</v>
@@ -6368,10 +6383,10 @@
         <v>275</v>
       </c>
       <c r="M80" s="31" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="N80" s="31" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="O80" s="32">
         <v>1</v>
@@ -6416,10 +6431,10 @@
         <v>275</v>
       </c>
       <c r="M81" s="22" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="N81" s="22" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="O81" s="31">
         <v>1</v>
@@ -6466,10 +6481,10 @@
         <v>275</v>
       </c>
       <c r="M82" s="32" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="N82" s="32" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="O82" s="32"/>
       <c r="P82" s="32"/>
@@ -6512,10 +6527,10 @@
         <v>275</v>
       </c>
       <c r="M83" s="22" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="N83" s="22" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="O83" s="22"/>
       <c r="P83" s="22" t="s">
@@ -6560,10 +6575,10 @@
         <v>275</v>
       </c>
       <c r="M84" s="96" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="N84" s="31" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="O84" s="31">
         <v>1</v>
@@ -6607,10 +6622,10 @@
         <v>275</v>
       </c>
       <c r="M85" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="N85" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="P85" s="7" t="s">
         <v>31</v>
@@ -6652,10 +6667,10 @@
         <v>275</v>
       </c>
       <c r="M86" s="32" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="N86" s="31" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="O86" s="31"/>
       <c r="P86" s="31"/>
@@ -6698,10 +6713,10 @@
         <v>275</v>
       </c>
       <c r="M87" s="23" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="N87" s="24" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="O87" s="24"/>
       <c r="P87" s="24" t="s">
@@ -6745,10 +6760,10 @@
         <v>275</v>
       </c>
       <c r="M88" s="32" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="N88" s="32" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="P88" s="32" t="s">
         <v>31</v>
@@ -6789,10 +6804,10 @@
         <v>275</v>
       </c>
       <c r="M89" s="32" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="N89" s="32" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="P89" s="32" t="s">
         <v>31</v>
@@ -6833,10 +6848,10 @@
         <v>275</v>
       </c>
       <c r="M90" s="32" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="N90" s="32" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="91" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.35">
@@ -7699,11 +7714,11 @@
       </c>
       <c r="K109" s="32"/>
       <c r="L109" s="32" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="M109" s="32"/>
       <c r="N109" s="32" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="O109" s="32"/>
       <c r="P109" s="32"/>
@@ -7875,7 +7890,7 @@
       <c r="L113" s="32"/>
       <c r="M113" s="32"/>
       <c r="N113" s="32" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="O113" s="32"/>
       <c r="P113" s="32"/>
@@ -7914,7 +7929,7 @@
         <v>90</v>
       </c>
       <c r="N114" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="115" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -7949,7 +7964,7 @@
         <v>90</v>
       </c>
       <c r="N115" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="116" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -7987,7 +8002,7 @@
       <c r="L116" s="31"/>
       <c r="M116" s="31"/>
       <c r="N116" s="31" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="O116" s="31"/>
       <c r="P116" s="31"/>
@@ -8029,7 +8044,7 @@
       <c r="L117" s="31"/>
       <c r="M117" s="31"/>
       <c r="N117" s="31" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="O117" s="31"/>
       <c r="P117" s="31"/>
@@ -8338,11 +8353,11 @@
       </c>
       <c r="K124" s="31"/>
       <c r="L124" s="31" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="M124" s="31"/>
       <c r="N124" s="31" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="O124" s="31">
         <v>2</v>
@@ -8384,11 +8399,11 @@
       </c>
       <c r="K125" s="32"/>
       <c r="L125" s="32" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="M125" s="32"/>
       <c r="N125" s="32" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="O125" s="32">
         <v>1</v>
@@ -8427,11 +8442,11 @@
       </c>
       <c r="K126" s="22"/>
       <c r="L126" s="22" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="M126" s="22"/>
       <c r="N126" s="22" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="O126" s="22"/>
       <c r="P126" s="22"/>
@@ -8471,11 +8486,11 @@
       </c>
       <c r="K127" s="31"/>
       <c r="L127" s="22" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="M127" s="22"/>
       <c r="N127" s="31" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="O127" s="31">
         <v>2</v>
@@ -8517,11 +8532,11 @@
       </c>
       <c r="K128" s="31"/>
       <c r="L128" s="22" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="M128" s="31"/>
       <c r="N128" s="31" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="O128" s="31">
         <v>2</v>
@@ -8565,11 +8580,11 @@
       </c>
       <c r="K129" s="31"/>
       <c r="L129" s="22" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="M129" s="31"/>
       <c r="N129" s="31" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="O129" s="31">
         <v>2</v>
@@ -8661,13 +8676,13 @@
       </c>
       <c r="K131" s="31"/>
       <c r="L131" s="32" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="M131" s="32" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="N131" s="22" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="O131" s="31"/>
       <c r="P131" s="31"/>
@@ -8706,10 +8721,10 @@
         <v>202</v>
       </c>
       <c r="L132" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="N132" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="133" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -8745,13 +8760,13 @@
       </c>
       <c r="K133" s="31"/>
       <c r="L133" s="32" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="M133" s="32" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="N133" s="32" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="O133" s="31"/>
       <c r="P133" s="31"/>
@@ -8791,13 +8806,13 @@
       </c>
       <c r="K134" s="22"/>
       <c r="L134" s="22" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="M134" s="22" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="N134" s="71" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="O134" s="22"/>
       <c r="P134" s="22"/>
@@ -8837,13 +8852,13 @@
       </c>
       <c r="K135" s="31"/>
       <c r="L135" s="31" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="M135" s="31" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="N135" s="72" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="O135" s="31"/>
       <c r="P135" s="31"/>
@@ -8883,11 +8898,11 @@
       </c>
       <c r="K136" s="32"/>
       <c r="L136" s="32" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="M136" s="32"/>
       <c r="N136" s="32" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="O136" s="32">
         <v>1</v>
@@ -8972,13 +8987,13 @@
         <v>111</v>
       </c>
       <c r="L138" s="44" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="M138" s="44" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="N138" s="44" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="139" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -9016,13 +9031,13 @@
         <v>111</v>
       </c>
       <c r="L139" s="32" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="M139" s="32" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="N139" s="32" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="O139" s="32"/>
       <c r="P139" s="32"/>
@@ -9064,13 +9079,13 @@
         <v>111</v>
       </c>
       <c r="L140" s="32" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="M140" s="32" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="N140" s="32" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="O140" s="32"/>
       <c r="P140" s="32"/>
@@ -9112,13 +9127,13 @@
         <v>111</v>
       </c>
       <c r="L141" s="32" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="M141" s="32" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="N141" s="32" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="O141" s="32"/>
       <c r="P141" s="31"/>
@@ -9160,13 +9175,13 @@
         <v>111</v>
       </c>
       <c r="L142" s="32" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="M142" s="32" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="N142" s="32" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="O142" s="32"/>
       <c r="P142" s="32"/>
@@ -9208,13 +9223,13 @@
         <v>111</v>
       </c>
       <c r="L143" s="32" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="M143" s="32" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="N143" s="32" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="O143" s="32"/>
       <c r="P143" s="32">
@@ -9256,13 +9271,13 @@
         <v>111</v>
       </c>
       <c r="L144" s="32" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="M144" s="32" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="N144" s="32" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="O144" s="32"/>
       <c r="P144" s="32"/>
@@ -9302,11 +9317,11 @@
       </c>
       <c r="K145" s="32"/>
       <c r="L145" s="32" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="M145" s="32"/>
       <c r="N145" s="32" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="O145" s="32">
         <v>1</v>
@@ -9806,10 +9821,10 @@
         <v>108</v>
       </c>
       <c r="M156" s="32" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="N156" s="32" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="O156" s="32"/>
       <c r="P156" s="32"/>
@@ -9980,11 +9995,11 @@
       </c>
       <c r="K160" s="22"/>
       <c r="L160" s="22" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="M160" s="22"/>
       <c r="N160" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="O160" s="22"/>
       <c r="P160" s="22"/>
@@ -10338,10 +10353,10 @@
         <v>361</v>
       </c>
       <c r="M168" s="31" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="N168" s="31" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="O168" s="31"/>
       <c r="P168" s="31"/>
@@ -10384,10 +10399,10 @@
         <v>361</v>
       </c>
       <c r="M169" s="31" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="N169" s="31" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="O169" s="31"/>
       <c r="P169" s="31"/>
@@ -10430,10 +10445,10 @@
         <v>361</v>
       </c>
       <c r="M170" s="31" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="N170" s="31" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="O170" s="31"/>
       <c r="P170" s="31"/>
@@ -10478,10 +10493,10 @@
         <v>294</v>
       </c>
       <c r="M171" s="32" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="N171" s="32" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="O171" s="32"/>
       <c r="P171" s="31" t="s">
@@ -10528,10 +10543,10 @@
         <v>294</v>
       </c>
       <c r="M172" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="N172" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="173" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -10572,10 +10587,10 @@
         <v>294</v>
       </c>
       <c r="M173" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="N173" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="P173" s="7" t="s">
         <v>70</v>
@@ -10619,10 +10634,10 @@
         <v>294</v>
       </c>
       <c r="M174" s="32" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="N174" s="32" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="O174" s="32"/>
       <c r="P174" s="32"/>
@@ -10667,10 +10682,10 @@
         <v>294</v>
       </c>
       <c r="M175" s="23" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="N175" s="23" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="O175" s="23"/>
       <c r="P175" s="23"/>
@@ -10715,10 +10730,10 @@
         <v>294</v>
       </c>
       <c r="M176" s="31" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="N176" s="31" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="O176" s="32"/>
       <c r="P176" s="31" t="s">
@@ -10765,10 +10780,10 @@
         <v>294</v>
       </c>
       <c r="M177" s="32" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="N177" s="32" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="O177" s="32"/>
       <c r="P177" s="32"/>
@@ -10813,10 +10828,10 @@
         <v>294</v>
       </c>
       <c r="M178" s="32" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="N178" s="32" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="O178" s="32"/>
       <c r="P178" s="32"/>
@@ -10861,10 +10876,10 @@
         <v>294</v>
       </c>
       <c r="M179" s="32" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="N179" s="32" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="O179" s="32"/>
       <c r="P179" s="32" t="s">
@@ -10911,10 +10926,10 @@
         <v>294</v>
       </c>
       <c r="M180" s="31" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="N180" s="31" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="O180" s="31"/>
       <c r="P180" s="31" t="s">
@@ -10961,10 +10976,10 @@
         <v>294</v>
       </c>
       <c r="M181" s="31" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="N181" s="31" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="O181" s="31"/>
       <c r="P181" s="31"/>
@@ -11009,10 +11024,10 @@
         <v>294</v>
       </c>
       <c r="M182" s="32" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="N182" s="32" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="O182" s="32"/>
       <c r="P182" s="32" t="s">
@@ -11059,10 +11074,10 @@
         <v>294</v>
       </c>
       <c r="M183" s="31" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="N183" s="31" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="O183" s="31"/>
       <c r="P183" s="31" t="s">
@@ -11106,11 +11121,11 @@
         <v>27</v>
       </c>
       <c r="L184" s="32" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="M184" s="32"/>
       <c r="N184" s="32" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="O184" s="32">
         <v>1</v>
@@ -11155,10 +11170,10 @@
         <v>252</v>
       </c>
       <c r="M185" s="31" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="N185" s="31" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="O185" s="24"/>
       <c r="P185" s="24"/>
@@ -11201,10 +11216,10 @@
         <v>252</v>
       </c>
       <c r="M186" s="31" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="N186" s="31" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="O186" s="31"/>
       <c r="P186" s="31"/>
@@ -11247,10 +11262,10 @@
         <v>252</v>
       </c>
       <c r="M187" s="22" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="N187" s="22" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="O187" s="31"/>
       <c r="P187" s="31"/>
@@ -11293,10 +11308,10 @@
         <v>252</v>
       </c>
       <c r="M188" s="31" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="N188" s="31" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="O188" s="31"/>
       <c r="P188" s="31"/>
@@ -11339,10 +11354,10 @@
         <v>252</v>
       </c>
       <c r="M189" s="31" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="N189" s="31" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="O189" s="31"/>
       <c r="P189" s="31"/>
@@ -11385,10 +11400,10 @@
         <v>252</v>
       </c>
       <c r="M190" s="31" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="N190" s="31" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="O190" s="31"/>
       <c r="P190" s="31"/>
@@ -11431,10 +11446,10 @@
         <v>252</v>
       </c>
       <c r="M191" s="31" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="N191" s="31" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="O191" s="31"/>
       <c r="P191" s="31"/>
@@ -11477,10 +11492,10 @@
         <v>252</v>
       </c>
       <c r="M192" s="31" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="N192" s="31" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="O192" s="31"/>
       <c r="P192" s="31"/>
@@ -11523,10 +11538,10 @@
         <v>252</v>
       </c>
       <c r="M193" s="32" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="N193" s="31" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="O193" s="31"/>
       <c r="P193" s="31"/>
@@ -11569,10 +11584,10 @@
         <v>252</v>
       </c>
       <c r="M194" s="22" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="N194" s="22" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="O194" s="22"/>
       <c r="P194" s="22"/>
@@ -11615,10 +11630,10 @@
         <v>252</v>
       </c>
       <c r="M195" s="32" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="N195" s="31" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="O195" s="32"/>
       <c r="P195" s="32"/>
@@ -11660,10 +11675,10 @@
         <v>252</v>
       </c>
       <c r="M196" s="32" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="N196" s="31" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="197" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -11702,10 +11717,10 @@
         <v>252</v>
       </c>
       <c r="M197" s="32" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="N197" s="31" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="O197" s="31"/>
       <c r="P197" s="32"/>
@@ -11748,10 +11763,10 @@
         <v>252</v>
       </c>
       <c r="M198" s="31" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="N198" s="31" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="O198" s="31"/>
       <c r="P198" s="31"/>
@@ -11794,10 +11809,10 @@
         <v>252</v>
       </c>
       <c r="M199" s="32" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="N199" s="31" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="O199" s="31"/>
       <c r="P199" s="31"/>
@@ -11840,10 +11855,10 @@
         <v>252</v>
       </c>
       <c r="M200" s="22" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="N200" s="22" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="O200" s="22"/>
       <c r="P200" s="22"/>
@@ -11886,10 +11901,10 @@
         <v>252</v>
       </c>
       <c r="M201" s="32" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="N201" s="31" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="O201" s="31"/>
       <c r="P201" s="31"/>
@@ -11932,10 +11947,10 @@
         <v>252</v>
       </c>
       <c r="M202" s="22" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="N202" s="22" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="O202" s="22"/>
       <c r="P202" s="22"/>
@@ -11977,10 +11992,10 @@
         <v>252</v>
       </c>
       <c r="M203" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="N203" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="204" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -12060,11 +12075,11 @@
       </c>
       <c r="K205" s="73"/>
       <c r="L205" s="73" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="M205" s="73"/>
       <c r="N205" s="73" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O205" s="73"/>
       <c r="P205" s="73"/>
@@ -12102,11 +12117,11 @@
       </c>
       <c r="K206" s="32"/>
       <c r="L206" s="32" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="M206" s="32"/>
       <c r="N206" s="32" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O206" s="32"/>
       <c r="P206" s="32"/>
@@ -12146,11 +12161,11 @@
       </c>
       <c r="K207" s="32"/>
       <c r="L207" s="32" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="M207" s="32"/>
       <c r="N207" s="32" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O207" s="32"/>
       <c r="P207" s="32"/>
@@ -12189,10 +12204,10 @@
         <v>14</v>
       </c>
       <c r="L208" s="24" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="N208" s="24" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="209" spans="1:18" x14ac:dyDescent="0.35">
@@ -12228,11 +12243,11 @@
       </c>
       <c r="K209" s="32"/>
       <c r="L209" s="32" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="M209" s="32"/>
       <c r="N209" s="32" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="O209" s="32"/>
       <c r="P209" s="32"/>
@@ -12272,11 +12287,11 @@
       </c>
       <c r="K210" s="32"/>
       <c r="L210" s="32" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="M210" s="32"/>
       <c r="N210" s="32" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="O210" s="32"/>
       <c r="P210" s="32"/>
@@ -12316,11 +12331,11 @@
       </c>
       <c r="K211" s="7"/>
       <c r="L211" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="M211" s="7"/>
       <c r="N211" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="O211" s="7"/>
       <c r="P211" s="7"/>
@@ -12360,11 +12375,11 @@
       </c>
       <c r="K212" s="22"/>
       <c r="L212" s="22" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="M212" s="22"/>
       <c r="N212" s="22" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="O212" s="22"/>
       <c r="P212" s="22"/>
@@ -12404,11 +12419,11 @@
       </c>
       <c r="K213" s="32"/>
       <c r="L213" s="32" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="M213" s="32"/>
       <c r="N213" s="32" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="O213" s="32"/>
       <c r="P213" s="32"/>
@@ -12448,11 +12463,11 @@
       </c>
       <c r="K214" s="32"/>
       <c r="L214" s="32" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="M214" s="32"/>
       <c r="N214" s="32" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="O214" s="32"/>
       <c r="P214" s="32"/>
@@ -12492,13 +12507,13 @@
       </c>
       <c r="K215" s="22"/>
       <c r="L215" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="M215" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="N215" s="22" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="O215" s="22"/>
       <c r="P215" s="22"/>
@@ -12538,13 +12553,13 @@
       </c>
       <c r="K216" s="22"/>
       <c r="L216" s="22" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="M216" s="22" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="N216" s="22" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="O216" s="22"/>
       <c r="P216" s="22"/>
@@ -12584,13 +12599,13 @@
       </c>
       <c r="K217" s="32"/>
       <c r="L217" s="32" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="M217" s="32" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="N217" s="32" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="O217" s="32"/>
       <c r="P217" s="32"/>
@@ -12630,13 +12645,13 @@
       </c>
       <c r="K218" s="31"/>
       <c r="L218" s="32" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="M218" s="32" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="N218" s="31" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="O218" s="31"/>
       <c r="P218" s="31"/>
@@ -12676,13 +12691,13 @@
       </c>
       <c r="K219" s="32"/>
       <c r="L219" s="32" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="M219" s="32" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="N219" s="32" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="O219" s="32"/>
       <c r="P219" s="32"/>
@@ -12722,13 +12737,13 @@
       </c>
       <c r="K220" s="31"/>
       <c r="L220" s="32" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="M220" s="32" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="N220" s="31" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="O220" s="31"/>
       <c r="P220" s="31"/>
@@ -12768,13 +12783,13 @@
       </c>
       <c r="K221" s="31"/>
       <c r="L221" s="32" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="M221" s="32" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="N221" s="31" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="O221" s="31"/>
       <c r="P221" s="31"/>
@@ -12814,13 +12829,13 @@
       </c>
       <c r="K222" s="22"/>
       <c r="L222" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="M222" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="N222" s="22" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="O222" s="22"/>
       <c r="P222" s="22"/>
@@ -12859,13 +12874,13 @@
         <v>14</v>
       </c>
       <c r="L223" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="M223" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="N223" s="22" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="224" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -12901,13 +12916,13 @@
       </c>
       <c r="K224" s="31"/>
       <c r="L224" s="31" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="M224" s="31" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="N224" s="31" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="O224" s="31"/>
       <c r="P224" s="31"/>
@@ -12947,13 +12962,13 @@
       </c>
       <c r="K225" s="31"/>
       <c r="L225" s="32" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="M225" s="32" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="N225" s="31" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="O225" s="31"/>
       <c r="P225" s="31"/>
@@ -12992,13 +13007,13 @@
         <v>14</v>
       </c>
       <c r="L226" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="M226" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="N226" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="227" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -13034,13 +13049,13 @@
       </c>
       <c r="K227" s="31"/>
       <c r="L227" s="32" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="M227" s="32" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="N227" s="31" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="O227" s="31"/>
       <c r="P227" s="31"/>
@@ -13079,13 +13094,13 @@
         <v>14</v>
       </c>
       <c r="L228" s="23" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="M228" s="23" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="N228" s="23" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="229" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.35">
@@ -13121,13 +13136,13 @@
       </c>
       <c r="K229" s="31"/>
       <c r="L229" s="32" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="M229" s="32" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="N229" s="31" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="O229" s="31"/>
       <c r="P229" s="31"/>
@@ -13166,13 +13181,13 @@
         <v>14</v>
       </c>
       <c r="L230" s="32" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="M230" s="32" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="N230" s="32" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="231" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.35">
@@ -13207,13 +13222,13 @@
         <v>14</v>
       </c>
       <c r="L231" s="32" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="M231" s="32" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="N231" s="32" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="232" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.35">
@@ -13249,13 +13264,13 @@
       </c>
       <c r="K232" s="31"/>
       <c r="L232" s="32" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="M232" s="32" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="N232" s="31" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="O232" s="31"/>
       <c r="P232" s="31"/>
@@ -13294,13 +13309,13 @@
         <v>14</v>
       </c>
       <c r="L233" s="32" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="M233" s="32" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="N233" s="32" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="234" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.35">
@@ -13335,13 +13350,13 @@
         <v>14</v>
       </c>
       <c r="L234" s="44" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="M234" s="44" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="N234" s="44" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="235" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -13377,13 +13392,13 @@
       </c>
       <c r="K235" s="32"/>
       <c r="L235" s="32" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="M235" s="32" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="N235" s="32" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="O235" s="32">
         <v>4</v>
@@ -13425,13 +13440,13 @@
       </c>
       <c r="K236" s="56"/>
       <c r="L236" s="56" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="M236" s="56" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="N236" s="56" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="O236" s="56"/>
       <c r="P236" s="56"/>
@@ -13471,13 +13486,13 @@
       </c>
       <c r="K237" s="31"/>
       <c r="L237" s="31" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="M237" s="31" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="N237" s="31" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="O237" s="31"/>
       <c r="P237" s="31"/>
@@ -13517,13 +13532,13 @@
       </c>
       <c r="K238" s="22"/>
       <c r="L238" s="22" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="M238" s="22" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="N238" s="22" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="O238" s="22"/>
       <c r="P238" s="22"/>
@@ -13563,13 +13578,13 @@
       </c>
       <c r="K239" s="31"/>
       <c r="L239" s="31" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="M239" s="31" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="N239" s="31" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="O239" s="31"/>
       <c r="P239" s="31"/>
@@ -13609,13 +13624,13 @@
       </c>
       <c r="K240" s="31"/>
       <c r="L240" s="32" t="s">
+        <v>533</v>
+      </c>
+      <c r="M240" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="N240" s="32" t="s">
         <v>536</v>
-      </c>
-      <c r="M240" s="32" t="s">
-        <v>538</v>
-      </c>
-      <c r="N240" s="32" t="s">
-        <v>539</v>
       </c>
       <c r="O240" s="31">
         <v>3</v>
@@ -13657,11 +13672,11 @@
       </c>
       <c r="K241" s="31"/>
       <c r="L241" s="32" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="M241" s="31"/>
       <c r="N241" s="31" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="O241" s="31">
         <v>1</v>
@@ -13703,11 +13718,11 @@
       </c>
       <c r="K242" s="22"/>
       <c r="L242" s="22" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="M242" s="22"/>
       <c r="N242" s="22" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="O242" s="31">
         <v>1</v>
@@ -13749,11 +13764,11 @@
       </c>
       <c r="K243" s="32"/>
       <c r="L243" s="32" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="M243" s="32"/>
       <c r="N243" s="32" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="O243" s="31">
         <v>1</v>
@@ -13794,10 +13809,10 @@
         <v>14</v>
       </c>
       <c r="L244" s="23" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="N244" s="23" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="O244" s="23">
         <v>1</v>
@@ -13836,11 +13851,11 @@
       </c>
       <c r="K245" s="32"/>
       <c r="L245" s="32" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="M245" s="32"/>
       <c r="N245" s="32" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="O245" s="32">
         <v>1</v>
@@ -13882,11 +13897,11 @@
       </c>
       <c r="K246" s="56"/>
       <c r="L246" s="56" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="M246" s="56"/>
       <c r="N246" s="56" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="O246" s="56">
         <v>1</v>
@@ -13928,11 +13943,11 @@
       </c>
       <c r="K247" s="32"/>
       <c r="L247" s="32" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="M247" s="32"/>
       <c r="N247" s="32" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="O247" s="32">
         <v>1</v>
@@ -13974,11 +13989,11 @@
       </c>
       <c r="K248" s="31"/>
       <c r="L248" s="31" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="M248" s="31"/>
       <c r="N248" s="31" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="O248" s="31">
         <v>1</v>
@@ -14020,11 +14035,11 @@
       </c>
       <c r="K249" s="22"/>
       <c r="L249" s="22" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="M249" s="22"/>
       <c r="N249" s="22" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="O249" s="22">
         <v>1</v>
@@ -14065,10 +14080,10 @@
         <v>14</v>
       </c>
       <c r="L250" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="N250" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="O250" s="7">
         <v>1</v>
@@ -14107,11 +14122,11 @@
       </c>
       <c r="K251" s="32"/>
       <c r="L251" s="32" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="M251" s="32"/>
       <c r="N251" s="32" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="O251" s="32">
         <v>1</v>
@@ -14153,11 +14168,11 @@
       </c>
       <c r="K252" s="55"/>
       <c r="L252" s="55" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="M252" s="55"/>
       <c r="N252" s="55" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="O252" s="55">
         <v>12</v>
@@ -14198,10 +14213,10 @@
         <v>14</v>
       </c>
       <c r="L253" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="N253" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="O253" s="7">
         <v>1</v>
@@ -14240,11 +14255,11 @@
       </c>
       <c r="K254" s="32"/>
       <c r="L254" s="32" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="M254" s="32"/>
       <c r="N254" s="32" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="O254" s="32"/>
       <c r="P254" s="32"/>
@@ -14284,11 +14299,11 @@
       </c>
       <c r="K255" s="31"/>
       <c r="L255" s="31" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="M255" s="31"/>
       <c r="N255" s="31" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="O255" s="31"/>
       <c r="P255" s="31"/>
@@ -14512,11 +14527,11 @@
       </c>
       <c r="K260" s="31"/>
       <c r="L260" s="31" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="M260" s="31"/>
       <c r="N260" s="31" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="O260" s="31"/>
       <c r="P260" s="31"/>
@@ -14559,10 +14574,10 @@
         <v>327</v>
       </c>
       <c r="M261" s="32" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="N261" s="32" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="O261" s="31"/>
       <c r="P261" s="31"/>
@@ -14605,10 +14620,10 @@
         <v>327</v>
       </c>
       <c r="M262" s="32" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="N262" s="31" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="O262" s="31"/>
       <c r="P262" s="31"/>
@@ -14651,10 +14666,10 @@
         <v>327</v>
       </c>
       <c r="M263" s="32" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="N263" s="32" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="O263" s="32"/>
       <c r="P263" s="32"/>
@@ -14696,10 +14711,10 @@
         <v>327</v>
       </c>
       <c r="M264" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="N264" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="265" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -14738,10 +14753,10 @@
         <v>327</v>
       </c>
       <c r="M265" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="N265" s="31" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="O265" s="31"/>
       <c r="P265" s="31"/>
@@ -14784,10 +14799,10 @@
         <v>327</v>
       </c>
       <c r="M266" s="32" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="N266" s="31" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="O266" s="22"/>
       <c r="P266" s="22"/>
@@ -14830,10 +14845,10 @@
         <v>327</v>
       </c>
       <c r="M267" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="N267" s="31" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="O267" s="31"/>
       <c r="P267" s="31"/>
@@ -14876,10 +14891,10 @@
         <v>327</v>
       </c>
       <c r="M268" s="32" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="N268" s="31" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="O268" s="31"/>
       <c r="P268" s="32"/>
@@ -14922,10 +14937,10 @@
         <v>327</v>
       </c>
       <c r="M269" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="N269" s="22" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="O269" s="22"/>
       <c r="P269" s="22"/>
@@ -14968,10 +14983,10 @@
         <v>327</v>
       </c>
       <c r="M270" s="32" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="N270" s="32" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="O270" s="32"/>
       <c r="P270" s="32"/>
@@ -15014,10 +15029,10 @@
         <v>327</v>
       </c>
       <c r="M271" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="N271" s="31" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="O271" s="31"/>
       <c r="P271" s="31"/>
@@ -15060,10 +15075,10 @@
         <v>327</v>
       </c>
       <c r="M272" s="32" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="N272" s="31" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="O272" s="31"/>
       <c r="P272" s="31"/>
@@ -15103,7 +15118,7 @@
       </c>
       <c r="K273" s="23"/>
       <c r="L273" s="23" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="M273" s="23"/>
       <c r="N273" s="23" t="s">
@@ -15198,10 +15213,10 @@
         <v>16</v>
       </c>
       <c r="M275" s="32" t="s">
-        <v>542</v>
+        <v>567</v>
       </c>
       <c r="N275" s="32" t="s">
-        <v>541</v>
+        <v>566</v>
       </c>
       <c r="O275" s="32"/>
       <c r="P275" s="32"/>
@@ -15243,9 +15258,11 @@
       <c r="L276" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="M276" s="32"/>
+      <c r="M276" s="32" t="s">
+        <v>567</v>
+      </c>
       <c r="N276" s="32" t="s">
-        <v>541</v>
+        <v>566</v>
       </c>
       <c r="O276" s="32">
         <v>1</v>
@@ -15289,9 +15306,11 @@
       <c r="L277" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="M277" s="32"/>
+      <c r="M277" s="32" t="s">
+        <v>567</v>
+      </c>
       <c r="N277" s="32" t="s">
-        <v>541</v>
+        <v>566</v>
       </c>
       <c r="O277" s="32">
         <v>1</v>
@@ -15335,9 +15354,11 @@
       <c r="L278" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="M278" s="22"/>
-      <c r="N278" s="22" t="s">
-        <v>541</v>
+      <c r="M278" s="32" t="s">
+        <v>567</v>
+      </c>
+      <c r="N278" s="32" t="s">
+        <v>566</v>
       </c>
       <c r="O278" s="22">
         <v>1</v>
@@ -15381,9 +15402,11 @@
       <c r="L279" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="M279" s="31"/>
-      <c r="N279" s="31" t="s">
-        <v>541</v>
+      <c r="M279" s="32" t="s">
+        <v>567</v>
+      </c>
+      <c r="N279" s="32" t="s">
+        <v>566</v>
       </c>
       <c r="O279" s="31">
         <v>1</v>
@@ -15427,9 +15450,11 @@
       <c r="L280" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="M280" s="31"/>
-      <c r="N280" s="31" t="s">
-        <v>541</v>
+      <c r="M280" s="32" t="s">
+        <v>567</v>
+      </c>
+      <c r="N280" s="32" t="s">
+        <v>566</v>
       </c>
       <c r="O280" s="31">
         <v>1</v>
@@ -15473,9 +15498,11 @@
       <c r="L281" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="M281" s="32"/>
-      <c r="N281" s="31" t="s">
-        <v>541</v>
+      <c r="M281" s="32" t="s">
+        <v>567</v>
+      </c>
+      <c r="N281" s="32" t="s">
+        <v>566</v>
       </c>
       <c r="O281" s="32">
         <v>1</v>
@@ -15519,9 +15546,11 @@
       <c r="L282" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M282" s="7"/>
-      <c r="N282" s="31" t="s">
-        <v>541</v>
+      <c r="M282" s="32" t="s">
+        <v>567</v>
+      </c>
+      <c r="N282" s="32" t="s">
+        <v>566</v>
       </c>
       <c r="O282" s="7">
         <v>1</v>
@@ -15565,7 +15594,7 @@
       </c>
       <c r="M283" s="31"/>
       <c r="N283" s="32" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="O283" s="32">
         <v>13</v>
@@ -15611,7 +15640,7 @@
       </c>
       <c r="M284" s="7"/>
       <c r="N284" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="O284" s="7">
         <v>13</v>
@@ -15657,7 +15686,7 @@
       </c>
       <c r="M285" s="31"/>
       <c r="N285" s="31" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="O285" s="31">
         <v>13</v>
@@ -17209,11 +17238,11 @@
       </c>
       <c r="K319" s="56"/>
       <c r="L319" s="56" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="M319" s="56"/>
       <c r="N319" s="56" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="O319" s="56">
         <v>1</v>
@@ -17255,11 +17284,11 @@
       </c>
       <c r="K320" s="22"/>
       <c r="L320" s="32" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="M320" s="22"/>
       <c r="N320" s="22" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="O320" s="22"/>
       <c r="P320" s="22"/>
@@ -17299,11 +17328,11 @@
       </c>
       <c r="K321" s="7"/>
       <c r="L321" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="M321" s="7"/>
       <c r="N321" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="O321" s="7">
         <v>10</v>
@@ -17345,13 +17374,13 @@
       </c>
       <c r="K322" s="31"/>
       <c r="L322" s="32" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="M322" s="32" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="N322" s="32" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="O322" s="31"/>
       <c r="P322" s="31" t="s">
@@ -17393,13 +17422,13 @@
       </c>
       <c r="K323" s="31"/>
       <c r="L323" s="32" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="M323" s="32" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="N323" s="32" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="O323" s="31"/>
       <c r="P323" s="31"/>
@@ -18168,11 +18197,11 @@
       </c>
       <c r="K341" s="90"/>
       <c r="L341" s="44" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M341" s="44"/>
       <c r="N341" s="32" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="O341" s="90">
         <v>1</v>
@@ -18214,11 +18243,11 @@
       </c>
       <c r="K342" s="31"/>
       <c r="L342" s="44" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M342" s="44"/>
       <c r="N342" s="32" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="O342" s="31">
         <v>1</v>
@@ -18262,7 +18291,7 @@
       <c r="L343" s="32"/>
       <c r="M343" s="32"/>
       <c r="N343" s="32" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="O343" s="32">
         <v>2</v>
@@ -18304,11 +18333,11 @@
       </c>
       <c r="K344" s="44"/>
       <c r="L344" s="44" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M344" s="44"/>
       <c r="N344" s="32" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="O344" s="44">
         <v>1</v>
@@ -18350,11 +18379,11 @@
       </c>
       <c r="K345" s="32"/>
       <c r="L345" s="32" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M345" s="32"/>
       <c r="N345" s="32" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="O345" s="32">
         <v>1</v>
@@ -18396,11 +18425,11 @@
       </c>
       <c r="K346" s="32"/>
       <c r="L346" s="32" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M346" s="32"/>
       <c r="N346" s="32" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="O346" s="32">
         <v>1</v>
@@ -18442,11 +18471,11 @@
       </c>
       <c r="K347" s="32"/>
       <c r="L347" s="32" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M347" s="32"/>
       <c r="N347" s="32" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="O347" s="32">
         <v>1</v>
@@ -18488,11 +18517,11 @@
       </c>
       <c r="K348" s="32"/>
       <c r="L348" s="32" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M348" s="32"/>
       <c r="N348" s="7" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="O348" s="32">
         <v>1</v>
@@ -18534,11 +18563,11 @@
       </c>
       <c r="K349" s="32"/>
       <c r="L349" s="32" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M349" s="32"/>
       <c r="N349" s="32" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="O349" s="32">
         <v>1</v>
@@ -18580,11 +18609,11 @@
       </c>
       <c r="K350" s="31"/>
       <c r="L350" s="32" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M350" s="32"/>
       <c r="N350" s="32" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="O350" s="31">
         <v>1</v>
@@ -18626,11 +18655,11 @@
       </c>
       <c r="K351" s="31"/>
       <c r="L351" s="32" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M351" s="31"/>
       <c r="N351" s="7" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="O351" s="31">
         <v>1</v>
@@ -18672,11 +18701,11 @@
       </c>
       <c r="K352" s="31"/>
       <c r="L352" s="32" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M352" s="32"/>
       <c r="N352" s="32" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="O352" s="31">
         <v>1</v>
@@ -18718,11 +18747,11 @@
       </c>
       <c r="K353" s="31"/>
       <c r="L353" s="31" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M353" s="31"/>
       <c r="N353" s="31" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="O353" s="31"/>
       <c r="P353" s="31"/>
@@ -18762,11 +18791,11 @@
       </c>
       <c r="K354" s="31"/>
       <c r="L354" s="32" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M354" s="31"/>
       <c r="N354" s="7" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="O354" s="31">
         <v>1</v>
@@ -18808,11 +18837,11 @@
       </c>
       <c r="K355" s="31"/>
       <c r="L355" s="32" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M355" s="31"/>
       <c r="N355" s="7" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="O355" s="31">
         <v>1</v>
@@ -18854,11 +18883,11 @@
       </c>
       <c r="K356" s="24"/>
       <c r="L356" s="23" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M356" s="24"/>
       <c r="N356" s="7" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="O356" s="24">
         <v>1</v>
@@ -18900,11 +18929,11 @@
       </c>
       <c r="K357" s="7"/>
       <c r="L357" s="32" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M357" s="31"/>
       <c r="N357" s="7" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="O357" s="7">
         <v>1</v>
@@ -18945,10 +18974,10 @@
         <v>232</v>
       </c>
       <c r="L358" s="32" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="N358" s="32" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="O358" s="32">
         <v>1</v>
@@ -18984,11 +19013,11 @@
       </c>
       <c r="K359" s="31"/>
       <c r="L359" s="32" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M359" s="31"/>
       <c r="N359" s="31" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="O359" s="31"/>
       <c r="P359" s="31"/>
@@ -19027,11 +19056,11 @@
         <v>232</v>
       </c>
       <c r="L360" s="32" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M360" s="31"/>
       <c r="N360" s="7" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="O360" s="32">
         <v>1</v>
@@ -19072,10 +19101,10 @@
         <v>232</v>
       </c>
       <c r="L361" s="37" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="N361" s="7" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="O361" s="37">
         <v>1</v>
@@ -19114,11 +19143,11 @@
       </c>
       <c r="K362" s="32"/>
       <c r="L362" s="32" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M362" s="32"/>
       <c r="N362" s="7" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="O362" s="32">
         <v>1</v>
@@ -19160,11 +19189,11 @@
       </c>
       <c r="K363" s="31"/>
       <c r="L363" s="32" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M363" s="31"/>
       <c r="N363" s="7" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="O363" s="31">
         <v>1</v>
@@ -19206,11 +19235,11 @@
       </c>
       <c r="K364" s="32"/>
       <c r="L364" s="32" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M364" s="31"/>
       <c r="N364" s="7" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="O364" s="32">
         <v>1</v>
@@ -19252,11 +19281,11 @@
       </c>
       <c r="K365" s="22"/>
       <c r="L365" s="32" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M365" s="22"/>
       <c r="N365" s="7" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="O365" s="22">
         <v>1</v>
@@ -19298,11 +19327,11 @@
       </c>
       <c r="K366" s="7"/>
       <c r="L366" s="32" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M366" s="7"/>
       <c r="N366" s="7" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="O366" s="7">
         <v>1</v>
@@ -19344,11 +19373,11 @@
       </c>
       <c r="K367" s="44"/>
       <c r="L367" s="32" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M367" s="32"/>
       <c r="N367" s="32" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="O367" s="44">
         <v>1</v>
@@ -19390,11 +19419,11 @@
       </c>
       <c r="K368" s="32"/>
       <c r="L368" s="32" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M368" s="32"/>
       <c r="N368" s="32" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="O368" s="32"/>
       <c r="P368" s="32"/>
@@ -19434,11 +19463,11 @@
       </c>
       <c r="K369" s="7"/>
       <c r="L369" s="32" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M369" s="32"/>
       <c r="N369" s="32" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="O369" s="7">
         <v>1</v>
@@ -19480,11 +19509,11 @@
       </c>
       <c r="K370" s="32"/>
       <c r="L370" s="32" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M370" s="32"/>
       <c r="N370" s="32" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="O370" s="32">
         <v>1</v>
@@ -19526,13 +19555,13 @@
       </c>
       <c r="K371" s="31"/>
       <c r="L371" s="31" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M371" s="31" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="N371" s="31" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="O371" s="31">
         <v>3</v>
@@ -19574,13 +19603,13 @@
       </c>
       <c r="K372" s="32"/>
       <c r="L372" s="31" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M372" s="31" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="N372" s="31" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="O372" s="32">
         <v>3</v>
@@ -19622,13 +19651,13 @@
       </c>
       <c r="K373" s="31"/>
       <c r="L373" s="31" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M373" s="31" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="N373" s="31" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="O373" s="31">
         <v>3</v>
@@ -19670,13 +19699,13 @@
       </c>
       <c r="K374" s="37"/>
       <c r="L374" s="31" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M374" s="31" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="N374" s="31" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="O374" s="37">
         <v>3</v>
@@ -19718,13 +19747,13 @@
       </c>
       <c r="K375" s="31"/>
       <c r="L375" s="31" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M375" s="31" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="N375" s="31" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="O375" s="31">
         <v>3</v>
@@ -19766,13 +19795,13 @@
       </c>
       <c r="K376" s="22"/>
       <c r="L376" s="31" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M376" s="31" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="N376" s="31" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="O376" s="22">
         <v>3</v>
@@ -19814,13 +19843,13 @@
       </c>
       <c r="K377" s="22"/>
       <c r="L377" s="31" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M377" s="31" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="N377" s="31" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="O377" s="22">
         <v>3</v>
@@ -19862,13 +19891,13 @@
       </c>
       <c r="K378" s="23"/>
       <c r="L378" s="31" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M378" s="31" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="N378" s="31" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="O378" s="23">
         <v>3</v>
@@ -19910,13 +19939,13 @@
       </c>
       <c r="K379" s="32"/>
       <c r="L379" s="31" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M379" s="31" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="N379" s="31" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="O379" s="32">
         <v>3</v>
@@ -20220,7 +20249,7 @@
       <c r="L386" s="7"/>
       <c r="M386" s="7"/>
       <c r="N386" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="O386" s="7">
         <v>1</v>
@@ -20264,7 +20293,7 @@
       <c r="L387" s="7"/>
       <c r="M387" s="7"/>
       <c r="N387" s="35" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="O387" s="7">
         <v>2</v>
@@ -20308,7 +20337,7 @@
       <c r="L388" s="7"/>
       <c r="M388" s="7"/>
       <c r="N388" s="35" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="O388" s="7">
         <v>2</v>
@@ -20349,7 +20378,7 @@
         <v>116</v>
       </c>
       <c r="N389" s="35" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="O389" s="23">
         <v>2</v>
@@ -20387,7 +20416,7 @@
         <v>116</v>
       </c>
       <c r="N390" s="35" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="O390" s="31">
         <v>2</v>
@@ -20425,7 +20454,7 @@
         <v>116</v>
       </c>
       <c r="N391" s="35" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="O391" s="31">
         <v>2</v>
@@ -20466,7 +20495,7 @@
       <c r="L392" s="22"/>
       <c r="M392" s="22"/>
       <c r="N392" s="35" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="O392" s="22">
         <v>2</v>
@@ -20510,7 +20539,7 @@
       <c r="L393" s="22"/>
       <c r="M393" s="22"/>
       <c r="N393" s="35" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="O393" s="22">
         <v>2</v>
@@ -20554,7 +20583,7 @@
       <c r="L394" s="32"/>
       <c r="M394" s="32"/>
       <c r="N394" s="35" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="O394" s="32">
         <v>2</v>
@@ -20595,7 +20624,7 @@
         <v>116</v>
       </c>
       <c r="N395" s="35" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="O395" s="37">
         <v>2</v>
@@ -20634,11 +20663,11 @@
       </c>
       <c r="K396" s="56"/>
       <c r="L396" s="56" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="M396" s="56"/>
       <c r="N396" s="56" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="O396" s="56">
         <v>2</v>
@@ -20682,7 +20711,7 @@
       <c r="L397" s="35"/>
       <c r="M397" s="35"/>
       <c r="N397" s="35" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="O397" s="35">
         <v>2</v>
@@ -20728,7 +20757,7 @@
       <c r="L398" s="7"/>
       <c r="M398" s="7"/>
       <c r="N398" s="35" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="O398" s="7">
         <v>2</v>
@@ -20772,7 +20801,7 @@
       <c r="L399" s="32"/>
       <c r="M399" s="32"/>
       <c r="N399" s="35" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="O399" s="32">
         <v>2</v>
@@ -20816,7 +20845,7 @@
       <c r="L400" s="31"/>
       <c r="M400" s="31"/>
       <c r="N400" s="35" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="O400" s="31">
         <v>2</v>
@@ -20860,7 +20889,7 @@
       <c r="L401" s="32"/>
       <c r="M401" s="32"/>
       <c r="N401" s="35" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="O401" s="32">
         <v>2</v>
@@ -20901,7 +20930,7 @@
         <v>116</v>
       </c>
       <c r="N402" s="35" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="O402" s="24">
         <v>2</v>
@@ -20942,7 +20971,7 @@
       <c r="L403" s="32"/>
       <c r="M403" s="32"/>
       <c r="N403" s="35" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="O403" s="32">
         <v>2</v>
@@ -20986,7 +21015,7 @@
       <c r="L404" s="6"/>
       <c r="M404" s="6"/>
       <c r="N404" s="35" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="O404" s="6">
         <v>2</v>
@@ -21030,7 +21059,7 @@
       <c r="L405" s="32"/>
       <c r="M405" s="32"/>
       <c r="N405" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="O405" s="32">
         <v>3</v>
@@ -21074,7 +21103,7 @@
       <c r="L406" s="22"/>
       <c r="M406" s="22"/>
       <c r="N406" s="22" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="O406" s="22">
         <v>4</v>
@@ -21115,7 +21144,7 @@
       <c r="L407" s="22"/>
       <c r="M407" s="22"/>
       <c r="N407" s="22" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="O407" s="22"/>
       <c r="P407" s="22"/>
@@ -21157,7 +21186,7 @@
       <c r="L408" s="23"/>
       <c r="M408" s="23"/>
       <c r="N408" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="O408" s="23">
         <v>1</v>
@@ -21201,7 +21230,7 @@
       <c r="L409" s="31"/>
       <c r="M409" s="31"/>
       <c r="N409" s="32" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="O409" s="31">
         <v>1</v>
@@ -21245,7 +21274,7 @@
       <c r="L410" s="22"/>
       <c r="M410" s="22"/>
       <c r="N410" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="O410" s="22">
         <v>1</v>
@@ -21289,7 +21318,7 @@
       <c r="L411" s="31"/>
       <c r="M411" s="31"/>
       <c r="N411" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="O411" s="31">
         <v>1</v>
@@ -21333,7 +21362,7 @@
       <c r="L412" s="7"/>
       <c r="M412" s="7"/>
       <c r="N412" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="O412" s="7">
         <v>1</v>
@@ -21377,7 +21406,7 @@
       <c r="L413" s="31"/>
       <c r="M413" s="31"/>
       <c r="N413" s="32" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="O413" s="31">
         <v>1</v>
@@ -21421,7 +21450,7 @@
       <c r="L414" s="7"/>
       <c r="M414" s="7"/>
       <c r="N414" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="O414" s="7">
         <v>1</v>
@@ -21465,7 +21494,7 @@
       <c r="L415" s="32"/>
       <c r="M415" s="32"/>
       <c r="N415" s="32" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="O415" s="32">
         <v>2</v>
@@ -21509,7 +21538,7 @@
       <c r="L416" s="22"/>
       <c r="M416" s="22"/>
       <c r="N416" s="22" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="O416" s="22">
         <v>2</v>
@@ -21811,7 +21840,7 @@
       <c r="L423" s="22"/>
       <c r="M423" s="22"/>
       <c r="N423" s="22" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="O423" s="22">
         <v>2</v>
@@ -21852,7 +21881,7 @@
         <v>193</v>
       </c>
       <c r="N424" s="31" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="O424" s="31">
         <v>2</v>
@@ -21890,7 +21919,7 @@
         <v>193</v>
       </c>
       <c r="N425" s="22" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="O425" s="37">
         <v>2</v>
@@ -21931,7 +21960,7 @@
       <c r="L426" s="32"/>
       <c r="M426" s="32"/>
       <c r="N426" s="31" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="O426" s="32">
         <v>2</v>
@@ -22017,11 +22046,11 @@
       </c>
       <c r="K428" s="7"/>
       <c r="L428" s="32" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="M428" s="7"/>
       <c r="N428" s="32" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="O428" s="7">
         <v>1</v>
@@ -22063,11 +22092,11 @@
       </c>
       <c r="K429" s="31"/>
       <c r="L429" s="32" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="M429" s="31"/>
       <c r="N429" s="32" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="O429" s="31">
         <v>1</v>
@@ -22109,11 +22138,11 @@
       </c>
       <c r="K430" s="32"/>
       <c r="L430" s="32" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="M430" s="32"/>
       <c r="N430" s="43" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="O430" s="32">
         <v>2</v>
@@ -22155,13 +22184,13 @@
       </c>
       <c r="K431" s="87"/>
       <c r="L431" s="9" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="M431" s="9" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="N431" s="87" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="O431" s="87">
         <v>1</v>
@@ -22203,11 +22232,11 @@
       </c>
       <c r="K432" s="32"/>
       <c r="L432" s="32" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="M432" s="32"/>
       <c r="N432" s="32" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="O432" s="32">
         <v>2</v>
@@ -22287,17 +22316,17 @@
         <v>247</v>
       </c>
       <c r="J434" s="32" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="K434" s="31"/>
       <c r="L434" s="31" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="M434" s="31" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="N434" s="31" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="O434" s="31"/>
       <c r="P434" s="31"/>
@@ -22332,16 +22361,18 @@
       <c r="I435" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="J435" s="7"/>
+      <c r="J435" s="32" t="s">
+        <v>380</v>
+      </c>
       <c r="K435" s="7"/>
       <c r="L435" s="32" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="M435" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="N435" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="O435" s="7">
         <v>1</v>
@@ -22382,10 +22413,10 @@
         <v>29</v>
       </c>
       <c r="L436" s="32" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="N436" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="O436" s="7">
         <v>4</v>
@@ -22499,11 +22530,11 @@
       </c>
       <c r="K439" s="7"/>
       <c r="L439" s="70" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="M439" s="70"/>
       <c r="N439" s="70" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="O439" s="7">
         <v>1</v>
@@ -22544,13 +22575,13 @@
         <v>29</v>
       </c>
       <c r="L440" s="32" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="M440" s="32" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="N440" s="32" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="441" spans="1:18" s="55" customFormat="1" x14ac:dyDescent="0.35">
@@ -22586,13 +22617,13 @@
       </c>
       <c r="K441" s="32"/>
       <c r="L441" s="32" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="M441" s="32" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="N441" s="32" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="O441" s="32"/>
       <c r="P441" s="32"/>
@@ -22634,11 +22665,11 @@
         <v>368</v>
       </c>
       <c r="L442" s="43" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="M442" s="43"/>
       <c r="N442" s="43" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="O442" s="43"/>
       <c r="P442" s="43"/>
@@ -22680,11 +22711,11 @@
         <v>368</v>
       </c>
       <c r="L443" s="6" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="M443" s="6"/>
       <c r="N443" s="6" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="O443" s="6"/>
       <c r="P443" s="6"/>
@@ -22727,10 +22758,10 @@
         <v>255</v>
       </c>
       <c r="M444" s="7" t="s">
-        <v>371</v>
+        <v>564</v>
       </c>
       <c r="N444" s="7" t="s">
-        <v>372</v>
+        <v>565</v>
       </c>
       <c r="O444" s="7"/>
       <c r="P444" s="7"/>
@@ -22773,10 +22804,10 @@
         <v>255</v>
       </c>
       <c r="M445" s="7" t="s">
-        <v>371</v>
+        <v>564</v>
       </c>
       <c r="N445" s="7" t="s">
-        <v>372</v>
+        <v>565</v>
       </c>
       <c r="O445" s="7"/>
       <c r="P445" s="7"/>
@@ -22818,11 +22849,11 @@
       <c r="L446" s="32" t="s">
         <v>255</v>
       </c>
-      <c r="M446" s="32" t="s">
-        <v>371</v>
-      </c>
-      <c r="N446" s="32" t="s">
-        <v>372</v>
+      <c r="M446" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="N446" s="7" t="s">
+        <v>565</v>
       </c>
       <c r="O446" s="32"/>
       <c r="P446" s="32"/>
@@ -22864,11 +22895,11 @@
       <c r="L447" s="32" t="s">
         <v>255</v>
       </c>
-      <c r="M447" s="32" t="s">
-        <v>371</v>
-      </c>
-      <c r="N447" s="32" t="s">
-        <v>372</v>
+      <c r="M447" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="N447" s="7" t="s">
+        <v>565</v>
       </c>
       <c r="O447" s="32"/>
     </row>
@@ -22906,11 +22937,11 @@
       <c r="L448" s="32" t="s">
         <v>255</v>
       </c>
-      <c r="M448" s="32" t="s">
-        <v>371</v>
-      </c>
-      <c r="N448" s="32" t="s">
-        <v>372</v>
+      <c r="M448" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="N448" s="7" t="s">
+        <v>565</v>
       </c>
       <c r="P448" s="31"/>
       <c r="Q448" s="31"/>
@@ -22950,11 +22981,11 @@
       <c r="L449" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="M449" s="24" t="s">
-        <v>371</v>
-      </c>
-      <c r="N449" s="24" t="s">
-        <v>372</v>
+      <c r="M449" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="N449" s="7" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="450" spans="1:18" x14ac:dyDescent="0.35">
@@ -22992,11 +23023,11 @@
       <c r="L450" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="M450" s="32" t="s">
-        <v>371</v>
-      </c>
-      <c r="N450" s="31" t="s">
-        <v>372</v>
+      <c r="M450" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="N450" s="7" t="s">
+        <v>565</v>
       </c>
       <c r="O450" s="31"/>
       <c r="P450" s="31"/>
@@ -23038,11 +23069,11 @@
       <c r="L451" s="32" t="s">
         <v>255</v>
       </c>
-      <c r="M451" s="32" t="s">
-        <v>371</v>
-      </c>
-      <c r="N451" s="31" t="s">
-        <v>372</v>
+      <c r="M451" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="N451" s="7" t="s">
+        <v>565</v>
       </c>
       <c r="O451" s="31"/>
       <c r="P451" s="31"/>
@@ -23084,11 +23115,11 @@
       <c r="L452" s="32" t="s">
         <v>255</v>
       </c>
-      <c r="M452" s="32" t="s">
-        <v>371</v>
-      </c>
-      <c r="N452" s="31" t="s">
-        <v>372</v>
+      <c r="M452" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="N452" s="7" t="s">
+        <v>565</v>
       </c>
       <c r="O452" s="31"/>
       <c r="P452" s="31"/>
@@ -23131,7 +23162,7 @@
         <v>160</v>
       </c>
       <c r="M453" s="22" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="N453" s="22" t="s">
         <v>157</v>
@@ -23179,7 +23210,7 @@
         <v>160</v>
       </c>
       <c r="M454" s="35" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="N454" s="35" t="s">
         <v>163</v>
@@ -23295,14 +23326,14 @@
         <v>28</v>
       </c>
       <c r="J457" s="32" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="K457" s="32"/>
       <c r="L457" s="7" t="s">
         <v>160</v>
       </c>
       <c r="M457" s="32" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="N457" s="32" t="s">
         <v>157</v>
@@ -23341,14 +23372,14 @@
         <v>28</v>
       </c>
       <c r="J458" s="32" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="K458" s="32"/>
       <c r="L458" s="32" t="s">
         <v>160</v>
       </c>
       <c r="M458" s="32" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="N458" s="32" t="s">
         <v>157</v>
@@ -23387,14 +23418,14 @@
         <v>28</v>
       </c>
       <c r="J459" s="32" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="K459" s="32"/>
       <c r="L459" s="32" t="s">
         <v>160</v>
       </c>
       <c r="M459" s="32" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="N459" s="32" t="s">
         <v>157</v>
@@ -23433,13 +23464,13 @@
         <v>28</v>
       </c>
       <c r="J460" s="23" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="L460" s="23" t="s">
         <v>160</v>
       </c>
       <c r="M460" s="23" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="N460" s="23" t="s">
         <v>157</v>
@@ -23477,14 +23508,14 @@
         <v>28</v>
       </c>
       <c r="J461" s="32" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="K461" s="32"/>
       <c r="L461" s="32" t="s">
         <v>160</v>
       </c>
       <c r="M461" s="32" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="N461" s="32" t="s">
         <v>157</v>
@@ -23523,14 +23554,14 @@
         <v>28</v>
       </c>
       <c r="J462" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="K462" s="7"/>
       <c r="L462" s="7" t="s">
         <v>160</v>
       </c>
       <c r="M462" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="N462" s="7" t="s">
         <v>157</v>
@@ -23569,14 +23600,14 @@
         <v>28</v>
       </c>
       <c r="J463" s="32" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="K463" s="32"/>
       <c r="L463" s="32" t="s">
         <v>160</v>
       </c>
       <c r="M463" s="32" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="N463" s="32" t="s">
         <v>157</v>
@@ -23617,14 +23648,14 @@
         <v>28</v>
       </c>
       <c r="J464" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="K464" s="7"/>
       <c r="L464" s="7" t="s">
         <v>160</v>
       </c>
       <c r="M464" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="N464" s="7" t="s">
         <v>157</v>
@@ -23663,14 +23694,14 @@
         <v>28</v>
       </c>
       <c r="J465" s="32" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="K465" s="32"/>
       <c r="L465" s="32" t="s">
         <v>160</v>
       </c>
       <c r="M465" s="32" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="N465" s="32" t="s">
         <v>157</v>
@@ -23706,14 +23737,14 @@
         <v>28</v>
       </c>
       <c r="J466" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="K466" s="7"/>
       <c r="L466" s="7" t="s">
         <v>160</v>
       </c>
       <c r="M466" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="N466" s="7" t="s">
         <v>157</v>
@@ -23752,14 +23783,14 @@
         <v>28</v>
       </c>
       <c r="J467" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="K467" s="7"/>
       <c r="L467" s="7" t="s">
         <v>160</v>
       </c>
       <c r="M467" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="N467" s="7" t="s">
         <v>157</v>
@@ -23798,15 +23829,15 @@
         <v>28</v>
       </c>
       <c r="J468" s="32" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="K468" s="31"/>
       <c r="L468" s="32" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="M468" s="31"/>
       <c r="N468" s="31" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="O468" s="31">
         <v>1</v>
@@ -23844,13 +23875,13 @@
         <v>28</v>
       </c>
       <c r="J469" s="31" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="L469" s="32" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="N469" s="32" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="O469" s="31">
         <v>1</v>
@@ -23885,15 +23916,15 @@
         <v>28</v>
       </c>
       <c r="J470" s="31" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="K470" s="31"/>
       <c r="L470" s="32" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="M470" s="31"/>
       <c r="N470" s="32" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="O470" s="31">
         <v>5</v>
@@ -23931,15 +23962,15 @@
         <v>28</v>
       </c>
       <c r="J471" s="31" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="K471" s="31"/>
       <c r="L471" s="32" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="M471" s="31"/>
       <c r="N471" s="31" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="O471" s="31">
         <v>1</v>
@@ -23977,13 +24008,13 @@
         <v>28</v>
       </c>
       <c r="J472" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="L472" s="32" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="N472" s="32" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="O472" s="7">
         <v>1</v>
@@ -24021,7 +24052,7 @@
         <v>28</v>
       </c>
       <c r="J473" s="37" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="N473" s="44" t="s">
         <v>114</v>
@@ -24238,17 +24269,17 @@
         <v>28</v>
       </c>
       <c r="J478" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="K478" s="7"/>
       <c r="L478" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="M478" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="N478" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="O478" s="7"/>
       <c r="P478" s="7"/>
@@ -24290,7 +24321,7 @@
       <c r="L479" s="32"/>
       <c r="M479" s="32"/>
       <c r="N479" s="22" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="O479" s="32">
         <v>1</v>
@@ -24336,7 +24367,7 @@
       <c r="L480" s="24"/>
       <c r="M480" s="24"/>
       <c r="N480" s="22" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="O480" s="24">
         <v>1</v>
@@ -24380,7 +24411,7 @@
       <c r="L481" s="31"/>
       <c r="M481" s="31"/>
       <c r="N481" s="31" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="O481" s="31">
         <v>1</v>
@@ -24421,7 +24452,7 @@
         <v>45</v>
       </c>
       <c r="N482" s="22" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="O482" s="31">
         <v>1</v>
@@ -24459,7 +24490,7 @@
         <v>45</v>
       </c>
       <c r="N483" s="31" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="O483" s="31">
         <v>2</v>
@@ -24500,7 +24531,7 @@
       <c r="L484" s="22"/>
       <c r="M484" s="22"/>
       <c r="N484" s="22" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="O484" s="22">
         <v>2</v>
@@ -24546,7 +24577,7 @@
       <c r="L485" s="31"/>
       <c r="M485" s="31"/>
       <c r="N485" s="22" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="O485" s="31">
         <v>2</v>
@@ -24587,7 +24618,7 @@
         <v>45</v>
       </c>
       <c r="N486" s="22" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="O486" s="31">
         <v>2</v>
@@ -24625,7 +24656,7 @@
         <v>45</v>
       </c>
       <c r="N487" s="31" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="O487" s="31">
         <v>3</v>
@@ -24663,7 +24694,7 @@
         <v>45</v>
       </c>
       <c r="N488" s="31" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="O488" s="31">
         <v>3</v>
@@ -24701,7 +24732,7 @@
         <v>45</v>
       </c>
       <c r="N489" s="31" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="O489" s="31">
         <v>3</v>
@@ -24741,7 +24772,7 @@
       <c r="L490" s="31"/>
       <c r="M490" s="31"/>
       <c r="N490" s="31" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="O490" s="37">
         <v>3</v>
@@ -25275,7 +25306,7 @@
       </c>
       <c r="M502" s="31"/>
       <c r="N502" s="24" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="O502" s="31">
         <v>1</v>
@@ -25321,7 +25352,7 @@
       </c>
       <c r="M503" s="31"/>
       <c r="N503" s="24" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="O503" s="31">
         <v>1</v>
@@ -25367,7 +25398,7 @@
       </c>
       <c r="M504" s="31"/>
       <c r="N504" s="31" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="O504" s="31">
         <v>1</v>
@@ -25413,7 +25444,7 @@
       </c>
       <c r="M505" s="31"/>
       <c r="N505" s="31" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="O505" s="31">
         <v>1</v>
@@ -25459,7 +25490,7 @@
       </c>
       <c r="M506" s="31"/>
       <c r="N506" s="31" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="O506" s="31">
         <v>1</v>
@@ -25505,7 +25536,7 @@
       </c>
       <c r="M507" s="37"/>
       <c r="N507" s="31" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="O507" s="37">
         <v>1</v>
@@ -25551,7 +25582,7 @@
       </c>
       <c r="M508" s="24"/>
       <c r="N508" s="31" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="O508" s="24">
         <v>1</v>
@@ -25595,7 +25626,7 @@
         <v>178</v>
       </c>
       <c r="N509" s="31" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="O509" s="31">
         <v>3</v>
@@ -25636,7 +25667,7 @@
         <v>178</v>
       </c>
       <c r="N510" s="31" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="O510" s="31">
         <v>3</v>
@@ -25679,7 +25710,7 @@
       </c>
       <c r="M511" s="31"/>
       <c r="N511" s="31" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="O511" s="31">
         <v>3</v>
@@ -25943,13 +25974,13 @@
       </c>
       <c r="K517" s="31"/>
       <c r="L517" s="31" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="M517" s="31" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="N517" s="22" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="O517" s="31">
         <v>5</v>
@@ -25991,13 +26022,13 @@
       </c>
       <c r="K518" s="37"/>
       <c r="L518" s="31" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="M518" s="31" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="N518" s="37" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="O518" s="37">
         <v>5</v>
@@ -26039,13 +26070,13 @@
       </c>
       <c r="K519" s="23"/>
       <c r="L519" s="24" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="M519" s="24" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="N519" s="24" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="O519" s="23">
         <v>5</v>
@@ -26087,13 +26118,13 @@
       </c>
       <c r="K520" s="7"/>
       <c r="L520" s="31" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="M520" s="31" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="N520" s="22" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="O520" s="7">
         <v>1</v>
@@ -26135,13 +26166,13 @@
       </c>
       <c r="K521" s="32"/>
       <c r="L521" s="31" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="M521" s="31" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="N521" s="22" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="O521" s="32">
         <v>5</v>
@@ -26183,13 +26214,13 @@
       </c>
       <c r="K522" s="31"/>
       <c r="L522" s="31" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="M522" s="31" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="N522" s="22" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="O522" s="31">
         <v>5</v>
@@ -26231,13 +26262,13 @@
       </c>
       <c r="K523" s="31"/>
       <c r="L523" s="31" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="M523" s="31" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="N523" s="22" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="O523" s="31">
         <v>5</v>
@@ -26279,13 +26310,13 @@
       </c>
       <c r="K524" s="32"/>
       <c r="L524" s="31" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="M524" s="31" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="N524" s="22" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="O524" s="32">
         <v>5</v>
@@ -26327,13 +26358,13 @@
       </c>
       <c r="K525" s="32"/>
       <c r="L525" s="31" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="M525" s="31" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="N525" s="22" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="O525" s="32">
         <v>5</v>
@@ -26375,13 +26406,13 @@
       </c>
       <c r="K526" s="31"/>
       <c r="L526" s="31" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="M526" s="31" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="N526" s="22" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="O526" s="31">
         <v>5</v>
@@ -26423,13 +26454,13 @@
       </c>
       <c r="K527" s="32"/>
       <c r="L527" s="31" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="M527" s="31" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="N527" s="22" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="O527" s="32">
         <v>5</v>
@@ -26471,13 +26502,13 @@
       </c>
       <c r="K528" s="31"/>
       <c r="L528" s="31" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="M528" s="31" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="N528" s="22" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="O528" s="31">
         <v>5</v>
@@ -26519,13 +26550,13 @@
       </c>
       <c r="K529" s="31"/>
       <c r="L529" s="31" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="M529" s="31" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="N529" s="22" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="O529" s="31">
         <v>5</v>
@@ -26567,13 +26598,13 @@
       </c>
       <c r="K530" s="32"/>
       <c r="L530" s="31" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="M530" s="31" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="N530" s="22" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="O530" s="32">
         <v>5</v>
@@ -26614,13 +26645,13 @@
         <v>22</v>
       </c>
       <c r="L531" s="24" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="M531" s="24" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="N531" s="24" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="O531" s="24">
         <v>5</v>
@@ -26659,13 +26690,13 @@
       </c>
       <c r="K532" s="32"/>
       <c r="L532" s="31" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="M532" s="31" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="N532" s="22" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="O532" s="32">
         <v>5</v>
@@ -26706,13 +26737,13 @@
         <v>22</v>
       </c>
       <c r="L533" s="31" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="M533" s="31" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="N533" s="22" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="O533" s="31">
         <v>5</v>
@@ -26751,13 +26782,13 @@
       </c>
       <c r="K534" s="32"/>
       <c r="L534" s="31" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="M534" s="31" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="N534" s="22" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="O534" s="32">
         <v>5</v>
@@ -26799,13 +26830,13 @@
       </c>
       <c r="K535" s="22"/>
       <c r="L535" s="31" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="M535" s="31" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="N535" s="22" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="O535" s="22">
         <v>5</v>
@@ -26847,13 +26878,13 @@
       </c>
       <c r="K536" s="32"/>
       <c r="L536" s="31" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="M536" s="31" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="N536" s="22" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="O536" s="32">
         <v>5</v>
@@ -26898,10 +26929,10 @@
         <v>224</v>
       </c>
       <c r="M537" s="32" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="N537" s="32" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="O537" s="32"/>
       <c r="P537" s="32"/>
@@ -26943,7 +26974,7 @@
         <v>224</v>
       </c>
       <c r="N538" s="31" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="O538" s="31" t="s">
         <v>123</v>
@@ -26986,7 +27017,7 @@
       </c>
       <c r="M539" s="32"/>
       <c r="N539" s="32" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="O539" s="32">
         <v>1</v>
@@ -31990,10 +32021,10 @@
         <v>94</v>
       </c>
       <c r="M650" s="31" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N650" s="31" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="O650" s="22">
         <v>2</v>
@@ -32035,10 +32066,10 @@
         <v>94</v>
       </c>
       <c r="M651" s="23" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="N651" s="23" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="652" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.35">
@@ -32076,10 +32107,10 @@
         <v>94</v>
       </c>
       <c r="M652" s="32" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="N652" s="31" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="O652" s="31">
         <v>5</v>
@@ -32167,10 +32198,10 @@
         <v>94</v>
       </c>
       <c r="M654" s="31" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N654" s="31" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="O654" s="31">
         <v>2</v>
@@ -32214,10 +32245,10 @@
         <v>94</v>
       </c>
       <c r="M655" s="31" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N655" s="31" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="656" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.35">
@@ -32256,10 +32287,10 @@
         <v>94</v>
       </c>
       <c r="M656" s="32" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N656" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="O656" s="7">
         <v>2</v>
@@ -32304,10 +32335,10 @@
         <v>94</v>
       </c>
       <c r="M657" s="32" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N657" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="O657" s="7">
         <v>2</v>
@@ -32351,10 +32382,10 @@
         <v>94</v>
       </c>
       <c r="M658" s="44" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N658" s="37" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="O658" s="37">
         <v>2</v>
@@ -32396,10 +32427,10 @@
         <v>94</v>
       </c>
       <c r="M659" s="23" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N659" s="24" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="O659" s="31">
         <v>1</v>
@@ -32444,10 +32475,10 @@
         <v>94</v>
       </c>
       <c r="M660" s="32" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N660" s="32" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="O660" s="32">
         <v>2</v>
@@ -32492,10 +32523,10 @@
         <v>94</v>
       </c>
       <c r="M661" s="32" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N661" s="31" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="O661" s="31">
         <v>2</v>
@@ -32540,10 +32571,10 @@
         <v>94</v>
       </c>
       <c r="M662" s="32" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N662" s="32" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="O662" s="32">
         <v>2</v>
@@ -32588,10 +32619,10 @@
         <v>94</v>
       </c>
       <c r="M663" s="32" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N663" s="32" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="O663" s="32">
         <v>2</v>
@@ -32636,10 +32667,10 @@
         <v>94</v>
       </c>
       <c r="M664" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N664" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="O664" s="7"/>
       <c r="P664" s="7"/>
@@ -32682,10 +32713,10 @@
         <v>94</v>
       </c>
       <c r="M665" s="32" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N665" s="31" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="O665" s="31">
         <v>2</v>
@@ -32730,10 +32761,10 @@
         <v>94</v>
       </c>
       <c r="M666" s="32" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N666" s="32" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="O666" s="32"/>
       <c r="P666" s="32"/>
@@ -32776,10 +32807,10 @@
         <v>94</v>
       </c>
       <c r="M667" s="32" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N667" s="32" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="O667" s="32">
         <v>1</v>
@@ -32824,10 +32855,10 @@
         <v>94</v>
       </c>
       <c r="M668" s="22" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N668" s="22" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="O668" s="22">
         <v>1</v>
@@ -32872,10 +32903,10 @@
         <v>94</v>
       </c>
       <c r="M669" s="22" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N669" s="22" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="O669" s="22">
         <v>2</v>
@@ -32922,10 +32953,10 @@
         <v>94</v>
       </c>
       <c r="M670" s="32" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N670" s="31" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="O670" s="31">
         <v>2</v>
@@ -32970,10 +33001,10 @@
         <v>338</v>
       </c>
       <c r="M671" s="31" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N671" s="31" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="O671" s="31"/>
       <c r="P671" s="31"/>
@@ -33016,10 +33047,10 @@
         <v>94</v>
       </c>
       <c r="M672" s="32" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N672" s="22" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="O672" s="22">
         <v>2</v>
@@ -33064,10 +33095,10 @@
         <v>94</v>
       </c>
       <c r="M673" s="32" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N673" s="22" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="O673" s="22">
         <v>2</v>
@@ -33112,10 +33143,10 @@
         <v>94</v>
       </c>
       <c r="M674" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N674" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="O674" s="7"/>
       <c r="P674" s="7"/>
@@ -33158,10 +33189,10 @@
         <v>94</v>
       </c>
       <c r="M675" s="32" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N675" s="31" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="O675" s="31">
         <v>2</v>
@@ -33208,14 +33239,14 @@
         <v>94</v>
       </c>
       <c r="M676" s="31" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N676" s="31" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="O676" s="31"/>
       <c r="P676" s="31" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="Q676" s="31"/>
       <c r="R676" s="31"/>
@@ -33256,10 +33287,10 @@
         <v>94</v>
       </c>
       <c r="M677" s="32" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N677" s="32" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="O677" s="32"/>
       <c r="P677" s="32"/>
@@ -33302,10 +33333,10 @@
         <v>94</v>
       </c>
       <c r="M678" s="32" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N678" s="32" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="O678" s="22">
         <v>2</v>
@@ -33350,10 +33381,10 @@
         <v>94</v>
       </c>
       <c r="M679" s="23" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="N679" s="23" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="O679" s="23"/>
       <c r="P679" s="23"/>
@@ -33394,10 +33425,10 @@
         <v>94</v>
       </c>
       <c r="M680" s="32" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="N680" s="32" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="O680" s="32"/>
       <c r="P680" s="32"/>
@@ -33440,10 +33471,10 @@
         <v>94</v>
       </c>
       <c r="M681" s="22" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="N681" s="22" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="O681" s="31"/>
       <c r="P681" s="31"/>
@@ -33486,10 +33517,10 @@
         <v>94</v>
       </c>
       <c r="M682" s="22" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="N682" s="22" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="O682" s="22"/>
       <c r="P682" s="22"/>
@@ -33531,10 +33562,10 @@
         <v>94</v>
       </c>
       <c r="M683" s="32" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="N683" s="31" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="O683" s="31">
         <v>3</v>
@@ -33574,8 +33605,11 @@
       <c r="L684" s="31" t="s">
         <v>65</v>
       </c>
+      <c r="M684" s="32" t="s">
+        <v>572</v>
+      </c>
       <c r="N684" s="31" t="s">
-        <v>65</v>
+        <v>573</v>
       </c>
       <c r="O684" s="31">
         <v>1</v>
@@ -33616,9 +33650,11 @@
       <c r="L685" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="M685" s="32"/>
-      <c r="N685" s="32" t="s">
-        <v>65</v>
+      <c r="M685" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="N685" s="31" t="s">
+        <v>573</v>
       </c>
       <c r="O685" s="32">
         <v>1</v>
@@ -33662,9 +33698,11 @@
       <c r="L686" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M686" s="7"/>
-      <c r="N686" s="7" t="s">
-        <v>65</v>
+      <c r="M686" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="N686" s="31" t="s">
+        <v>573</v>
       </c>
       <c r="O686" s="7">
         <v>1</v>
@@ -33707,8 +33745,11 @@
       <c r="L687" s="32" t="s">
         <v>65</v>
       </c>
+      <c r="M687" s="32" t="s">
+        <v>572</v>
+      </c>
       <c r="N687" s="31" t="s">
-        <v>65</v>
+        <v>573</v>
       </c>
       <c r="O687" s="31">
         <v>1</v>
@@ -33749,9 +33790,11 @@
       <c r="L688" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="M688" s="31"/>
+      <c r="M688" s="32" t="s">
+        <v>572</v>
+      </c>
       <c r="N688" s="31" t="s">
-        <v>65</v>
+        <v>573</v>
       </c>
       <c r="O688" s="31">
         <v>1</v>
@@ -33795,9 +33838,11 @@
       <c r="L689" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="M689" s="44"/>
-      <c r="N689" s="44" t="s">
-        <v>65</v>
+      <c r="M689" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="N689" s="31" t="s">
+        <v>573</v>
       </c>
       <c r="O689" s="44">
         <v>1</v>
@@ -33841,9 +33886,11 @@
       <c r="L690" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="M690" s="31"/>
+      <c r="M690" s="32" t="s">
+        <v>572</v>
+      </c>
       <c r="N690" s="31" t="s">
-        <v>65</v>
+        <v>573</v>
       </c>
       <c r="O690" s="31">
         <v>1</v>
@@ -33887,9 +33934,11 @@
       <c r="L691" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="M691" s="32"/>
-      <c r="N691" s="32" t="s">
-        <v>65</v>
+      <c r="M691" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="N691" s="31" t="s">
+        <v>573</v>
       </c>
       <c r="O691" s="32">
         <v>1</v>
@@ -33935,9 +33984,11 @@
       <c r="L692" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="M692" s="22"/>
-      <c r="N692" s="22" t="s">
-        <v>65</v>
+      <c r="M692" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="N692" s="31" t="s">
+        <v>573</v>
       </c>
       <c r="O692" s="22">
         <v>1</v>
@@ -33983,9 +34034,11 @@
       <c r="L693" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="M693" s="31"/>
+      <c r="M693" s="32" t="s">
+        <v>572</v>
+      </c>
       <c r="N693" s="31" t="s">
-        <v>65</v>
+        <v>573</v>
       </c>
       <c r="O693" s="31">
         <v>1</v>
@@ -34031,9 +34084,11 @@
       <c r="L694" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="M694" s="22"/>
-      <c r="N694" s="22" t="s">
-        <v>65</v>
+      <c r="M694" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="N694" s="31" t="s">
+        <v>573</v>
       </c>
       <c r="O694" s="22">
         <v>1</v>
@@ -34077,9 +34132,11 @@
       <c r="L695" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M695" s="7"/>
-      <c r="N695" s="7" t="s">
-        <v>65</v>
+      <c r="M695" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="N695" s="31" t="s">
+        <v>573</v>
       </c>
       <c r="O695" s="7">
         <v>1</v>
@@ -34123,9 +34180,11 @@
       <c r="L696" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="M696" s="31"/>
+      <c r="M696" s="32" t="s">
+        <v>572</v>
+      </c>
       <c r="N696" s="31" t="s">
-        <v>65</v>
+        <v>573</v>
       </c>
       <c r="O696" s="31">
         <v>1</v>
@@ -34171,9 +34230,11 @@
       <c r="L697" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="M697" s="32"/>
-      <c r="N697" s="32" t="s">
-        <v>65</v>
+      <c r="M697" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="N697" s="31" t="s">
+        <v>573</v>
       </c>
       <c r="O697" s="32">
         <v>1</v>
@@ -34217,9 +34278,11 @@
       <c r="L698" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="M698" s="31"/>
+      <c r="M698" s="32" t="s">
+        <v>572</v>
+      </c>
       <c r="N698" s="31" t="s">
-        <v>65</v>
+        <v>573</v>
       </c>
       <c r="O698" s="31">
         <v>1</v>
@@ -34265,9 +34328,11 @@
       <c r="L699" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="M699" s="32"/>
-      <c r="N699" s="32" t="s">
-        <v>65</v>
+      <c r="M699" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="N699" s="31" t="s">
+        <v>573</v>
       </c>
       <c r="O699" s="32">
         <v>1</v>
@@ -34311,9 +34376,11 @@
       <c r="L700" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="M700" s="84"/>
-      <c r="N700" s="84" t="s">
-        <v>65</v>
+      <c r="M700" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="N700" s="31" t="s">
+        <v>573</v>
       </c>
       <c r="O700" s="84">
         <v>2</v>
@@ -34357,9 +34424,11 @@
       <c r="L701" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="M701" s="31"/>
+      <c r="M701" s="32" t="s">
+        <v>572</v>
+      </c>
       <c r="N701" s="31" t="s">
-        <v>65</v>
+        <v>573</v>
       </c>
       <c r="O701" s="31">
         <v>1</v>
@@ -34403,9 +34472,11 @@
       <c r="L702" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="M702" s="32"/>
-      <c r="N702" s="32" t="s">
-        <v>65</v>
+      <c r="M702" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="N702" s="31" t="s">
+        <v>573</v>
       </c>
       <c r="O702" s="32">
         <v>1</v>
@@ -34449,9 +34520,11 @@
       <c r="L703" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="M703" s="22"/>
-      <c r="N703" s="22" t="s">
-        <v>65</v>
+      <c r="M703" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="N703" s="31" t="s">
+        <v>573</v>
       </c>
       <c r="O703" s="22">
         <v>1</v>
@@ -34493,9 +34566,11 @@
         <v>24</v>
       </c>
       <c r="L704" s="32"/>
-      <c r="M704" s="32"/>
-      <c r="N704" s="32" t="s">
-        <v>65</v>
+      <c r="M704" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="N704" s="31" t="s">
+        <v>573</v>
       </c>
       <c r="O704" s="32">
         <v>1</v>
@@ -34539,9 +34614,11 @@
       <c r="L705" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="M705" s="32"/>
-      <c r="N705" s="32" t="s">
-        <v>65</v>
+      <c r="M705" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="N705" s="31" t="s">
+        <v>573</v>
       </c>
       <c r="O705" s="32">
         <v>1</v>
@@ -34585,9 +34662,11 @@
       <c r="L706" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="M706" s="31"/>
+      <c r="M706" s="32" t="s">
+        <v>572</v>
+      </c>
       <c r="N706" s="31" t="s">
-        <v>65</v>
+        <v>573</v>
       </c>
       <c r="O706" s="31">
         <v>1</v>
@@ -34631,9 +34710,11 @@
       <c r="L707" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="M707" s="31"/>
+      <c r="M707" s="32" t="s">
+        <v>572</v>
+      </c>
       <c r="N707" s="31" t="s">
-        <v>65</v>
+        <v>573</v>
       </c>
       <c r="O707" s="31">
         <v>1</v>
@@ -34677,9 +34758,11 @@
       <c r="L708" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="M708" s="23"/>
-      <c r="N708" s="23" t="s">
-        <v>65</v>
+      <c r="M708" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="N708" s="31" t="s">
+        <v>573</v>
       </c>
       <c r="O708" s="23">
         <v>1</v>
@@ -34723,9 +34806,11 @@
       <c r="L709" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M709" s="7"/>
-      <c r="N709" s="7" t="s">
-        <v>65</v>
+      <c r="M709" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="N709" s="31" t="s">
+        <v>573</v>
       </c>
       <c r="O709" s="32">
         <v>1</v>
@@ -34768,8 +34853,11 @@
       <c r="L710" s="31" t="s">
         <v>65</v>
       </c>
+      <c r="M710" s="32" t="s">
+        <v>572</v>
+      </c>
       <c r="N710" s="31" t="s">
-        <v>65</v>
+        <v>573</v>
       </c>
       <c r="O710" s="31">
         <v>1</v>
@@ -34809,8 +34897,11 @@
       <c r="L711" s="31" t="s">
         <v>65</v>
       </c>
+      <c r="M711" s="32" t="s">
+        <v>572</v>
+      </c>
       <c r="N711" s="31" t="s">
-        <v>65</v>
+        <v>573</v>
       </c>
       <c r="O711" s="31">
         <v>1</v>
@@ -34851,9 +34942,11 @@
       <c r="L712" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="M712" s="32"/>
-      <c r="N712" s="32" t="s">
-        <v>65</v>
+      <c r="M712" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="N712" s="31" t="s">
+        <v>573</v>
       </c>
       <c r="O712" s="32">
         <v>1</v>
@@ -34897,9 +34990,11 @@
       <c r="L713" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="M713" s="32"/>
-      <c r="N713" s="32" t="s">
-        <v>65</v>
+      <c r="M713" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="N713" s="31" t="s">
+        <v>573</v>
       </c>
       <c r="O713" s="32">
         <v>1</v>
@@ -34944,10 +35039,10 @@
         <v>65</v>
       </c>
       <c r="M714" s="32" t="s">
-        <v>375</v>
-      </c>
-      <c r="N714" s="32" t="s">
-        <v>65</v>
+        <v>572</v>
+      </c>
+      <c r="N714" s="31" t="s">
+        <v>573</v>
       </c>
       <c r="O714" s="32">
         <v>1</v>
@@ -34991,9 +35086,11 @@
       <c r="L715" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="M715" s="32"/>
-      <c r="N715" s="32" t="s">
-        <v>65</v>
+      <c r="M715" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="N715" s="31" t="s">
+        <v>573</v>
       </c>
       <c r="O715" s="32">
         <v>1</v>
@@ -35037,9 +35134,11 @@
       <c r="L716" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="M716" s="32"/>
-      <c r="N716" s="32" t="s">
-        <v>65</v>
+      <c r="M716" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="N716" s="31" t="s">
+        <v>573</v>
       </c>
       <c r="O716" s="32">
         <v>1</v>
@@ -35081,9 +35180,11 @@
       <c r="L717" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="M717" s="44"/>
-      <c r="N717" s="44" t="s">
-        <v>65</v>
+      <c r="M717" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="N717" s="31" t="s">
+        <v>573</v>
       </c>
       <c r="O717" s="44">
         <v>1</v>
@@ -35127,9 +35228,11 @@
       <c r="L718" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="M718" s="32"/>
-      <c r="N718" s="32" t="s">
-        <v>65</v>
+      <c r="M718" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="N718" s="31" t="s">
+        <v>573</v>
       </c>
       <c r="O718" s="32">
         <v>1</v>
@@ -35173,9 +35276,11 @@
       <c r="L719" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="M719" s="31"/>
+      <c r="M719" s="32" t="s">
+        <v>572</v>
+      </c>
       <c r="N719" s="31" t="s">
-        <v>65</v>
+        <v>573</v>
       </c>
       <c r="O719" s="31">
         <v>1</v>
@@ -35219,9 +35324,11 @@
       <c r="L720" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="M720" s="22"/>
-      <c r="N720" s="22" t="s">
-        <v>65</v>
+      <c r="M720" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="N720" s="31" t="s">
+        <v>573</v>
       </c>
       <c r="O720" s="22">
         <v>1</v>
@@ -35263,9 +35370,11 @@
       <c r="L721" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="M721" s="32"/>
-      <c r="N721" s="32" t="s">
-        <v>65</v>
+      <c r="M721" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="N721" s="31" t="s">
+        <v>573</v>
       </c>
       <c r="O721" s="32">
         <v>1</v>
@@ -35309,9 +35418,11 @@
       <c r="L722" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="M722" s="23"/>
-      <c r="N722" s="23" t="s">
-        <v>65</v>
+      <c r="M722" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="N722" s="31" t="s">
+        <v>573</v>
       </c>
       <c r="O722" s="23">
         <v>1</v>
@@ -35355,9 +35466,11 @@
       <c r="L723" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="M723" s="32"/>
-      <c r="N723" s="32" t="s">
-        <v>65</v>
+      <c r="M723" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="N723" s="31" t="s">
+        <v>573</v>
       </c>
       <c r="O723" s="32">
         <v>1</v>
@@ -35401,9 +35514,11 @@
       <c r="L724" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="M724" s="35"/>
-      <c r="N724" s="35" t="s">
-        <v>65</v>
+      <c r="M724" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="N724" s="31" t="s">
+        <v>573</v>
       </c>
       <c r="O724" s="35">
         <v>1</v>
@@ -35449,9 +35564,11 @@
       <c r="L725" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="M725" s="22"/>
-      <c r="N725" s="22" t="s">
-        <v>65</v>
+      <c r="M725" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="N725" s="31" t="s">
+        <v>573</v>
       </c>
       <c r="O725" s="22">
         <v>1</v>
@@ -35495,9 +35612,11 @@
       <c r="L726" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="M726" s="44"/>
-      <c r="N726" s="7" t="s">
-        <v>65</v>
+      <c r="M726" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="N726" s="31" t="s">
+        <v>573</v>
       </c>
       <c r="O726" s="44">
         <v>1</v>
@@ -35541,9 +35660,11 @@
       <c r="L727" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="M727" s="31"/>
+      <c r="M727" s="32" t="s">
+        <v>572</v>
+      </c>
       <c r="N727" s="31" t="s">
-        <v>65</v>
+        <v>573</v>
       </c>
       <c r="O727" s="31">
         <v>1</v>
@@ -35587,9 +35708,11 @@
       <c r="L728" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="M728" s="32"/>
-      <c r="N728" s="32" t="s">
-        <v>65</v>
+      <c r="M728" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="N728" s="31" t="s">
+        <v>573</v>
       </c>
       <c r="O728" s="32">
         <v>1</v>
@@ -35633,9 +35756,11 @@
       <c r="L729" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="M729" s="32"/>
-      <c r="N729" s="32" t="s">
-        <v>65</v>
+      <c r="M729" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="N729" s="31" t="s">
+        <v>573</v>
       </c>
       <c r="O729" s="32">
         <v>1</v>
@@ -35679,9 +35804,11 @@
       <c r="L730" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="M730" s="32"/>
-      <c r="N730" s="32" t="s">
-        <v>65</v>
+      <c r="M730" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="N730" s="31" t="s">
+        <v>573</v>
       </c>
       <c r="O730" s="32">
         <v>1</v>
@@ -35723,8 +35850,11 @@
       <c r="L731" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="N731" s="32" t="s">
-        <v>65</v>
+      <c r="M731" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="N731" s="31" t="s">
+        <v>573</v>
       </c>
       <c r="O731" s="23">
         <v>1</v>
@@ -35765,9 +35895,11 @@
       <c r="L732" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="M732" s="22"/>
-      <c r="N732" s="22" t="s">
-        <v>65</v>
+      <c r="M732" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="N732" s="31" t="s">
+        <v>573</v>
       </c>
       <c r="O732" s="22">
         <v>1</v>
@@ -35811,9 +35943,11 @@
       <c r="L733" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="M733" s="32"/>
-      <c r="N733" s="32" t="s">
-        <v>65</v>
+      <c r="M733" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="N733" s="31" t="s">
+        <v>573</v>
       </c>
       <c r="O733" s="32">
         <v>1</v>
@@ -35857,9 +35991,11 @@
       <c r="L734" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="M734" s="23"/>
-      <c r="N734" s="32" t="s">
-        <v>65</v>
+      <c r="M734" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="N734" s="31" t="s">
+        <v>573</v>
       </c>
       <c r="O734" s="23">
         <v>1</v>
@@ -35902,8 +36038,11 @@
       <c r="L735" s="31" t="s">
         <v>65</v>
       </c>
+      <c r="M735" s="32" t="s">
+        <v>572</v>
+      </c>
       <c r="N735" s="31" t="s">
-        <v>65</v>
+        <v>573</v>
       </c>
       <c r="O735" s="31">
         <v>1</v>
@@ -35943,8 +36082,11 @@
       <c r="L736" s="31" t="s">
         <v>83</v>
       </c>
+      <c r="M736" s="32" t="s">
+        <v>572</v>
+      </c>
       <c r="N736" s="31" t="s">
-        <v>65</v>
+        <v>573</v>
       </c>
       <c r="O736" s="31">
         <v>1</v>
@@ -35985,9 +36127,11 @@
       <c r="L737" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M737" s="7"/>
-      <c r="N737" s="7" t="s">
-        <v>65</v>
+      <c r="M737" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="N737" s="31" t="s">
+        <v>573</v>
       </c>
       <c r="O737" s="7">
         <v>1</v>
@@ -36031,9 +36175,11 @@
       <c r="L738" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="M738" s="32"/>
-      <c r="N738" s="32" t="s">
-        <v>65</v>
+      <c r="M738" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="N738" s="31" t="s">
+        <v>573</v>
       </c>
       <c r="O738" s="32">
         <v>1</v>
@@ -36077,9 +36223,11 @@
       <c r="L739" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="M739" s="32"/>
-      <c r="N739" s="32" t="s">
-        <v>65</v>
+      <c r="M739" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="N739" s="31" t="s">
+        <v>573</v>
       </c>
       <c r="O739" s="32">
         <v>1</v>
@@ -36125,9 +36273,11 @@
       <c r="L740" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="M740" s="32"/>
-      <c r="N740" s="32" t="s">
-        <v>65</v>
+      <c r="M740" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="N740" s="31" t="s">
+        <v>573</v>
       </c>
       <c r="O740" s="32">
         <v>1</v>
@@ -36170,8 +36320,11 @@
       <c r="L741" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="N741" s="32" t="s">
-        <v>65</v>
+      <c r="M741" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="N741" s="31" t="s">
+        <v>573</v>
       </c>
       <c r="O741" s="32">
         <v>1</v>
@@ -36212,9 +36365,11 @@
       <c r="L742" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="M742" s="32"/>
-      <c r="N742" s="32" t="s">
-        <v>65</v>
+      <c r="M742" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="N742" s="31" t="s">
+        <v>573</v>
       </c>
       <c r="O742" s="32">
         <v>1</v>
@@ -36258,9 +36413,11 @@
       <c r="L743" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="M743" s="44"/>
-      <c r="N743" s="32" t="s">
-        <v>65</v>
+      <c r="M743" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="N743" s="31" t="s">
+        <v>573</v>
       </c>
       <c r="O743" s="44">
         <v>1</v>
@@ -36291,7 +36448,7 @@
         <v>18</v>
       </c>
       <c r="G744" s="43" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="H744" s="32">
         <v>5</v>
@@ -36307,10 +36464,10 @@
         <v>65</v>
       </c>
       <c r="M744" s="32" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="N744" s="32" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="O744" s="32"/>
       <c r="P744" s="32"/>
@@ -36353,10 +36510,10 @@
         <v>65</v>
       </c>
       <c r="M745" s="31" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="N745" s="31" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="O745" s="31">
         <v>5</v>
@@ -36401,10 +36558,10 @@
         <v>65</v>
       </c>
       <c r="M746" s="31" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="N746" s="31" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="O746" s="22">
         <v>5</v>
@@ -36449,10 +36606,10 @@
         <v>65</v>
       </c>
       <c r="M747" s="31" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="N747" s="31" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="O747" s="31">
         <v>5</v>
@@ -36497,10 +36654,10 @@
         <v>65</v>
       </c>
       <c r="M748" s="31" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="N748" s="31" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="O748" s="31">
         <v>5</v>
@@ -39520,10 +39677,10 @@
         <v>87</v>
       </c>
       <c r="M815" s="32" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="N815" s="32" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="O815" s="32"/>
       <c r="P815" s="32"/>
@@ -39568,7 +39725,7 @@
         <v>288</v>
       </c>
       <c r="N816" s="24" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="817" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.35">
@@ -39609,7 +39766,7 @@
         <v>288</v>
       </c>
       <c r="N817" s="31" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="818" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.35">
@@ -39651,7 +39808,7 @@
         <v>288</v>
       </c>
       <c r="N818" s="22" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="O818" s="22"/>
       <c r="P818" s="22"/>
@@ -39696,7 +39853,7 @@
         <v>288</v>
       </c>
       <c r="N819" s="31" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="820" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.35">
@@ -39738,7 +39895,7 @@
         <v>288</v>
       </c>
       <c r="N820" s="32" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="O820" s="32"/>
       <c r="P820" s="32"/>
@@ -39783,7 +39940,7 @@
         <v>288</v>
       </c>
       <c r="N821" s="31" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="822" spans="1:18" x14ac:dyDescent="0.35">
@@ -39825,7 +39982,7 @@
         <v>288</v>
       </c>
       <c r="N822" s="32" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="O822" s="32"/>
       <c r="P822" s="32"/>
@@ -39911,13 +40068,13 @@
       </c>
       <c r="K824" s="32"/>
       <c r="L824" s="32" t="s">
+        <v>449</v>
+      </c>
+      <c r="M824" s="32" t="s">
+        <v>453</v>
+      </c>
+      <c r="N824" s="32" t="s">
         <v>452</v>
-      </c>
-      <c r="M824" s="32" t="s">
-        <v>456</v>
-      </c>
-      <c r="N824" s="32" t="s">
-        <v>455</v>
       </c>
       <c r="O824" s="32"/>
       <c r="P824" s="32"/>
@@ -39957,13 +40114,13 @@
       </c>
       <c r="K825" s="32"/>
       <c r="L825" s="32" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="M825" s="32" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="N825" s="32" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="O825" s="32">
         <v>1</v>
@@ -40007,11 +40164,11 @@
       </c>
       <c r="K826" s="32"/>
       <c r="L826" s="32" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="M826" s="32"/>
       <c r="N826" s="32" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="O826" s="32">
         <v>1</v>
@@ -40053,11 +40210,11 @@
       </c>
       <c r="K827" s="32"/>
       <c r="L827" s="32" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="M827" s="32"/>
       <c r="N827" s="32" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="O827" s="32">
         <v>2</v>
@@ -40100,13 +40257,13 @@
         <v>69</v>
       </c>
       <c r="L828" s="32" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M828" s="32" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="N828" s="32" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="O828" s="32">
         <v>1</v>
@@ -40147,10 +40304,10 @@
         <v>69</v>
       </c>
       <c r="L829" s="32" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="N829" s="32" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="O829" s="32">
         <v>2</v>
@@ -40191,13 +40348,13 @@
         <v>69</v>
       </c>
       <c r="L830" s="32" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M830" s="32" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="N830" s="32" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="O830" s="32">
         <v>1</v>
@@ -40238,13 +40395,13 @@
         <v>69</v>
       </c>
       <c r="L831" s="32" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M831" s="32" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="N831" s="32" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="O831" s="32">
         <v>1</v>
@@ -40282,13 +40439,13 @@
         <v>69</v>
       </c>
       <c r="L832" s="32" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M832" s="32" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="N832" s="32" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="O832" s="32">
         <v>1</v>
@@ -40326,13 +40483,13 @@
         <v>69</v>
       </c>
       <c r="L833" s="32" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="M833" s="32" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="N833" s="32" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="834" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.35">
@@ -40367,10 +40524,10 @@
         <v>69</v>
       </c>
       <c r="L834" s="32" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="N834" s="32" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="O834" s="32">
         <v>1</v>
@@ -40408,11 +40565,11 @@
         <v>69</v>
       </c>
       <c r="L835" s="32" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="M835" s="32"/>
       <c r="N835" s="32" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="O835" s="44">
         <v>1</v>
@@ -40451,11 +40608,11 @@
       </c>
       <c r="K836" s="32"/>
       <c r="L836" s="32" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="M836" s="32"/>
       <c r="N836" s="32" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="O836" s="32">
         <v>2</v>
@@ -40497,13 +40654,13 @@
       </c>
       <c r="K837" s="32"/>
       <c r="L837" s="32" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="M837" s="32" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="N837" s="32" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="O837" s="32"/>
       <c r="P837" s="32"/>
@@ -40542,10 +40699,10 @@
         <v>69</v>
       </c>
       <c r="L838" s="32" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="N838" s="32" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="O838" s="32">
         <v>1</v>
@@ -40584,11 +40741,11 @@
       </c>
       <c r="K839" s="32"/>
       <c r="L839" s="32" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="M839" s="32"/>
       <c r="N839" s="32" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="O839" s="32">
         <v>1</v>
@@ -40629,13 +40786,13 @@
         <v>69</v>
       </c>
       <c r="L840" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="M840" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="N840" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="M840" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="N840" s="7" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="841" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -40667,7 +40824,7 @@
         <v>69</v>
       </c>
       <c r="N841" s="32" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="842" spans="1:18" x14ac:dyDescent="0.35">
@@ -40706,10 +40863,10 @@
         <v>187</v>
       </c>
       <c r="M842" s="32" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="N842" s="31" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="O842" s="31">
         <v>1</v>
@@ -41033,15 +41190,15 @@
         <v>19</v>
       </c>
       <c r="J850" s="31" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="K850" s="31" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="L850" s="31"/>
       <c r="M850" s="31"/>
       <c r="N850" s="31" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="O850" s="31">
         <v>1</v>
@@ -41079,15 +41236,15 @@
         <v>19</v>
       </c>
       <c r="J851" s="32" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="K851" s="72" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="L851" s="31"/>
       <c r="M851" s="31"/>
       <c r="N851" s="31" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="O851" s="31">
         <v>1</v>
@@ -41167,7 +41324,7 @@
         <v>150</v>
       </c>
       <c r="M853" s="32" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N853" s="32" t="s">
         <v>149</v>
@@ -46314,7 +46471,7 @@
         <v>183</v>
       </c>
       <c r="L970" s="32" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="M970" s="22"/>
       <c r="N970" s="22" t="s">
@@ -46443,7 +46600,7 @@
       <c r="L973" s="22"/>
       <c r="M973" s="22"/>
       <c r="N973" s="22" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="O973" s="22">
         <v>2</v>
@@ -46489,7 +46646,7 @@
       </c>
       <c r="M974" s="22"/>
       <c r="N974" s="22" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="O974" s="22">
         <v>2</v>
@@ -46533,7 +46690,7 @@
         <v>357</v>
       </c>
       <c r="N975" s="31" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="O975" s="31">
         <v>2</v>
@@ -46571,10 +46728,10 @@
         <v>82</v>
       </c>
       <c r="L976" s="1" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="N976" s="1" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="O976" s="31">
         <v>3</v>
@@ -46659,13 +46816,13 @@
         <v>304</v>
       </c>
       <c r="L978" s="31" t="s">
+        <v>493</v>
+      </c>
+      <c r="M978" s="31" t="s">
+        <v>497</v>
+      </c>
+      <c r="N978" s="31" t="s">
         <v>496</v>
-      </c>
-      <c r="M978" s="31" t="s">
-        <v>500</v>
-      </c>
-      <c r="N978" s="31" t="s">
-        <v>499</v>
       </c>
       <c r="O978" s="7"/>
       <c r="P978" s="7"/>
@@ -46707,13 +46864,13 @@
         <v>304</v>
       </c>
       <c r="L979" s="31" t="s">
+        <v>493</v>
+      </c>
+      <c r="M979" s="31" t="s">
+        <v>497</v>
+      </c>
+      <c r="N979" s="31" t="s">
         <v>496</v>
-      </c>
-      <c r="M979" s="31" t="s">
-        <v>500</v>
-      </c>
-      <c r="N979" s="31" t="s">
-        <v>499</v>
       </c>
       <c r="O979" s="31"/>
       <c r="P979" s="31"/>
@@ -46809,7 +46966,7 @@
         <v>3</v>
       </c>
       <c r="P981" s="31" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="Q981" s="31"/>
       <c r="R981" s="31"/>
@@ -46890,16 +47047,16 @@
         <v>119</v>
       </c>
       <c r="K983" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="L983" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="M983" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="N983" s="23" t="s">
         <v>386</v>
-      </c>
-      <c r="L983" s="23" t="s">
-        <v>387</v>
-      </c>
-      <c r="M983" s="23" t="s">
-        <v>388</v>
-      </c>
-      <c r="N983" s="23" t="s">
-        <v>389</v>
       </c>
       <c r="O983" s="23"/>
       <c r="P983" s="23"/>
@@ -46938,16 +47095,16 @@
         <v>119</v>
       </c>
       <c r="K984" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="L984" s="32" t="s">
+        <v>384</v>
+      </c>
+      <c r="M984" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="N984" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="L984" s="32" t="s">
-        <v>387</v>
-      </c>
-      <c r="M984" s="32" t="s">
-        <v>388</v>
-      </c>
-      <c r="N984" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="O984" s="7"/>
       <c r="P984" s="7"/>
@@ -46986,16 +47143,16 @@
         <v>119</v>
       </c>
       <c r="K985" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="L985" s="32" t="s">
+        <v>384</v>
+      </c>
+      <c r="M985" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="N985" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="L985" s="32" t="s">
-        <v>387</v>
-      </c>
-      <c r="M985" s="32" t="s">
-        <v>388</v>
-      </c>
-      <c r="N985" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="O985" s="7"/>
       <c r="P985" s="7"/>
@@ -47034,16 +47191,16 @@
         <v>119</v>
       </c>
       <c r="K986" s="32" t="s">
+        <v>383</v>
+      </c>
+      <c r="L986" s="32" t="s">
+        <v>384</v>
+      </c>
+      <c r="M986" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="N986" s="32" t="s">
         <v>386</v>
-      </c>
-      <c r="L986" s="32" t="s">
-        <v>387</v>
-      </c>
-      <c r="M986" s="32" t="s">
-        <v>388</v>
-      </c>
-      <c r="N986" s="32" t="s">
-        <v>389</v>
       </c>
       <c r="O986" s="32"/>
       <c r="P986" s="32"/>
@@ -47082,16 +47239,16 @@
         <v>119</v>
       </c>
       <c r="K987" s="32" t="s">
+        <v>383</v>
+      </c>
+      <c r="L987" s="32" t="s">
+        <v>384</v>
+      </c>
+      <c r="M987" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="N987" s="32" t="s">
         <v>386</v>
-      </c>
-      <c r="L987" s="32" t="s">
-        <v>387</v>
-      </c>
-      <c r="M987" s="32" t="s">
-        <v>388</v>
-      </c>
-      <c r="N987" s="32" t="s">
-        <v>389</v>
       </c>
       <c r="O987" s="76"/>
       <c r="P987" s="76"/>
@@ -47127,11 +47284,11 @@
         <v>49</v>
       </c>
       <c r="J988" s="37" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="K988" s="37"/>
       <c r="L988" s="22" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="M988" s="22"/>
       <c r="N988" s="22" t="s">
@@ -47173,7 +47330,7 @@
         <v>49</v>
       </c>
       <c r="J989" s="22" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="K989" s="22"/>
       <c r="L989" s="22"/>
@@ -47227,7 +47384,7 @@
         <v>309</v>
       </c>
       <c r="N990" s="32" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="O990" s="32"/>
       <c r="P990" s="32"/>
@@ -47273,7 +47430,7 @@
         <v>309</v>
       </c>
       <c r="N991" s="32" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="O991" s="32"/>
       <c r="P991" s="32"/>
@@ -47321,7 +47478,7 @@
         <v>309</v>
       </c>
       <c r="N992" s="31" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="O992" s="31"/>
       <c r="P992" s="31" t="s">
@@ -47369,7 +47526,7 @@
         <v>309</v>
       </c>
       <c r="N993" s="31" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="O993" s="37"/>
       <c r="P993" s="37"/>
@@ -47415,7 +47572,7 @@
         <v>309</v>
       </c>
       <c r="N994" s="31" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="O994" s="31">
         <v>1</v>
@@ -47463,7 +47620,7 @@
         <v>309</v>
       </c>
       <c r="N995" s="37" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="O995" s="37">
         <v>1</v>
@@ -47513,10 +47670,10 @@
         <v>309</v>
       </c>
       <c r="N996" s="32" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="O996" s="32" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="P996" s="32"/>
       <c r="Q996" s="32"/>
@@ -47561,7 +47718,7 @@
         <v>309</v>
       </c>
       <c r="N997" s="31" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="O997" s="31"/>
       <c r="P997" s="31"/>
@@ -47607,7 +47764,7 @@
         <v>309</v>
       </c>
       <c r="N998" s="56" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="O998" s="56"/>
       <c r="P998" s="56" t="s">
@@ -47655,7 +47812,7 @@
         <v>309</v>
       </c>
       <c r="N999" s="32" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="O999" s="31"/>
       <c r="P999" s="31"/>
@@ -47701,7 +47858,7 @@
         <v>309</v>
       </c>
       <c r="N1000" s="32" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="O1000" s="35"/>
       <c r="P1000" s="35" t="s">
@@ -47748,7 +47905,7 @@
         <v>309</v>
       </c>
       <c r="N1001" s="24" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="O1001" s="24">
         <v>1</v>
@@ -47792,7 +47949,7 @@
         <v>309</v>
       </c>
       <c r="N1002" s="31" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="O1002" s="31">
         <v>1</v>
@@ -47836,7 +47993,7 @@
         <v>309</v>
       </c>
       <c r="N1003" s="31" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="O1003" s="31">
         <v>1</v>
@@ -47881,7 +48038,7 @@
         <v>309</v>
       </c>
       <c r="N1004" s="32" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="O1004" s="32"/>
       <c r="P1004" s="32" t="s">
@@ -47925,10 +48082,10 @@
         <v>346</v>
       </c>
       <c r="M1005" s="32" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="N1005" s="31" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="O1005" s="31">
         <v>1</v>
@@ -47969,10 +48126,10 @@
         <v>346</v>
       </c>
       <c r="M1006" s="31" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="N1006" s="31" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="O1006" s="31">
         <v>1</v>
@@ -48017,10 +48174,10 @@
         <v>346</v>
       </c>
       <c r="M1007" s="44" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="N1007" s="44" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="O1007" s="44">
         <v>1</v>
@@ -48065,10 +48222,10 @@
         <v>346</v>
       </c>
       <c r="M1008" s="32" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="N1008" s="32" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="O1008" s="32">
         <v>1</v>
@@ -48113,10 +48270,10 @@
         <v>346</v>
       </c>
       <c r="M1009" s="32" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="N1009" s="32" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="O1009" s="32">
         <v>1</v>
@@ -48163,10 +48320,10 @@
         <v>346</v>
       </c>
       <c r="M1010" s="32" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="N1010" s="32" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="O1010" s="32"/>
       <c r="P1010" s="32"/>
@@ -48209,10 +48366,10 @@
         <v>346</v>
       </c>
       <c r="M1011" s="31" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="N1011" s="31" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="O1011" s="31">
         <v>1</v>
@@ -48259,10 +48416,10 @@
         <v>346</v>
       </c>
       <c r="M1012" s="22" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="N1012" s="22" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="O1012" s="22">
         <v>1</v>
@@ -48307,10 +48464,10 @@
         <v>346</v>
       </c>
       <c r="M1013" s="31" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="N1013" s="31" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="O1013" s="31">
         <v>1</v>
@@ -48357,10 +48514,10 @@
         <v>346</v>
       </c>
       <c r="M1014" s="32" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="N1014" s="32" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="O1014" s="32">
         <v>1</v>
@@ -48405,10 +48562,10 @@
         <v>346</v>
       </c>
       <c r="M1015" s="23" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="N1015" s="23" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="O1015" s="23">
         <v>4</v>
@@ -48454,10 +48611,10 @@
         <v>346</v>
       </c>
       <c r="M1016" s="31" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="N1016" s="31" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="P1016" s="31" t="s">
         <v>164</v>
@@ -48499,10 +48656,10 @@
         <v>346</v>
       </c>
       <c r="M1017" s="32" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="N1017" s="32" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="O1017" s="32">
         <v>1</v>
@@ -48547,10 +48704,10 @@
         <v>346</v>
       </c>
       <c r="M1018" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="N1018" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="O1018" s="7"/>
       <c r="P1018" s="7"/>
@@ -48757,17 +48914,17 @@
         <v>49</v>
       </c>
       <c r="J1023" s="32" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="K1023" s="32"/>
       <c r="L1023" s="32" t="s">
         <v>346</v>
       </c>
       <c r="M1023" s="32" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="N1023" s="32" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="O1023" s="32"/>
       <c r="P1023" s="32"/>
@@ -48808,16 +48965,16 @@
         <v>117</v>
       </c>
       <c r="K1024" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="L1024" s="31" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="M1024" s="31" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="N1024" s="31" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="O1024" s="7"/>
       <c r="P1024" s="7"/>
@@ -48856,16 +49013,16 @@
         <v>117</v>
       </c>
       <c r="K1025" s="22" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="L1025" s="31" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="M1025" s="31" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="N1025" s="31" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="O1025" s="22"/>
       <c r="P1025" s="22"/>
@@ -48904,16 +49061,16 @@
         <v>117</v>
       </c>
       <c r="K1026" s="31" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="L1026" s="31" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="M1026" s="31" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="N1026" s="31" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="O1026" s="31"/>
       <c r="P1026" s="31"/>
@@ -49167,10 +49324,12 @@
         <v>75</v>
       </c>
       <c r="K1032" s="44"/>
-      <c r="L1032" s="44"/>
-      <c r="M1032" s="44"/>
+      <c r="L1032" s="32" t="s">
+        <v>568</v>
+      </c>
+      <c r="M1032" s="32"/>
       <c r="N1032" s="23" t="s">
-        <v>75</v>
+        <v>568</v>
       </c>
       <c r="O1032" s="37">
         <v>1</v>
@@ -49210,8 +49369,12 @@
       <c r="J1033" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="N1033" s="40" t="s">
-        <v>75</v>
+      <c r="L1033" s="31" t="s">
+        <v>568</v>
+      </c>
+      <c r="M1033" s="31"/>
+      <c r="N1033" s="32" t="s">
+        <v>568</v>
       </c>
       <c r="O1033" s="24">
         <v>1</v>
@@ -49249,10 +49412,12 @@
         <v>75</v>
       </c>
       <c r="K1034" s="32"/>
-      <c r="L1034" s="32"/>
+      <c r="L1034" s="31" t="s">
+        <v>568</v>
+      </c>
       <c r="M1034" s="32"/>
-      <c r="N1034" s="8" t="s">
-        <v>75</v>
+      <c r="N1034" s="32" t="s">
+        <v>568</v>
       </c>
       <c r="O1034" s="31">
         <v>1</v>
@@ -49293,10 +49458,12 @@
         <v>75</v>
       </c>
       <c r="K1035" s="32"/>
-      <c r="L1035" s="32"/>
+      <c r="L1035" s="31" t="s">
+        <v>568</v>
+      </c>
       <c r="M1035" s="32"/>
       <c r="N1035" s="32" t="s">
-        <v>75</v>
+        <v>568</v>
       </c>
       <c r="O1035" s="31">
         <v>1</v>
@@ -49336,8 +49503,11 @@
       <c r="J1036" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="N1036" s="8" t="s">
-        <v>75</v>
+      <c r="L1036" s="31" t="s">
+        <v>568</v>
+      </c>
+      <c r="N1036" s="32" t="s">
+        <v>568</v>
       </c>
       <c r="O1036" s="31">
         <v>1</v>
@@ -49375,10 +49545,12 @@
         <v>75</v>
       </c>
       <c r="K1037" s="3"/>
-      <c r="L1037" s="3"/>
-      <c r="M1037" s="3"/>
-      <c r="N1037" s="8" t="s">
-        <v>75</v>
+      <c r="L1037" s="31" t="s">
+        <v>568</v>
+      </c>
+      <c r="M1037" s="55"/>
+      <c r="N1037" s="32" t="s">
+        <v>568</v>
       </c>
       <c r="O1037" s="3">
         <v>1</v>
@@ -49418,8 +49590,11 @@
       <c r="J1038" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="N1038" s="8" t="s">
-        <v>75</v>
+      <c r="L1038" s="31" t="s">
+        <v>568</v>
+      </c>
+      <c r="N1038" s="32" t="s">
+        <v>568</v>
       </c>
       <c r="O1038" s="31">
         <v>1</v>
@@ -49456,8 +49631,12 @@
       <c r="J1039" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="N1039" s="8" t="s">
-        <v>75</v>
+      <c r="L1039" s="31" t="s">
+        <v>568</v>
+      </c>
+      <c r="M1039" s="31"/>
+      <c r="N1039" s="32" t="s">
+        <v>568</v>
       </c>
       <c r="O1039" s="37">
         <v>1</v>
@@ -49495,10 +49674,12 @@
         <v>75</v>
       </c>
       <c r="K1040" s="22"/>
-      <c r="L1040" s="22"/>
-      <c r="M1040" s="22"/>
-      <c r="N1040" s="8" t="s">
-        <v>75</v>
+      <c r="L1040" s="31" t="s">
+        <v>568</v>
+      </c>
+      <c r="M1040" s="31"/>
+      <c r="N1040" s="32" t="s">
+        <v>568</v>
       </c>
       <c r="O1040" s="22">
         <v>1</v>
@@ -49536,13 +49717,13 @@
         <v>127</v>
       </c>
       <c r="J1041" s="32" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="K1041" s="31"/>
       <c r="L1041" s="31"/>
       <c r="M1041" s="31"/>
       <c r="N1041" s="31" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="O1041" s="31">
         <v>1</v>
@@ -49582,13 +49763,13 @@
         <v>127</v>
       </c>
       <c r="J1042" s="31" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="K1042" s="31"/>
       <c r="L1042" s="31"/>
       <c r="M1042" s="31"/>
       <c r="N1042" s="31" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="O1042" s="31">
         <v>1</v>
@@ -49626,13 +49807,13 @@
         <v>127</v>
       </c>
       <c r="J1043" s="32" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="K1043" s="31"/>
       <c r="L1043" s="31"/>
       <c r="M1043" s="31"/>
       <c r="N1043" s="31" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="O1043" s="31">
         <v>1</v>
@@ -49670,13 +49851,13 @@
         <v>127</v>
       </c>
       <c r="J1044" s="32" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="K1044" s="31"/>
       <c r="L1044" s="31"/>
       <c r="M1044" s="31"/>
       <c r="N1044" s="32" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="O1044" s="31">
         <v>1</v>
@@ -49714,13 +49895,13 @@
         <v>127</v>
       </c>
       <c r="J1045" s="31" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="K1045" s="31"/>
       <c r="L1045" s="31"/>
       <c r="M1045" s="31"/>
       <c r="N1045" s="31" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="O1045" s="31">
         <v>1</v>
@@ -49758,10 +49939,10 @@
         <v>127</v>
       </c>
       <c r="J1046" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="N1046" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="O1046" s="22">
         <v>1</v>
@@ -49796,10 +49977,10 @@
         <v>127</v>
       </c>
       <c r="J1047" s="24" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="N1047" s="24" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="O1047" s="24">
         <v>1</v>
@@ -49834,10 +50015,10 @@
         <v>127</v>
       </c>
       <c r="J1048" s="32" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="N1048" s="32" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="O1048" s="31">
         <v>1</v>
@@ -49872,10 +50053,10 @@
         <v>127</v>
       </c>
       <c r="J1049" s="32" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="N1049" s="32" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="O1049" s="31">
         <v>1</v>
@@ -49910,13 +50091,13 @@
         <v>127</v>
       </c>
       <c r="J1050" s="32" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="K1050" s="22"/>
       <c r="L1050" s="22"/>
       <c r="M1050" s="22"/>
       <c r="N1050" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="O1050" s="22">
         <v>1</v>
@@ -49954,13 +50135,13 @@
         <v>127</v>
       </c>
       <c r="J1051" s="32" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="K1051" s="22"/>
       <c r="L1051" s="22"/>
       <c r="M1051" s="22"/>
       <c r="N1051" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="O1051" s="22">
         <v>1</v>
@@ -50038,8 +50219,14 @@
       <c r="J1053" s="31" t="s">
         <v>322</v>
       </c>
+      <c r="L1053" s="31" t="s">
+        <v>570</v>
+      </c>
+      <c r="M1053" s="31" t="s">
+        <v>571</v>
+      </c>
       <c r="N1053" s="31" t="s">
-        <v>322</v>
+        <v>569</v>
       </c>
     </row>
     <row r="1054" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.35">
@@ -50073,8 +50260,14 @@
       <c r="J1054" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="N1054" s="32" t="s">
-        <v>322</v>
+      <c r="L1054" s="31" t="s">
+        <v>570</v>
+      </c>
+      <c r="M1054" s="31" t="s">
+        <v>571</v>
+      </c>
+      <c r="N1054" s="31" t="s">
+        <v>569</v>
       </c>
       <c r="O1054" s="31">
         <v>1</v>
